--- a/data_clean/Telenor 15.12.2020.xlsx
+++ b/data_clean/Telenor 15.12.2020.xlsx
@@ -1278,7 +1278,7 @@
         <v>0.7982689121269118</v>
       </c>
       <c r="K2">
-        <v>42.38353625188561</v>
+        <v>-0.0761646374811443</v>
       </c>
       <c r="L2">
         <v>-0.003568616557294331</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.01057043595808</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1420,7 +1420,7 @@
         <v>2.105263157894737</v>
       </c>
       <c r="K4">
-        <v>67.79661016949153</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="L4">
         <v>9.021705379037425E-05</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000332667997339</v>
+        <v>0.0003326679973385538</v>
       </c>
       <c r="V4">
-        <v>1.000332667997339</v>
+        <v>0.0003326679973385538</v>
       </c>
       <c r="W4">
-        <v>1.001331114808652</v>
+        <v>0.001331114808652112</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1491,7 +1491,7 @@
         <v>1.354723707665022</v>
       </c>
       <c r="K5">
-        <v>57.53217259652027</v>
+        <v>0.0753217259652027</v>
       </c>
       <c r="L5">
         <v>0.002393283624226885</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000083139341537</v>
+        <v>8.313934153658664E-05</v>
       </c>
       <c r="V5">
-        <v>1.000083139341537</v>
+        <v>8.313934153658664E-05</v>
       </c>
       <c r="W5">
-        <v>0.9996676636756399</v>
+        <v>-0.0003323363243601385</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1562,7 +1562,7 @@
         <v>0.9850603724674225</v>
       </c>
       <c r="K6">
-        <v>49.62369840887994</v>
+        <v>-0.003763015911200596</v>
       </c>
       <c r="L6">
         <v>0.002335076331181807</v>
@@ -1592,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.9999833735140077</v>
+        <v>-1.662648599232153E-05</v>
       </c>
       <c r="V6">
-        <v>0.9999833735140077</v>
+        <v>-1.662648599232153E-05</v>
       </c>
       <c r="W6">
-        <v>0.9996675531914893</v>
+        <v>-0.0003324468085107446</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1633,7 +1633,7 @@
         <v>0.458396614320967</v>
       </c>
       <c r="K7">
-        <v>31.43154679732972</v>
+        <v>-0.1856845320267028</v>
       </c>
       <c r="L7">
         <v>1.221536178497832E-05</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9997672253258848</v>
+        <v>-0.0002327746741151993</v>
       </c>
       <c r="V7">
-        <v>0.9997672253258848</v>
+        <v>-0.0002327746741151993</v>
       </c>
       <c r="W7">
-        <v>0.9986697705354174</v>
+        <v>-0.001330229464582611</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1704,7 +1704,7 @@
         <v>0.4018563511787911</v>
       </c>
       <c r="K8">
-        <v>28.66601494802792</v>
+        <v>-0.2133398505197208</v>
       </c>
       <c r="L8">
         <v>-0.002523852697137648</v>
@@ -1734,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.999786177567651</v>
+        <v>-0.0002138224323490201</v>
       </c>
       <c r="V8">
-        <v>0.999786177567651</v>
+        <v>-0.0002138224323490201</v>
       </c>
       <c r="W8">
-        <v>0.9996669996669996</v>
+        <v>-0.0003330003330004327</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1775,7 +1775,7 @@
         <v>1.051032900547478</v>
       </c>
       <c r="K9">
-        <v>51.24407805778873</v>
+        <v>0.01244078057788722</v>
       </c>
       <c r="L9">
         <v>-0.003040195064020761</v>
@@ -1805,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000047526258258</v>
+        <v>4.752625825776846E-05</v>
       </c>
       <c r="V9">
-        <v>1.000047526258258</v>
+        <v>4.752625825776846E-05</v>
       </c>
       <c r="W9">
-        <v>1.001665556295803</v>
+        <v>0.001665556295802784</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1846,7 +1846,7 @@
         <v>1.051032900547478</v>
       </c>
       <c r="K10">
-        <v>51.24407805778873</v>
+        <v>0.01244078057788722</v>
       </c>
       <c r="L10">
         <v>-0.002792288401233432</v>
@@ -1876,13 +1876,13 @@
         <v>-0.005555555555531555</v>
       </c>
       <c r="U10">
-        <v>1.000036963110815</v>
+        <v>3.696311081524684E-05</v>
       </c>
       <c r="V10">
-        <v>1.000036963110815</v>
+        <v>3.696311081524684E-05</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1917,7 +1917,7 @@
         <v>1.051032900547478</v>
       </c>
       <c r="K11">
-        <v>51.24407805778873</v>
+        <v>0.01244078057788722</v>
       </c>
       <c r="L11">
         <v>-0.002277722804337365</v>
@@ -1947,13 +1947,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U11">
-        <v>1.000029569395676</v>
+        <v>2.956939567555494E-05</v>
       </c>
       <c r="V11">
-        <v>1.000029569395676</v>
+        <v>2.956939567555494E-05</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1988,7 +1988,7 @@
         <v>0.9128038109956401</v>
       </c>
       <c r="K12">
-        <v>47.72072314726901</v>
+        <v>-0.02279276852730994</v>
       </c>
       <c r="L12">
         <v>-0.001907942609070182</v>
@@ -2018,13 +2018,13 @@
         <v>-0.01534090909092356</v>
       </c>
       <c r="U12">
-        <v>0.9999939518933598</v>
+        <v>-6.048106640177409E-06</v>
       </c>
       <c r="V12">
-        <v>0.9999939518933598</v>
+        <v>-6.048106640177409E-06</v>
       </c>
       <c r="W12">
-        <v>0.9996674426338544</v>
+        <v>-0.0003325573661455694</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2059,7 +2059,7 @@
         <v>1.051243154536281</v>
       </c>
       <c r="K13">
-        <v>51.24907557699724</v>
+        <v>0.01249075576997238</v>
       </c>
       <c r="L13">
         <v>-0.001443606403305665</v>
@@ -2089,13 +2089,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U13">
-        <v>1.000022680537075</v>
+        <v>2.268053707510376E-05</v>
       </c>
       <c r="V13">
-        <v>1.000022680537075</v>
+        <v>2.268053707510376E-05</v>
       </c>
       <c r="W13">
-        <v>1.000332667997339</v>
+        <v>0.0003326679973385538</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2130,7 +2130,7 @@
         <v>1.051243154536281</v>
       </c>
       <c r="K14">
-        <v>51.24907557699724</v>
+        <v>0.01249075576997238</v>
       </c>
       <c r="L14">
         <v>-0.0009748642356184526</v>
@@ -2160,13 +2160,13 @@
         <v>-0.02788461538460751</v>
       </c>
       <c r="U14">
-        <v>1.000019190788421</v>
+        <v>1.919078842149702E-05</v>
       </c>
       <c r="V14">
-        <v>1.000019190788421</v>
+        <v>1.919078842149702E-05</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2201,7 +2201,7 @@
         <v>0.8044464067066388</v>
       </c>
       <c r="K15">
-        <v>44.5813410537841</v>
+        <v>-0.05418658946215898</v>
       </c>
       <c r="L15">
         <v>-0.0008717240013486202</v>
@@ -2231,13 +2231,13 @@
         <v>-0.01071428571430033</v>
       </c>
       <c r="U15">
-        <v>0.9999689297959602</v>
+        <v>-3.107020403980698E-05</v>
       </c>
       <c r="V15">
-        <v>0.9999689297959602</v>
+        <v>-3.107020403980698E-05</v>
       </c>
       <c r="W15">
-        <v>0.9993348852677088</v>
+        <v>-0.0006651147322912498</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2272,7 +2272,7 @@
         <v>0.8044464067066388</v>
       </c>
       <c r="K16">
-        <v>44.5813410537841</v>
+        <v>-0.05418658946215898</v>
       </c>
       <c r="L16">
         <v>-0.0009576210498824929</v>
@@ -2302,13 +2302,13 @@
         <v>0.01208333333332234</v>
       </c>
       <c r="U16">
-        <v>0.999973071653163</v>
+        <v>-2.692834683704071E-05</v>
       </c>
       <c r="V16">
-        <v>0.999973071653163</v>
+        <v>-2.692834683704071E-05</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2343,7 +2343,7 @@
         <v>0.6383840889158373</v>
       </c>
       <c r="K17">
-        <v>38.96425101016899</v>
+        <v>-0.1103574898983101</v>
       </c>
       <c r="L17">
         <v>-0.001430154115256618</v>
@@ -2373,13 +2373,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U17">
-        <v>0.999934855406724</v>
+        <v>-6.514459327600086E-05</v>
       </c>
       <c r="V17">
-        <v>0.9999112924687307</v>
+        <v>-8.870753126932751E-05</v>
       </c>
       <c r="W17">
-        <v>0.9993344425956739</v>
+        <v>-0.0006655574043260559</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2414,7 +2414,7 @@
         <v>0.6383840889158373</v>
       </c>
       <c r="K18">
-        <v>38.96425101016899</v>
+        <v>-0.1103574898983101</v>
       </c>
       <c r="L18">
         <v>-0.002064164936143912</v>
@@ -2444,13 +2444,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U18">
-        <v>0.9999425157317319</v>
+        <v>-5.748426826812647E-05</v>
       </c>
       <c r="V18">
-        <v>0.9999556422995033</v>
+        <v>-4.435770049671106E-05</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2485,7 +2485,7 @@
         <v>0.57286754341238</v>
       </c>
       <c r="K19">
-        <v>36.42185547102891</v>
+        <v>-0.1357814452897109</v>
       </c>
       <c r="L19">
         <v>-0.002868653056146447</v>
@@ -2515,13 +2515,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U19">
-        <v>0.9999304169330393</v>
+        <v>-6.958306696069894E-05</v>
       </c>
       <c r="V19">
-        <v>0.9998447411613359</v>
+        <v>-0.0001552588386640741</v>
       </c>
       <c r="W19">
-        <v>0.9996669996669996</v>
+        <v>-0.0003330003330004327</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2556,7 +2556,7 @@
         <v>0.4710847488192175</v>
       </c>
       <c r="K20">
-        <v>32.02295103646061</v>
+        <v>-0.1797704896353939</v>
       </c>
       <c r="L20">
         <v>-0.003970044226806701</v>
@@ -2586,13 +2586,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U20">
-        <v>0.9999027142718164</v>
+        <v>-9.728572818357151E-05</v>
       </c>
       <c r="V20">
-        <v>0.9998225337740413</v>
+        <v>-0.0001774662259587112</v>
       </c>
       <c r="W20">
-        <v>0.999333777481679</v>
+        <v>-0.0006662225183210468</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2627,7 +2627,7 @@
         <v>0.4710847488192175</v>
       </c>
       <c r="K21">
-        <v>32.02295103646061</v>
+        <v>-0.1797704896353939</v>
       </c>
       <c r="L21">
         <v>-0.005140957654716151</v>
@@ -2657,13 +2657,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U21">
-        <v>0.9999124343257443</v>
+        <v>-8.756567425571848E-05</v>
       </c>
       <c r="V21">
-        <v>0.9998446894899157</v>
+        <v>-0.0001553105100843277</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2698,7 +2698,7 @@
         <v>0.4710847488192175</v>
       </c>
       <c r="K22">
-        <v>32.02295103646061</v>
+        <v>-0.1797704896353939</v>
       </c>
       <c r="L22">
         <v>-0.006246337574316732</v>
@@ -2728,13 +2728,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U22">
-        <v>0.9999207669756754</v>
+        <v>-7.923302432455426E-05</v>
       </c>
       <c r="V22">
-        <v>0.9999334280134922</v>
+        <v>-6.657198650783513E-05</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2769,7 +2769,7 @@
         <v>0.359375513442297</v>
       </c>
       <c r="K23">
-        <v>26.43680939435663</v>
+        <v>-0.2356319060564337</v>
       </c>
       <c r="L23">
         <v>-0.007603587112835087</v>
@@ -2799,13 +2799,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U23">
-        <v>0.9998825817605532</v>
+        <v>-0.000117418239446776</v>
       </c>
       <c r="V23">
-        <v>0.9998890393022789</v>
+        <v>-0.0001109606977210964</v>
       </c>
       <c r="W23">
-        <v>0.999</v>
+        <v>-0.001000000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2840,7 +2840,7 @@
         <v>0.4425796991806887</v>
       </c>
       <c r="K24">
-        <v>30.67973987378662</v>
+        <v>-0.1932026012621338</v>
       </c>
       <c r="L24">
         <v>-0.008853396177392378</v>
@@ -2870,13 +2870,13 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="U24">
-        <v>0.999907250937522</v>
+        <v>-9.274906247802583E-05</v>
       </c>
       <c r="V24">
-        <v>0.9998002485795456</v>
+        <v>-0.0001997514204543638</v>
       </c>
       <c r="W24">
-        <v>1.000333667000334</v>
+        <v>0.0003336670003337705</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2911,7 +2911,7 @@
         <v>0.5301630525894724</v>
       </c>
       <c r="K25">
-        <v>34.64748751397998</v>
+        <v>-0.1535251248602002</v>
       </c>
       <c r="L25">
         <v>-0.009792387625628804</v>
@@ -2941,13 +2941,13 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="U25">
-        <v>0.9999288419326048</v>
+        <v>-7.115806739521613E-05</v>
       </c>
       <c r="V25">
-        <v>0.9998224077075054</v>
+        <v>-0.0001775922924945883</v>
       </c>
       <c r="W25">
-        <v>1.000333555703802</v>
+        <v>0.0003335557038024461</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2982,7 +2982,7 @@
         <v>0.4854115077167882</v>
       </c>
       <c r="K26">
-        <v>32.67858806768702</v>
+        <v>-0.1732141193231299</v>
       </c>
       <c r="L26">
         <v>-0.01057439456597119</v>
@@ -3012,13 +3012,13 @@
         <v>-0.1531249999999886</v>
       </c>
       <c r="U26">
-        <v>0.9999212139706495</v>
+        <v>-7.878602935051937E-05</v>
       </c>
       <c r="V26">
-        <v>0.9998001731832412</v>
+        <v>-0.0001998268167587858</v>
       </c>
       <c r="W26">
-        <v>0.9996665555185063</v>
+        <v>-0.0003334444814937498</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3053,7 +3053,7 @@
         <v>0.7519722711060975</v>
       </c>
       <c r="K27">
-        <v>42.92147104767498</v>
+        <v>-0.07078528952325014</v>
       </c>
       <c r="L27">
         <v>-0.01079271775329857</v>
@@ -3083,13 +3083,13 @@
         <v>-0.140625</v>
       </c>
       <c r="U27">
-        <v>0.9999656831210126</v>
+        <v>-3.431687898736158E-05</v>
       </c>
       <c r="V27">
-        <v>0.9998889629136133</v>
+        <v>-0.0001110370863867116</v>
       </c>
       <c r="W27">
-        <v>1.001000667111408</v>
+        <v>0.00100066711140756</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3124,7 +3124,7 @@
         <v>0.8455023635233635</v>
       </c>
       <c r="K28">
-        <v>45.81421190429484</v>
+        <v>-0.04185788095705156</v>
       </c>
       <c r="L28">
         <v>-0.01049607758258594</v>
@@ -3154,13 +3154,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U28">
-        <v>0.9999805549982902</v>
+        <v>-1.944500170980579E-05</v>
       </c>
       <c r="V28">
-        <v>0.9998889505830093</v>
+        <v>-0.0001110494169906939</v>
       </c>
       <c r="W28">
-        <v>1.000333222259247</v>
+        <v>0.0003332222592467016</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3195,7 +3195,7 @@
         <v>1.042407821243979</v>
       </c>
       <c r="K29">
-        <v>51.03818201249714</v>
+        <v>0.01038182012497135</v>
       </c>
       <c r="L29">
         <v>-0.009623708702614852</v>
@@ -3225,13 +3225,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U29">
-        <v>1.000005725207649</v>
+        <v>5.725207648854536E-06</v>
       </c>
       <c r="V29">
-        <v>0.9999333629498002</v>
+        <v>-6.66370501998248E-05</v>
       </c>
       <c r="W29">
-        <v>1.000666222518321</v>
+        <v>0.0006662225183211579</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3266,7 +3266,7 @@
         <v>0.9445227266071134</v>
       </c>
       <c r="K30">
-        <v>48.57349897139835</v>
+        <v>-0.01426501028601651</v>
       </c>
       <c r="L30">
         <v>-0.00855311009622429</v>
@@ -3296,13 +3296,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U30">
-        <v>0.9999938496132024</v>
+        <v>-6.150386797632024E-06</v>
       </c>
       <c r="V30">
-        <v>0.9999555723393385</v>
+        <v>-4.442766066148351E-05</v>
       </c>
       <c r="W30">
-        <v>0.9996671105193077</v>
+        <v>-0.0003328894806923222</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3337,7 +3337,7 @@
         <v>1.142212996428928</v>
       </c>
       <c r="K31">
-        <v>53.3193010374318</v>
+        <v>0.03319301037431799</v>
       </c>
       <c r="L31">
         <v>-0.007154516654290774</v>
@@ -3367,13 +3367,13 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1.000016455802775</v>
+        <v>1.6455802775317E-05</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>1.000666000666001</v>
+        <v>0.0006660006660006434</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3408,7 +3408,7 @@
         <v>1.246260506861491</v>
       </c>
       <c r="K32">
-        <v>55.48156605409874</v>
+        <v>0.0548156605409873</v>
       </c>
       <c r="L32">
         <v>-0.005500422229321385</v>
@@ -3438,13 +3438,13 @@
         <v>0.046875</v>
       </c>
       <c r="U32">
-        <v>0.9999889020830788</v>
+        <v>-1.109791692122108E-05</v>
       </c>
       <c r="V32">
-        <v>1.000066644451849</v>
+        <v>6.664445184934031E-05</v>
       </c>
       <c r="W32">
-        <v>1.000332778702163</v>
+        <v>0.0003327787021631945</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3479,7 +3479,7 @@
         <v>1.123239199182345</v>
       </c>
       <c r="K33">
-        <v>52.90215062037768</v>
+        <v>0.02902150620377675</v>
       </c>
       <c r="L33">
         <v>-0.00390286133397966</v>
@@ -3509,13 +3509,13 @@
         <v>0.07812499999997158</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>1.000044426673775</v>
+        <v>4.442667377491105E-05</v>
       </c>
       <c r="W33">
-        <v>0.9996673320026612</v>
+        <v>-0.0003326679973387758</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3550,7 +3550,7 @@
         <v>1.123239199182345</v>
       </c>
       <c r="K34">
-        <v>52.90215062037768</v>
+        <v>0.02902150620377675</v>
       </c>
       <c r="L34">
         <v>-0.002428199344885275</v>
@@ -3580,13 +3580,13 @@
         <v>0.1156250000000227</v>
       </c>
       <c r="U34">
-        <v>0.9999556078396555</v>
+        <v>-4.439216034446414E-05</v>
       </c>
       <c r="V34">
-        <v>1.0000666370502</v>
+        <v>6.663705020004684E-05</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3621,7 +3621,7 @@
         <v>0.9216297905220411</v>
       </c>
       <c r="K35">
-        <v>47.96084006751715</v>
+        <v>-0.02039159932482848</v>
       </c>
       <c r="L35">
         <v>-0.001358763130625361</v>
@@ -3651,13 +3651,13 @@
         <v>0.1249999999999716</v>
       </c>
       <c r="U35">
-        <v>0.9999445073361304</v>
+        <v>-5.549266386961627E-05</v>
       </c>
       <c r="V35">
-        <v>1.000066632609999</v>
+        <v>6.66326099991732E-05</v>
       </c>
       <c r="W35">
-        <v>0.9993344425956739</v>
+        <v>-0.0006655574043260559</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3692,7 +3692,7 @@
         <v>0.9216297905220411</v>
       </c>
       <c r="K36">
-        <v>47.96084006751715</v>
+        <v>-0.02039159932482848</v>
       </c>
       <c r="L36">
         <v>-0.0005973326588966373</v>
@@ -3722,13 +3722,13 @@
         <v>0.1218750000000171</v>
       </c>
       <c r="U36">
-        <v>0.9999556034052187</v>
+        <v>-4.439659478128188E-05</v>
       </c>
       <c r="V36">
-        <v>1.00006662817039</v>
+        <v>6.662817039027047E-05</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3763,7 +3763,7 @@
         <v>1.219949943508218</v>
       </c>
       <c r="K37">
-        <v>54.95393925776155</v>
+        <v>0.04953939257761553</v>
       </c>
       <c r="L37">
         <v>0.0002980974616175514</v>
@@ -3793,13 +3793,13 @@
         <v>0.1156249999999943</v>
       </c>
       <c r="U37">
-        <v>1.000033298924445</v>
+        <v>3.329892444470239E-05</v>
       </c>
       <c r="V37">
-        <v>1.000133247462746</v>
+        <v>0.0001332474627462332</v>
       </c>
       <c r="W37">
-        <v>1.000999000999001</v>
+        <v>0.0009990009990010762</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3834,7 +3834,7 @@
         <v>1.219949943508218</v>
       </c>
       <c r="K38">
-        <v>54.95393925776156</v>
+        <v>0.04953939257761564</v>
       </c>
       <c r="L38">
         <v>0.001215752995252829</v>
@@ -3864,13 +3864,13 @@
         <v>0.1156249999999943</v>
       </c>
       <c r="U38">
-        <v>1.000044397087551</v>
+        <v>4.439708755099581E-05</v>
       </c>
       <c r="V38">
-        <v>1.000199844565338</v>
+        <v>0.0001998445653381697</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3905,7 +3905,7 @@
         <v>1.660681471465595</v>
       </c>
       <c r="K39">
-        <v>62.41564385949718</v>
+        <v>0.1241564385949718</v>
       </c>
       <c r="L39">
         <v>0.002571088535177859</v>
@@ -3935,13 +3935,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U39">
-        <v>1.000033296337403</v>
+        <v>3.329633740301041E-05</v>
       </c>
       <c r="V39">
-        <v>1.000266406180623</v>
+        <v>0.0002664061806232354</v>
       </c>
       <c r="W39">
-        <v>1.001330671989355</v>
+        <v>0.001330671989354659</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3976,7 +3976,7 @@
         <v>1.660681471465595</v>
       </c>
       <c r="K40">
-        <v>62.41564385949718</v>
+        <v>0.1241564385949718</v>
       </c>
       <c r="L40">
         <v>0.004094444332974032</v>
@@ -4006,13 +4006,13 @@
         <v>0.09375</v>
       </c>
       <c r="U40">
-        <v>1.000033295228794</v>
+        <v>3.329522879358393E-05</v>
       </c>
       <c r="V40">
-        <v>1.000244140625</v>
+        <v>0.000244140625000222</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4047,7 +4047,7 @@
         <v>1.334767766618046</v>
       </c>
       <c r="K41">
-        <v>57.16918768976674</v>
+        <v>0.07169187689766743</v>
       </c>
       <c r="L41">
         <v>0.005363267320342045</v>
@@ -4077,13 +4077,13 @@
         <v>0.08437500000002274</v>
       </c>
       <c r="U41">
-        <v>1.000011098040086</v>
+        <v>1.109804008581072E-05</v>
       </c>
       <c r="V41">
-        <v>1.000221891849912</v>
+        <v>0.0002218918499121703</v>
       </c>
       <c r="W41">
-        <v>0.9993355481727575</v>
+        <v>-0.0006644518272425071</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4118,7 +4118,7 @@
         <v>1.106238665396426</v>
       </c>
       <c r="K42">
-        <v>52.52199969409522</v>
+        <v>0.02521999694095223</v>
       </c>
       <c r="L42">
         <v>0.006134057728312494</v>
@@ -4148,13 +4148,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V42">
-        <v>1.000110921312421</v>
+        <v>0.0001109213124210751</v>
       </c>
       <c r="W42">
-        <v>0.9993351063829787</v>
+        <v>-0.0006648936170212671</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4189,7 +4189,7 @@
         <v>1.014793668549313</v>
       </c>
       <c r="K43">
-        <v>50.36712614249886</v>
+        <v>0.003671261424988637</v>
       </c>
       <c r="L43">
         <v>0.00641037498447864</v>
@@ -4219,13 +4219,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U43">
-        <v>0.999977804166158</v>
+        <v>-2.219583384199808E-05</v>
       </c>
       <c r="V43">
-        <v>1.000066545406149</v>
+        <v>6.654540614881022E-05</v>
       </c>
       <c r="W43">
-        <v>0.9996673320026612</v>
+        <v>-0.0003326679973387758</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4260,7 +4260,7 @@
         <v>1.275834692775766</v>
       </c>
       <c r="K44">
-        <v>56.06007751027249</v>
+        <v>0.06060077510272488</v>
       </c>
       <c r="L44">
         <v>0.006711068459716647</v>
@@ -4290,13 +4290,13 @@
         <v>0.078125</v>
       </c>
       <c r="U44">
-        <v>1.000011098163254</v>
+        <v>1.109816325373103E-05</v>
       </c>
       <c r="V44">
-        <v>1.000088721304203</v>
+        <v>8.872130420334301E-05</v>
       </c>
       <c r="W44">
-        <v>1.000998336106489</v>
+        <v>0.0009983361064891394</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4331,7 +4331,7 @@
         <v>1.168782039868787</v>
       </c>
       <c r="K45">
-        <v>53.89117109894084</v>
+        <v>0.03891171098940838</v>
       </c>
       <c r="L45">
         <v>0.00686128668032979</v>
@@ -4361,13 +4361,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U45">
-        <v>1.000022196080172</v>
+        <v>2.219608017228758E-05</v>
       </c>
       <c r="V45">
-        <v>1.000088713433432</v>
+        <v>8.871343343153093E-05</v>
       </c>
       <c r="W45">
-        <v>0.9996675531914893</v>
+        <v>-0.0003324468085107446</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4402,7 +4402,7 @@
         <v>1.073928249900602</v>
       </c>
       <c r="K46">
-        <v>51.78232419333082</v>
+        <v>0.0178232419333082</v>
       </c>
       <c r="L46">
         <v>0.006764377694174711</v>
@@ -4432,13 +4432,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U46">
-        <v>1.000011097793759</v>
+        <v>1.109779375885189E-05</v>
       </c>
       <c r="V46">
-        <v>1.000022176391014</v>
+        <v>2.217639101420588E-05</v>
       </c>
       <c r="W46">
-        <v>0.9996674426338544</v>
+        <v>-0.0003325573661455694</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4473,7 +4473,7 @@
         <v>1.244783193418712</v>
       </c>
       <c r="K47">
-        <v>55.45226804388885</v>
+        <v>0.05452268043888853</v>
       </c>
       <c r="L47">
         <v>0.006742172571018363</v>
@@ -4503,13 +4503,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U47">
-        <v>1.000055488352995</v>
+        <v>5.548835299462596E-05</v>
       </c>
       <c r="V47">
-        <v>1.000044351798465</v>
+        <v>4.435179846540294E-05</v>
       </c>
       <c r="W47">
-        <v>1.000665335994677</v>
+        <v>0.0006653359946773296</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4544,7 +4544,7 @@
         <v>1.142082923238228</v>
       </c>
       <c r="K48">
-        <v>53.31646645647681</v>
+        <v>0.03316466456476808</v>
       </c>
       <c r="L48">
         <v>0.006620634583526431</v>
@@ -4574,13 +4574,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U48">
-        <v>1.000044388219367</v>
+        <v>4.438821936680881E-05</v>
       </c>
       <c r="V48">
-        <v>1.000044349831471</v>
+        <v>4.434983147061367E-05</v>
       </c>
       <c r="W48">
-        <v>0.9996675531914893</v>
+        <v>-0.0003324468085107446</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4615,7 +4615,7 @@
         <v>1.228929812021728</v>
       </c>
       <c r="K49">
-        <v>55.13541993980689</v>
+        <v>0.05135419939806884</v>
       </c>
       <c r="L49">
         <v>0.006543882622302177</v>
@@ -4645,13 +4645,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U49">
-        <v>1.00006657937371</v>
+        <v>6.657937370979639E-05</v>
       </c>
       <c r="V49">
-        <v>1.000066521796975</v>
+        <v>6.652179697530514E-05</v>
       </c>
       <c r="W49">
-        <v>1.000332557366146</v>
+        <v>0.0003325573661456804</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4686,7 +4686,7 @@
         <v>1.228929812021728</v>
       </c>
       <c r="K50">
-        <v>55.13541993980689</v>
+        <v>0.05135419939806884</v>
       </c>
       <c r="L50">
         <v>0.006475259890770515</v>
@@ -4716,13 +4716,13 @@
         <v>0.01562500000002842</v>
       </c>
       <c r="U50">
-        <v>1.000088766588256</v>
+        <v>8.876658825629491E-05</v>
       </c>
       <c r="V50">
-        <v>1.000110862286867</v>
+        <v>0.000110862286867075</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4757,7 +4757,7 @@
         <v>1.228929812021728</v>
       </c>
       <c r="K51">
-        <v>55.13541993980689</v>
+        <v>0.05135419939806884</v>
       </c>
       <c r="L51">
         <v>0.006392312549094083</v>
@@ -4787,13 +4787,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U51">
-        <v>1.000088758709448</v>
+        <v>8.875870944824449E-05</v>
       </c>
       <c r="V51">
-        <v>1.000110849997783</v>
+        <v>0.0001108499977831023</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4828,7 +4828,7 @@
         <v>1.228929812021728</v>
       </c>
       <c r="K52">
-        <v>55.13541993980689</v>
+        <v>0.05135419939806884</v>
       </c>
       <c r="L52">
         <v>0.006282667033420726</v>
@@ -4858,13 +4858,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U52">
-        <v>1.000088750832039</v>
+        <v>8.875083203907508E-05</v>
       </c>
       <c r="V52">
-        <v>1.000044335084569</v>
+        <v>4.433508456913593E-05</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4899,7 +4899,7 @@
         <v>1.228929812021728</v>
       </c>
       <c r="K53">
-        <v>55.13541993980689</v>
+        <v>0.05135419939806884</v>
       </c>
       <c r="L53">
         <v>0.006140937639456451</v>
@@ -4929,13 +4929,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U53">
-        <v>1.000122021564538</v>
+        <v>0.0001220215645383327</v>
       </c>
       <c r="V53">
-        <v>1.000044333119056</v>
+        <v>4.43331190564944E-05</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4970,7 +4970,7 @@
         <v>1.228929812021728</v>
       </c>
       <c r="K54">
-        <v>55.13541993980689</v>
+        <v>0.05135419939806884</v>
       </c>
       <c r="L54">
         <v>0.005966428944653918</v>
@@ -5000,13 +5000,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U54">
-        <v>1.000110915160993</v>
+        <v>0.0001109151609934855</v>
       </c>
       <c r="V54">
-        <v>0.9999556688462817</v>
+        <v>-4.43311537182689E-05</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5041,7 +5041,7 @@
         <v>1.347074073835868</v>
       </c>
       <c r="K55">
-        <v>57.39376054861016</v>
+        <v>0.07393760548610162</v>
       </c>
       <c r="L55">
         <v>0.005882640724743777</v>
@@ -5071,13 +5071,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U55">
-        <v>1.000110902860185</v>
+        <v>0.0001109028601846695</v>
       </c>
       <c r="V55">
-        <v>0.9999778334404718</v>
+        <v>-2.21665595282472E-05</v>
       </c>
       <c r="W55">
-        <v>1.000332446808511</v>
+        <v>0.0003324468085106336</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5112,7 +5112,7 @@
         <v>1.347074073835868</v>
       </c>
       <c r="K56">
-        <v>57.39376054861017</v>
+        <v>0.07393760548610162</v>
       </c>
       <c r="L56">
         <v>0.005837684425518286</v>
@@ -5142,13 +5142,13 @@
         <v>0.03437500000003979</v>
       </c>
       <c r="U56">
-        <v>1.000121979618315</v>
+        <v>0.000121979618314727</v>
       </c>
       <c r="V56">
-        <v>1.000022167050896</v>
+        <v>2.21670508955274E-05</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5183,7 +5183,7 @@
         <v>1.477981843159088</v>
       </c>
       <c r="K57">
-        <v>59.64457920623273</v>
+        <v>0.0964457920623274</v>
       </c>
       <c r="L57">
         <v>0.005918992574097361</v>
@@ -5213,13 +5213,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U57">
-        <v>1.000099789333629</v>
+        <v>9.978933362919662E-05</v>
       </c>
       <c r="V57">
-        <v>1.000088666238113</v>
+        <v>8.866623811321084E-05</v>
       </c>
       <c r="W57">
-        <v>1.00033233632436</v>
+        <v>0.0003323363243603605</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5254,7 +5254,7 @@
         <v>1.04569775669146</v>
       </c>
       <c r="K58">
-        <v>51.11692346882582</v>
+        <v>0.01116923468825815</v>
       </c>
       <c r="L58">
         <v>0.005686537251302594</v>
@@ -5284,13 +5284,13 @@
         <v>0.03125</v>
       </c>
       <c r="U58">
-        <v>1.000055432987062</v>
+        <v>5.543298706189859E-05</v>
       </c>
       <c r="V58">
-        <v>1.000044329188554</v>
+        <v>4.432918855412638E-05</v>
       </c>
       <c r="W58">
-        <v>0.9990033222591361</v>
+        <v>-0.0009966777408638716</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5325,7 +5325,7 @@
         <v>1.04569775669146</v>
       </c>
       <c r="K59">
-        <v>51.11692346882582</v>
+        <v>0.01116923468825815</v>
       </c>
       <c r="L59">
         <v>0.005258161445100885</v>
@@ -5355,13 +5355,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U59">
-        <v>1.00003325794865</v>
+        <v>3.325794864972309E-05</v>
       </c>
       <c r="V59">
-        <v>0.999977836388218</v>
+        <v>-2.21636117819779E-05</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5396,7 +5396,7 @@
         <v>1.04569775669146</v>
       </c>
       <c r="K60">
-        <v>51.11692346882582</v>
+        <v>0.01116923468825815</v>
       </c>
       <c r="L60">
         <v>0.004719286642381534</v>
@@ -5426,13 +5426,13 @@
         <v>0.015625</v>
       </c>
       <c r="U60">
-        <v>1.000044342456794</v>
+        <v>4.434245679352244E-05</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5467,7 +5467,7 @@
         <v>1.04569775669146</v>
       </c>
       <c r="K61">
-        <v>51.11692346882582</v>
+        <v>0.01116923468825815</v>
       </c>
       <c r="L61">
         <v>0.004130653471005186</v>
@@ -5497,13 +5497,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U61">
-        <v>1.000022170245314</v>
+        <v>2.217024531403489E-05</v>
       </c>
       <c r="V61">
-        <v>1.000022164103018</v>
+        <v>2.216410301847382E-05</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5538,7 +5538,7 @@
         <v>0.8437165218898405</v>
       </c>
       <c r="K62">
-        <v>45.76172702650713</v>
+        <v>-0.04238272973492868</v>
       </c>
       <c r="L62">
         <v>0.003292130652479954</v>
@@ -5568,13 +5568,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U62">
-        <v>0.9999889151230977</v>
+        <v>-1.108487690226756E-05</v>
       </c>
       <c r="V62">
-        <v>0.9999335091646537</v>
+        <v>-6.649083534626676E-05</v>
       </c>
       <c r="W62">
-        <v>0.9993348852677088</v>
+        <v>-0.0006651147322912498</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5609,7 +5609,7 @@
         <v>0.8437165218898405</v>
       </c>
       <c r="K63">
-        <v>45.76172702650713</v>
+        <v>-0.04238272973492868</v>
       </c>
       <c r="L63">
         <v>0.002343714619320747</v>
@@ -5639,13 +5639,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>0.9999556698288854</v>
+        <v>-4.43301711146038E-05</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5680,7 +5680,7 @@
         <v>0.8437165218898405</v>
       </c>
       <c r="K64">
-        <v>45.76172702650713</v>
+        <v>-0.04238272973492868</v>
       </c>
       <c r="L64">
         <v>0.001380647824104884</v>
@@ -5710,13 +5710,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64">
-        <v>0.9999335017954516</v>
+        <v>-6.649820454840416E-05</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5751,7 +5751,7 @@
         <v>0.7582994329659635</v>
       </c>
       <c r="K65">
-        <v>43.12686558095719</v>
+        <v>-0.06873134419042815</v>
       </c>
       <c r="L65">
         <v>0.0003439493046430894</v>
@@ -5781,13 +5781,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U65">
-        <v>1.000011084999778</v>
+        <v>1.108499977808819E-05</v>
       </c>
       <c r="V65">
-        <v>0.9999113298308615</v>
+        <v>-8.86701691384939E-05</v>
       </c>
       <c r="W65">
-        <v>0.9996672212978369</v>
+        <v>-0.0003327787021630835</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5822,7 +5822,7 @@
         <v>0.5316661795107688</v>
       </c>
       <c r="K66">
-        <v>34.71162232495</v>
+        <v>-0.1528837767505</v>
       </c>
       <c r="L66">
         <v>-0.001156954990913649</v>
@@ -5852,13 +5852,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U66">
-        <v>0.9999667453692928</v>
+        <v>-3.325463070724677E-05</v>
       </c>
       <c r="V66">
-        <v>0.999822643935531</v>
+        <v>-0.0001773560644690031</v>
       </c>
       <c r="W66">
-        <v>0.9986684420772305</v>
+        <v>-0.001331557922769511</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5893,7 +5893,7 @@
         <v>0.5316661795107689</v>
       </c>
       <c r="K67">
-        <v>34.71162232495</v>
+        <v>-0.1528837767505</v>
       </c>
       <c r="L67">
         <v>-0.002839261270843742</v>
@@ -5923,13 +5923,13 @@
         <v>-0.1031249999999773</v>
       </c>
       <c r="U67">
-        <v>0.9999334885267709</v>
+        <v>-6.651147322911388E-05</v>
       </c>
       <c r="V67">
-        <v>0.9998226124747777</v>
+        <v>-0.0001773875252223389</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5964,7 +5964,7 @@
         <v>0.6144557634886885</v>
       </c>
       <c r="K68">
-        <v>38.05962215780424</v>
+        <v>-0.1194037784219576</v>
       </c>
       <c r="L68">
         <v>-0.004392909515662546</v>
@@ -5994,13 +5994,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U68">
-        <v>0.9999445700855837</v>
+        <v>-5.542991441631617E-05</v>
       </c>
       <c r="V68">
-        <v>0.9998447583775034</v>
+        <v>-0.0001552416224965825</v>
       </c>
       <c r="W68">
-        <v>1.000333333333334</v>
+        <v>0.0003333333333335187</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6035,7 +6035,7 @@
         <v>0.5652002928475836</v>
       </c>
       <c r="K69">
-        <v>36.11041318036743</v>
+        <v>-0.1388958681963257</v>
       </c>
       <c r="L69">
         <v>-0.005874826446657742</v>
@@ -6065,13 +6065,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U69">
-        <v>0.9998891340258762</v>
+        <v>-0.0001108659741237972</v>
       </c>
       <c r="V69">
-        <v>0.9998225534557712</v>
+        <v>-0.0001774465442287987</v>
       </c>
       <c r="W69">
-        <v>0.999666777740753</v>
+        <v>-0.0003332222592470346</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6106,7 +6106,7 @@
         <v>0.6495804336381361</v>
       </c>
       <c r="K70">
-        <v>39.37852440486893</v>
+        <v>-0.1062147559513107</v>
       </c>
       <c r="L70">
         <v>-0.007076476224505399</v>
@@ -6136,13 +6136,13 @@
         <v>-0.140625</v>
       </c>
       <c r="U70">
-        <v>0.9999002095599242</v>
+        <v>-9.979044007579763E-05</v>
       </c>
       <c r="V70">
-        <v>0.9998225219629072</v>
+        <v>-0.000177478037092782</v>
       </c>
       <c r="W70">
-        <v>1.000333333333334</v>
+        <v>0.0003333333333335187</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6177,7 +6177,7 @@
         <v>0.7384016344702462</v>
       </c>
       <c r="K71">
-        <v>42.47589393778176</v>
+        <v>-0.07524106062218244</v>
       </c>
       <c r="L71">
         <v>-0.00788496709951457</v>
@@ -6207,13 +6207,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U71">
-        <v>0.9999334664005322</v>
+        <v>-6.653359946784398E-05</v>
       </c>
       <c r="V71">
-        <v>0.9998446791515045</v>
+        <v>-0.0001553208484954549</v>
       </c>
       <c r="W71">
-        <v>1.000333222259247</v>
+        <v>0.0003332222592467016</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6248,7 +6248,7 @@
         <v>0.6752668815238247</v>
       </c>
       <c r="K72">
-        <v>40.30801832061535</v>
+        <v>-0.09691981679384648</v>
       </c>
       <c r="L72">
         <v>-0.008496219385621043</v>
@@ -6278,13 +6278,13 @@
         <v>-0.1375000000000171</v>
       </c>
       <c r="U72">
-        <v>0.9999445516445983</v>
+        <v>-5.544835540172155E-05</v>
       </c>
       <c r="V72">
-        <v>0.9998002707441024</v>
+        <v>-0.0001997292558976183</v>
       </c>
       <c r="W72">
-        <v>0.9996668887408395</v>
+        <v>-0.0003331112591604679</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6319,7 +6319,7 @@
         <v>0.6752668815238247</v>
       </c>
       <c r="K73">
-        <v>40.30801832061535</v>
+        <v>-0.09691981679384648</v>
       </c>
       <c r="L73">
         <v>-0.008918154293120394</v>
@@ -6349,13 +6349,13 @@
         <v>-0.1281250000000114</v>
       </c>
       <c r="U73">
-        <v>0.9999556388559261</v>
+        <v>-4.436114407391223E-05</v>
       </c>
       <c r="V73">
-        <v>0.9998668205629049</v>
+        <v>-0.0001331794370951211</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6390,7 +6390,7 @@
         <v>0.6752668815238247</v>
       </c>
       <c r="K74">
-        <v>40.30801832061535</v>
+        <v>-0.09691981679384648</v>
       </c>
       <c r="L74">
         <v>-0.009166084167835658</v>
@@ -6420,13 +6420,13 @@
         <v>-0.1031250000000341</v>
       </c>
       <c r="U74">
-        <v>0.9999223645538735</v>
+        <v>-7.763544612648943E-05</v>
       </c>
       <c r="V74">
-        <v>0.9998668028237803</v>
+        <v>-0.0001331971762197348</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6461,7 +6461,7 @@
         <v>0.7749921054486223</v>
       </c>
       <c r="K75">
-        <v>43.66172125890927</v>
+        <v>-0.0633827874109073</v>
       </c>
       <c r="L75">
         <v>-0.009138295241826397</v>
@@ -6491,13 +6491,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U75">
-        <v>0.9999445418043877</v>
+        <v>-5.545819561225684E-05</v>
       </c>
       <c r="V75">
-        <v>0.9998889875666076</v>
+        <v>-0.000111012433392399</v>
       </c>
       <c r="W75">
-        <v>1.000333222259247</v>
+        <v>0.0003332222592467016</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6532,7 +6532,7 @@
         <v>0.7013668752509044</v>
       </c>
       <c r="K76">
-        <v>41.22372931161436</v>
+        <v>-0.08776270688385646</v>
       </c>
       <c r="L76">
         <v>-0.009033125446806232</v>
@@ -6562,13 +6562,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U76">
-        <v>0.9999445387286057</v>
+        <v>-5.546127139433032E-05</v>
       </c>
       <c r="V76">
-        <v>0.9998667702897748</v>
+        <v>-0.0001332297102252245</v>
       </c>
       <c r="W76">
-        <v>0.9996668887408395</v>
+        <v>-0.0003331112591604679</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6603,7 +6603,7 @@
         <v>0.8013682065786919</v>
       </c>
       <c r="K77">
-        <v>44.48664096835133</v>
+        <v>-0.05513359031648668</v>
       </c>
       <c r="L77">
         <v>-0.008733723290797695</v>
@@ -6633,13 +6633,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U77">
-        <v>0.9999334427829794</v>
+        <v>-6.655721702064632E-05</v>
       </c>
       <c r="V77">
-        <v>0.9999333762686268</v>
+        <v>-6.662373137322763E-05</v>
       </c>
       <c r="W77">
-        <v>1.000333222259247</v>
+        <v>0.0003332222592467016</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6674,7 +6674,7 @@
         <v>0.7250465056906639</v>
       </c>
       <c r="K78">
-        <v>42.03054835326738</v>
+        <v>-0.07969451646732617</v>
       </c>
       <c r="L78">
         <v>-0.008425100792013215</v>
@@ -6704,13 +6704,13 @@
         <v>-0.01562499999997158</v>
       </c>
       <c r="U78">
-        <v>0.999933438352821</v>
+        <v>-6.65616471789976E-05</v>
       </c>
       <c r="V78">
-        <v>0.9999111624394793</v>
+        <v>-8.883756052069369E-05</v>
       </c>
       <c r="W78">
-        <v>0.9996668887408395</v>
+        <v>-0.0003331112591604679</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6745,7 +6745,7 @@
         <v>0.8252983398090976</v>
       </c>
       <c r="K79">
-        <v>45.2144354602006</v>
+        <v>-0.04785564539799397</v>
       </c>
       <c r="L79">
         <v>-0.007978691236271474</v>
@@ -6775,13 +6775,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U79">
-        <v>0.9999334339220733</v>
+        <v>-6.656607792665525E-05</v>
       </c>
       <c r="V79">
-        <v>0.9999333659099998</v>
+        <v>-6.663409000018383E-05</v>
       </c>
       <c r="W79">
-        <v>1.000333222259247</v>
+        <v>0.0003332222592467016</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6816,7 +6816,7 @@
         <v>0.6814697288363498</v>
       </c>
       <c r="K80">
-        <v>40.52821868568258</v>
+        <v>-0.09471781314317418</v>
       </c>
       <c r="L80">
         <v>-0.00769060762199981</v>
@@ -6846,13 +6846,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U80">
-        <v>0.9999112393209807</v>
+        <v>-8.876067901930629E-05</v>
       </c>
       <c r="V80">
-        <v>0.9999111486261357</v>
+        <v>-8.885137386427377E-05</v>
       </c>
       <c r="W80">
-        <v>0.999333777481679</v>
+        <v>-0.0006662225183210468</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6887,7 +6887,7 @@
         <v>0.6814697288363498</v>
       </c>
       <c r="K81">
-        <v>40.52821868568258</v>
+        <v>-0.09471781314317418</v>
       </c>
       <c r="L81">
         <v>-0.007488841061881754</v>
@@ -6917,13 +6917,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U81">
-        <v>0.9999112314418234</v>
+        <v>-8.876855817663287E-05</v>
       </c>
       <c r="V81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6958,7 +6958,7 @@
         <v>0.6814697288363497</v>
       </c>
       <c r="K82">
-        <v>40.52821868568258</v>
+        <v>-0.09471781314317418</v>
       </c>
       <c r="L82">
         <v>-0.007324990844085224</v>
@@ -6988,13 +6988,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U82">
-        <v>0.9999112235612669</v>
+        <v>-8.877643873306251E-05</v>
       </c>
       <c r="V82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7029,7 +7029,7 @@
         <v>0.7831024381865304</v>
       </c>
       <c r="K83">
-        <v>43.91797248524708</v>
+        <v>-0.06082027514752913</v>
       </c>
       <c r="L83">
         <v>-0.007046665451360565</v>
@@ -7059,13 +7059,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U83">
-        <v>0.999922313719397</v>
+        <v>-7.768628060300653E-05</v>
       </c>
       <c r="V83">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W83">
-        <v>1.000333333333334</v>
+        <v>0.0003333333333335187</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7100,7 +7100,7 @@
         <v>0.8900842375024491</v>
       </c>
       <c r="K84">
-        <v>47.09230519157196</v>
+        <v>-0.02907694808428041</v>
       </c>
       <c r="L84">
         <v>-0.006569805512646558</v>
@@ -7130,13 +7130,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U84">
-        <v>0.9999334065860889</v>
+        <v>-6.659341391113127E-05</v>
       </c>
       <c r="V84">
-        <v>1.000044429634566</v>
+        <v>4.442963456630089E-05</v>
       </c>
       <c r="W84">
-        <v>1.000333222259247</v>
+        <v>0.0003332222592467016</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7171,7 +7171,7 @@
         <v>0.8900842375024491</v>
       </c>
       <c r="K85">
-        <v>47.09230519157196</v>
+        <v>-0.02907694808428041</v>
       </c>
       <c r="L85">
         <v>-0.005979096621218184</v>
@@ -7201,13 +7201,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U85">
-        <v>0.9999223025096288</v>
+        <v>-7.76974903712313E-05</v>
       </c>
       <c r="V85">
-        <v>1.000022213830331</v>
+        <v>2.221383033074176E-05</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7242,7 +7242,7 @@
         <v>1.008623627326249</v>
       </c>
       <c r="K86">
-        <v>50.21466508729981</v>
+        <v>0.002146650872998146</v>
       </c>
       <c r="L86">
         <v>-0.005213993044282442</v>
@@ -7272,13 +7272,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U86">
-        <v>0.9999333969762226</v>
+        <v>-6.660302377736738E-05</v>
       </c>
       <c r="V86">
-        <v>1.000022213336887</v>
+        <v>2.221333688745553E-05</v>
       </c>
       <c r="W86">
-        <v>1.000333111259161</v>
+        <v>0.00033311125916069</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7313,7 +7313,7 @@
         <v>0.8967310471520761</v>
       </c>
       <c r="K87">
-        <v>47.27771227757933</v>
+        <v>-0.02722287722420674</v>
       </c>
       <c r="L87">
         <v>-0.004494237083984671</v>
@@ -7343,13 +7343,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U87">
-        <v>0.9999111900532859</v>
+        <v>-8.880994671411901E-05</v>
       </c>
       <c r="V87">
-        <v>1.000022212843466</v>
+        <v>2.221284346615171E-05</v>
       </c>
       <c r="W87">
-        <v>0.9996669996669996</v>
+        <v>-0.0003330003330004327</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7384,7 +7384,7 @@
         <v>1.13028033184101</v>
       </c>
       <c r="K88">
-        <v>53.05782130862608</v>
+        <v>0.03057821308626085</v>
       </c>
       <c r="L88">
         <v>-0.003588893668942826</v>
@@ -7414,13 +7414,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U88">
-        <v>0.999966693312017</v>
+        <v>-3.33066879829591E-05</v>
       </c>
       <c r="V88">
-        <v>1.0000666370502</v>
+        <v>6.663705020004684E-05</v>
       </c>
       <c r="W88">
-        <v>1.000666222518321</v>
+        <v>0.0006662225183211579</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7455,7 +7455,7 @@
         <v>1.006554029901911</v>
       </c>
       <c r="K89">
-        <v>50.16331556001587</v>
+        <v>0.001633155600158753</v>
       </c>
       <c r="L89">
         <v>-0.002736987879974938</v>
@@ -7485,13 +7485,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U89">
-        <v>0.9999555896035263</v>
+        <v>-4.441039647373746E-05</v>
       </c>
       <c r="V89">
-        <v>1.00004442174</v>
+        <v>4.442173999952281E-05</v>
       </c>
       <c r="W89">
-        <v>0.9996671105193077</v>
+        <v>-0.0003328894806923222</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7526,7 +7526,7 @@
         <v>1.006554029901911</v>
       </c>
       <c r="K90">
-        <v>50.16331556001587</v>
+        <v>0.001633155600158753</v>
       </c>
       <c r="L90">
         <v>-0.001961773097538505</v>
@@ -7556,13 +7556,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U90">
-        <v>0.9999555876311553</v>
+        <v>-4.44123688446707E-05</v>
       </c>
       <c r="V90">
-        <v>1.000022209883398</v>
+        <v>2.220988339818319E-05</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7597,7 +7597,7 @@
         <v>1.006554029901911</v>
       </c>
       <c r="K91">
-        <v>50.16331556001587</v>
+        <v>0.001633155600158753</v>
       </c>
       <c r="L91">
         <v>-0.001275277157643523</v>
@@ -7627,13 +7627,13 @@
         <v>0.04687500000002842</v>
       </c>
       <c r="U91">
-        <v>0.9999555856586092</v>
+        <v>-4.441434139079714E-05</v>
       </c>
       <c r="V91">
-        <v>1.00004441878026</v>
+        <v>4.441878025995827E-05</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7668,7 +7668,7 @@
         <v>0.892592497991479</v>
       </c>
       <c r="K92">
-        <v>47.16242397339872</v>
+        <v>-0.02837576026601274</v>
       </c>
       <c r="L92">
         <v>-0.0008029240109244813</v>
@@ -7698,13 +7698,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U92">
-        <v>0.9999666877644159</v>
+        <v>-3.331223558411534E-05</v>
       </c>
       <c r="V92">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W92">
-        <v>0.9996669996669996</v>
+        <v>-0.0003330003330004327</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7739,7 +7739,7 @@
         <v>0.8925924979914791</v>
       </c>
       <c r="K93">
-        <v>47.16242397339872</v>
+        <v>-0.02837576026601274</v>
       </c>
       <c r="L93">
         <v>-0.000487487755634354</v>
@@ -7769,13 +7769,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U93">
-        <v>0.9999666866546739</v>
+        <v>-3.331334532608032E-05</v>
       </c>
       <c r="V93">
-        <v>1.00002220840366</v>
+        <v>2.220840366007337E-05</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7810,7 +7810,7 @@
         <v>0.8925924979914789</v>
       </c>
       <c r="K94">
-        <v>47.16242397339872</v>
+        <v>-0.02837576026601285</v>
       </c>
       <c r="L94">
         <v>-0.0002854449544311567</v>
@@ -7840,13 +7840,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U94">
-        <v>0.9999666855448578</v>
+        <v>-3.331445514220821E-05</v>
       </c>
       <c r="V94">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7881,7 +7881,7 @@
         <v>0.5840753816245741</v>
       </c>
       <c r="K95">
-        <v>36.87169110762684</v>
+        <v>-0.1312830889237315</v>
       </c>
       <c r="L95">
         <v>-0.0006490978018771057</v>
@@ -7911,13 +7911,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U95">
-        <v>0.9999333688699363</v>
+        <v>-6.663113006366572E-05</v>
       </c>
       <c r="V95">
-        <v>0.9999555841790846</v>
+        <v>-4.441582091541108E-05</v>
       </c>
       <c r="W95">
-        <v>0.9986675549633578</v>
+        <v>-0.001332445036642205</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7952,7 +7952,7 @@
         <v>0.5840753816245741</v>
       </c>
       <c r="K96">
-        <v>36.87169110762684</v>
+        <v>-0.1312830889237315</v>
       </c>
       <c r="L96">
         <v>-0.001329936194517426</v>
@@ -7982,13 +7982,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U96">
-        <v>0.9999777881433107</v>
+        <v>-2.221185668926928E-05</v>
       </c>
       <c r="V96">
-        <v>0.9999555822062318</v>
+        <v>-4.441779376818111E-05</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8023,7 +8023,7 @@
         <v>0.5840753816245741</v>
       </c>
       <c r="K97">
-        <v>36.87169110762684</v>
+        <v>-0.1312830889237315</v>
       </c>
       <c r="L97">
         <v>-0.002154727061808765</v>
@@ -8053,13 +8053,13 @@
         <v>-0.03437499999995453</v>
       </c>
       <c r="U97">
-        <v>0.9999777876499336</v>
+        <v>-2.221235006638622E-05</v>
       </c>
       <c r="V97">
-        <v>0.9999555802332036</v>
+        <v>-4.441976679636639E-05</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8094,7 +8094,7 @@
         <v>0.5840753816245741</v>
       </c>
       <c r="K98">
-        <v>36.87169110762684</v>
+        <v>-0.1312830889237315</v>
       </c>
       <c r="L98">
         <v>-0.003006358199231009</v>
@@ -8124,13 +8124,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U98">
-        <v>0.9999666807348007</v>
+        <v>-3.331926519933859E-05</v>
       </c>
       <c r="V98">
-        <v>0.9999333673900007</v>
+        <v>-6.663260999928422E-05</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8165,7 +8165,7 @@
         <v>0.5840753816245741</v>
       </c>
       <c r="K99">
-        <v>36.87169110762684</v>
+        <v>-0.1312830889237315</v>
       </c>
       <c r="L99">
         <v>-0.003809076864561196</v>
@@ -8195,13 +8195,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U99">
-        <v>0.9999777864163935</v>
+        <v>-2.221358360654513E-05</v>
       </c>
       <c r="V99">
-        <v>0.9999111505997336</v>
+        <v>-8.884940026643307E-05</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8236,7 +8236,7 @@
         <v>0.584075381624574</v>
       </c>
       <c r="K100">
-        <v>36.87169110762684</v>
+        <v>-0.1312830889237315</v>
       </c>
       <c r="L100">
         <v>-0.004517186410234146</v>
@@ -8266,13 +8266,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U100">
-        <v>0.9999666788844093</v>
+        <v>-3.332111559073425E-05</v>
       </c>
       <c r="V100">
-        <v>0.999911142704816</v>
+        <v>-8.885729518404162E-05</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8307,7 +8307,7 @@
         <v>0.5226389249621769</v>
       </c>
       <c r="K101">
-        <v>34.32454775679398</v>
+        <v>-0.1567545224320602</v>
       </c>
       <c r="L101">
         <v>-0.00522776000738819</v>
@@ -8337,13 +8337,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U101">
-        <v>0.9999444629567921</v>
+        <v>-5.553704320793162E-05</v>
       </c>
       <c r="V101">
-        <v>0.9998667022127434</v>
+        <v>-0.0001332977872565699</v>
       </c>
       <c r="W101">
-        <v>0.9996664442961974</v>
+        <v>-0.0003335557038025572</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8378,7 +8378,7 @@
         <v>0.5226389249621769</v>
       </c>
       <c r="K102">
-        <v>34.32454775679398</v>
+        <v>-0.1567545224320602</v>
       </c>
       <c r="L102">
         <v>-0.005875571328090174</v>
@@ -8408,13 +8408,13 @@
         <v>-0.1218750000000171</v>
       </c>
       <c r="U102">
-        <v>0.9999555678978062</v>
+        <v>-4.443210219384763E-05</v>
       </c>
       <c r="V102">
-        <v>0.9998889037017283</v>
+        <v>-0.0001110962982716623</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8449,7 +8449,7 @@
         <v>0.6391883265166108</v>
       </c>
       <c r="K103">
-        <v>38.99419707770434</v>
+        <v>-0.1100580292229567</v>
       </c>
       <c r="L103">
         <v>-0.006301418444355535</v>
@@ -8479,13 +8479,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U103">
-        <v>0.9999666744426301</v>
+        <v>-3.332555736990095E-05</v>
       </c>
       <c r="V103">
-        <v>0.9998666696295639</v>
+        <v>-0.0001333303704360578</v>
       </c>
       <c r="W103">
-        <v>1.000333667000334</v>
+        <v>0.0003336670003337705</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8520,7 +8520,7 @@
         <v>0.6391883265166109</v>
       </c>
       <c r="K104">
-        <v>38.99419707770434</v>
+        <v>-0.1100580292229567</v>
       </c>
       <c r="L104">
         <v>-0.006542734355030094</v>
@@ -8550,13 +8550,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U104">
-        <v>0.9999666733320003</v>
+        <v>-3.332666799971129E-05</v>
       </c>
       <c r="V104">
-        <v>0.9998888765418381</v>
+        <v>-0.0001111234581618881</v>
       </c>
       <c r="W104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8591,7 +8591,7 @@
         <v>0.6391883265166109</v>
       </c>
       <c r="K105">
-        <v>38.99419707770434</v>
+        <v>-0.1100580292229567</v>
       </c>
       <c r="L105">
         <v>-0.006633069278902268</v>
@@ -8621,13 +8621,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U105">
-        <v>0.9999555629617286</v>
+        <v>-4.443703827139434E-05</v>
       </c>
       <c r="V105">
-        <v>0.9998888641920426</v>
+        <v>-0.0001111358079574076</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8662,7 +8662,7 @@
         <v>0.9110632973389484</v>
       </c>
       <c r="K106">
-        <v>47.67310944684849</v>
+        <v>-0.02326890553151506</v>
       </c>
       <c r="L106">
         <v>-0.006359342544266827</v>
@@ -8692,13 +8692,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U106">
-        <v>0.9999888902467476</v>
+        <v>-1.110975325235852E-05</v>
       </c>
       <c r="V106">
-        <v>0.9999333111037015</v>
+        <v>-6.668889629846131E-05</v>
       </c>
       <c r="W106">
-        <v>1.000667111407605</v>
+        <v>0.0006671114076051143</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8733,7 +8733,7 @@
         <v>0.9110632973389484</v>
       </c>
       <c r="K107">
-        <v>47.67310944684849</v>
+        <v>-0.02326890553151506</v>
       </c>
       <c r="L107">
         <v>-0.005859293875496968</v>
@@ -8763,13 +8763,13 @@
         <v>-0.03125000000002842</v>
       </c>
       <c r="U107">
-        <v>0.9999777802466391</v>
+        <v>-2.221975336091919E-05</v>
       </c>
       <c r="V107">
-        <v>0.9999555377706637</v>
+        <v>-4.446222933629507E-05</v>
       </c>
       <c r="W107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8804,7 +8804,7 @@
         <v>0.7917998313810937</v>
       </c>
       <c r="K108">
-        <v>44.19019454705416</v>
+        <v>-0.05809805452945838</v>
       </c>
       <c r="L108">
         <v>-0.005353983738392329</v>
@@ -8834,13 +8834,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U108">
-        <v>0.9999777797529107</v>
+        <v>-2.22202470893107E-05</v>
       </c>
       <c r="V108">
-        <v>0.999933303690529</v>
+        <v>-6.66963094709816E-05</v>
       </c>
       <c r="W108">
-        <v>0.9996666666666666</v>
+        <v>-0.0003333333333334076</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8875,7 +8875,7 @@
         <v>0.7917998313810937</v>
       </c>
       <c r="K109">
-        <v>44.19019454705416</v>
+        <v>-0.05809805452945838</v>
       </c>
       <c r="L109">
         <v>-0.004858183894872738</v>
@@ -8905,13 +8905,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U109">
-        <v>0.9999666688887412</v>
+        <v>-3.333111125880528E-05</v>
       </c>
       <c r="V109">
-        <v>0.9999332992418348</v>
+        <v>-6.67007581651724E-05</v>
       </c>
       <c r="W109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8946,7 +8946,7 @@
         <v>0.9368478045612498</v>
       </c>
       <c r="K110">
-        <v>48.36971714323584</v>
+        <v>-0.01630282856764159</v>
       </c>
       <c r="L110">
         <v>-0.004260671085697736</v>
@@ -8976,13 +8976,13 @@
         <v>0.03125000000002842</v>
       </c>
       <c r="U110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V110">
-        <v>1.000044470138302</v>
+        <v>4.447013830199964E-05</v>
       </c>
       <c r="W110">
-        <v>1.000333444481494</v>
+        <v>0.0003334444814939719</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9017,7 +9017,7 @@
         <v>0.9368478045612498</v>
       </c>
       <c r="K111">
-        <v>48.36971714323584</v>
+        <v>-0.01630282856764159</v>
       </c>
       <c r="L111">
         <v>-0.00362407756240977</v>
@@ -9047,13 +9047,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V111">
-        <v>1.000044468160797</v>
+        <v>4.446816079672899E-05</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9088,7 +9088,7 @@
         <v>0.9368478045612498</v>
       </c>
       <c r="K112">
-        <v>48.36971714323584</v>
+        <v>-0.01630282856764159</v>
       </c>
       <c r="L112">
         <v>-0.002991164148633091</v>
@@ -9118,13 +9118,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V112">
-        <v>1.000044466183468</v>
+        <v>4.446618346753972E-05</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9159,7 +9159,7 @@
         <v>0.9368478045612497</v>
       </c>
       <c r="K113">
-        <v>48.36971714323584</v>
+        <v>-0.01630282856764159</v>
       </c>
       <c r="L113">
         <v>-0.002389912638047617</v>
@@ -9189,13 +9189,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U113">
-        <v>0.9999888892592469</v>
+        <v>-1.111074075310636E-05</v>
       </c>
       <c r="V113">
-        <v>1.000044464206314</v>
+        <v>4.446420631398773E-05</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9230,7 +9230,7 @@
         <v>1.114928664198799</v>
       </c>
       <c r="K114">
-        <v>52.71708134047957</v>
+        <v>0.02717081340479577</v>
       </c>
       <c r="L114">
         <v>-0.001716061356554242</v>
@@ -9260,13 +9260,13 @@
         <v>0.046875</v>
       </c>
       <c r="U114">
-        <v>0.9999888891357966</v>
+        <v>-1.111086420335639E-05</v>
       </c>
       <c r="V114">
-        <v>1.000066693344004</v>
+        <v>6.669334400410953E-05</v>
       </c>
       <c r="W114">
-        <v>1.000333333333334</v>
+        <v>0.0003333333333335187</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9301,7 +9301,7 @@
         <v>0.9389240336274944</v>
       </c>
       <c r="K115">
-        <v>48.42500362795958</v>
+        <v>-0.01574996372040416</v>
       </c>
       <c r="L115">
         <v>-0.001156302773306497</v>
@@ -9331,13 +9331,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U115">
-        <v>0.999977778024689</v>
+        <v>-2.222197531098757E-05</v>
       </c>
       <c r="V115">
-        <v>1.000044459264199</v>
+        <v>4.445926419904822E-05</v>
       </c>
       <c r="W115">
-        <v>0.999666777740753</v>
+        <v>-0.0003332222592470346</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9372,7 +9372,7 @@
         <v>0.8051345781078715</v>
       </c>
       <c r="K116">
-        <v>44.60246830747698</v>
+        <v>-0.05397531692523022</v>
       </c>
       <c r="L116">
         <v>-0.0008185210400056081</v>
@@ -9402,13 +9402,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U116">
-        <v>0.9999555550617227</v>
+        <v>-4.444493827726603E-05</v>
       </c>
       <c r="V116">
-        <v>1.000044457287661</v>
+        <v>4.445728766078183E-05</v>
       </c>
       <c r="W116">
-        <v>0.9996666666666666</v>
+        <v>-0.0003333333333334076</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9443,7 +9443,7 @@
         <v>0.9551264845521388</v>
       </c>
       <c r="K117">
-        <v>48.85241400486321</v>
+        <v>-0.01147585995136796</v>
       </c>
       <c r="L117">
         <v>-0.0005123749744106389</v>
@@ -9473,13 +9473,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U117">
-        <v>0.9999777765431414</v>
+        <v>-2.22234568586499E-05</v>
       </c>
       <c r="V117">
-        <v>1.000066682966948</v>
+        <v>6.668296694756215E-05</v>
       </c>
       <c r="W117">
-        <v>1.000333444481494</v>
+        <v>0.0003334444814939719</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9514,7 +9514,7 @@
         <v>1.270898919171559</v>
       </c>
       <c r="K118">
-        <v>55.96457457627363</v>
+        <v>0.05964574576273629</v>
       </c>
       <c r="L118">
         <v>-2.48794292728106E-07</v>
@@ -9544,13 +9544,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U118">
-        <v>0.9999777760492483</v>
+        <v>-2.222395075168748E-05</v>
       </c>
       <c r="V118">
-        <v>1.000088904694168</v>
+        <v>8.89046941678906E-05</v>
       </c>
       <c r="W118">
-        <v>1.000666666666667</v>
+        <v>0.0006666666666665932</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9585,7 +9585,7 @@
         <v>1.270898919171559</v>
       </c>
       <c r="K119">
-        <v>55.96457457627363</v>
+        <v>0.05964574576273629</v>
       </c>
       <c r="L119">
         <v>0.0006040311171711922</v>
@@ -9615,13 +9615,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U119">
-        <v>0.9999888877776665</v>
+        <v>-1.111222233352027E-05</v>
       </c>
       <c r="V119">
-        <v>1.000088896790826</v>
+        <v>8.889679082568769E-05</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9656,7 +9656,7 @@
         <v>1.270898919171559</v>
       </c>
       <c r="K120">
-        <v>55.96457457627363</v>
+        <v>0.05964574576273629</v>
       </c>
       <c r="L120">
         <v>0.001223425023643758</v>
@@ -9686,13 +9686,13 @@
         <v>0.03125</v>
       </c>
       <c r="U120">
-        <v>0.9999888876541838</v>
+        <v>-1.111234581618881E-05</v>
       </c>
       <c r="V120">
-        <v>1.000088888888889</v>
+        <v>8.888888888880508E-05</v>
       </c>
       <c r="W120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9727,7 +9727,7 @@
         <v>1.270898919171559</v>
       </c>
       <c r="K121">
-        <v>55.96457457627363</v>
+        <v>0.05964574576273629</v>
       </c>
       <c r="L121">
         <v>0.00180803640905573</v>
@@ -9757,13 +9757,13 @@
         <v>0.03125</v>
       </c>
       <c r="U121">
-        <v>0.9999888875306983</v>
+        <v>-1.111246930174392E-05</v>
       </c>
       <c r="V121">
-        <v>1.000044440494178</v>
+        <v>4.44404941781773E-05</v>
       </c>
       <c r="W121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9798,7 +9798,7 @@
         <v>1.064544561567266</v>
       </c>
       <c r="K122">
-        <v>51.563167072506</v>
+        <v>0.01563167072506</v>
       </c>
       <c r="L122">
         <v>0.002206331716977133</v>
@@ -9828,13 +9828,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U122">
-        <v>0.99998888740721</v>
+        <v>-1.111259278996357E-05</v>
       </c>
       <c r="V122">
-        <v>1.000022219259654</v>
+        <v>2.221925965439908E-05</v>
       </c>
       <c r="W122">
-        <v>0.9996668887408395</v>
+        <v>-0.0003331112591604679</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9869,7 +9869,7 @@
         <v>0.7933533160513546</v>
       </c>
       <c r="K123">
-        <v>44.23853955327541</v>
+        <v>-0.05761460446724592</v>
       </c>
       <c r="L123">
         <v>0.0022155554969119</v>
@@ -9899,13 +9899,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U123">
-        <v>0.9999666618511561</v>
+        <v>-3.333814884387554E-05</v>
       </c>
       <c r="V123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W123">
-        <v>0.999333555481506</v>
+        <v>-0.0006664445184939582</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9940,7 +9940,7 @@
         <v>0.7933533160513547</v>
       </c>
       <c r="K124">
-        <v>44.23853955327541</v>
+        <v>-0.05761460446724592</v>
       </c>
       <c r="L124">
         <v>0.001980430953564603</v>
@@ -9970,13 +9970,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U124">
-        <v>0.9999666607396871</v>
+        <v>-3.333926031290346E-05</v>
       </c>
       <c r="V124">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10011,7 +10011,7 @@
         <v>0.618710070256983</v>
       </c>
       <c r="K125">
-        <v>38.22241435482994</v>
+        <v>-0.1177758564517006</v>
       </c>
       <c r="L125">
         <v>0.001362294809733625</v>
@@ -10041,13 +10041,13 @@
         <v>0.01249999999996021</v>
       </c>
       <c r="U125">
-        <v>0.9999888865427146</v>
+        <v>-1.111345728543878E-05</v>
       </c>
       <c r="V125">
-        <v>0.9999333437020906</v>
+        <v>-6.665629790936212E-05</v>
       </c>
       <c r="W125">
-        <v>0.9993331110370124</v>
+        <v>-0.0006668889629876107</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10082,7 +10082,7 @@
         <v>0.7345695441216987</v>
       </c>
       <c r="K126">
-        <v>42.34880905242971</v>
+        <v>-0.07651190947570286</v>
       </c>
       <c r="L126">
         <v>0.0006679506654551352</v>
@@ -10112,13 +10112,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V126">
-        <v>0.9999555595058217</v>
+        <v>-4.444049417828833E-05</v>
       </c>
       <c r="W126">
-        <v>1.000333667000334</v>
+        <v>0.0003336670003337705</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10153,7 +10153,7 @@
         <v>0.6547214562772534</v>
       </c>
       <c r="K127">
-        <v>39.56686811508613</v>
+        <v>-0.1043313188491387</v>
       </c>
       <c r="L127">
         <v>-0.0001521287292697414</v>
@@ -10183,13 +10183,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U127">
-        <v>0.9999888864192042</v>
+        <v>-1.111358079575187E-05</v>
       </c>
       <c r="V127">
-        <v>0.9999333362961647</v>
+        <v>-6.66637038353457E-05</v>
       </c>
       <c r="W127">
-        <v>0.9996664442961974</v>
+        <v>-0.0003335557038025572</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10224,7 +10224,7 @@
         <v>0.6547214562772533</v>
       </c>
       <c r="K128">
-        <v>39.56686811508612</v>
+        <v>-0.1043313188491388</v>
       </c>
       <c r="L128">
         <v>-0.0009955784282042815</v>
@@ -10254,13 +10254,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U128">
-        <v>0.999988886295691</v>
+        <v>-1.111370430895153E-05</v>
       </c>
       <c r="V128">
-        <v>0.9999333318518188</v>
+        <v>-6.666814818123701E-05</v>
       </c>
       <c r="W128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10295,7 +10295,7 @@
         <v>0.6547214562772533</v>
       </c>
       <c r="K129">
-        <v>39.56686811508612</v>
+        <v>-0.1043313188491388</v>
       </c>
       <c r="L129">
         <v>-0.00179583334471671</v>
@@ -10325,13 +10325,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U129">
-        <v>0.9999888861721756</v>
+        <v>-1.111382782437165E-05</v>
       </c>
       <c r="V129">
-        <v>0.9999111032091741</v>
+        <v>-8.889679082590973E-05</v>
       </c>
       <c r="W129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10366,7 +10366,7 @@
         <v>0.5810537579979133</v>
       </c>
       <c r="K130">
-        <v>36.7510437300817</v>
+        <v>-0.132489562699183</v>
       </c>
       <c r="L130">
         <v>-0.00263379418001017</v>
@@ -10396,13 +10396,13 @@
         <v>-0.08750000000003411</v>
       </c>
       <c r="U130">
-        <v>0.9999777720973138</v>
+        <v>-2.222790268624486E-05</v>
       </c>
       <c r="V130">
-        <v>0.9999110953058322</v>
+        <v>-8.890469416777957E-05</v>
       </c>
       <c r="W130">
-        <v>0.9996663329996665</v>
+        <v>-0.0003336670003335485</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10437,7 +10437,7 @@
         <v>0.5810537579979133</v>
       </c>
       <c r="K131">
-        <v>36.7510437300817</v>
+        <v>-0.132489562699183</v>
       </c>
       <c r="L131">
         <v>-0.003431648086121703</v>
@@ -10467,13 +10467,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U131">
-        <v>0.9999888858016114</v>
+        <v>-1.11141983886176E-05</v>
       </c>
       <c r="V131">
-        <v>0.9999333155508134</v>
+        <v>-6.668444918656036E-05</v>
       </c>
       <c r="W131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10508,7 +10508,7 @@
         <v>0.4650861458402455</v>
       </c>
       <c r="K132">
-        <v>31.74462792926847</v>
+        <v>-0.1825537207073152</v>
       </c>
       <c r="L132">
         <v>-0.004384689871077953</v>
@@ -10538,13 +10538,13 @@
         <v>-0.1093750000000284</v>
       </c>
       <c r="U132">
-        <v>0.9999666570342546</v>
+        <v>-3.334296574541984E-05</v>
       </c>
       <c r="V132">
-        <v>0.9998666222074026</v>
+        <v>-0.0001333777925973667</v>
       </c>
       <c r="W132">
-        <v>0.9993324432576768</v>
+        <v>-0.0006675567423232165</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10579,7 +10579,7 @@
         <v>0.4650861458402455</v>
       </c>
       <c r="K133">
-        <v>31.74462792926847</v>
+        <v>-0.1825537207073152</v>
       </c>
       <c r="L133">
         <v>-0.005355130138666687</v>
@@ -10609,13 +10609,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U133">
-        <v>0.9999555412299517</v>
+        <v>-4.445877004832788E-05</v>
       </c>
       <c r="V133">
-        <v>0.9998221392205249</v>
+        <v>-0.0001778607794751252</v>
       </c>
       <c r="W133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10650,7 +10650,7 @@
         <v>0.4650861458402455</v>
       </c>
       <c r="K134">
-        <v>31.74462792926847</v>
+        <v>-0.1825537207073152</v>
       </c>
       <c r="L134">
         <v>-0.006254855951114924</v>
@@ -10680,13 +10680,13 @@
         <v>-0.1093749999999716</v>
       </c>
       <c r="U134">
-        <v>0.9999555392532818</v>
+        <v>-4.44607467181557E-05</v>
       </c>
       <c r="V134">
-        <v>0.9998221075804407</v>
+        <v>-0.0001778924195593445</v>
       </c>
       <c r="W134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10721,7 +10721,7 @@
         <v>0.3772654918166516</v>
       </c>
       <c r="K135">
-        <v>27.3923578321147</v>
+        <v>-0.226076421678853</v>
       </c>
       <c r="L135">
         <v>-0.007274535037624607</v>
@@ -10751,13 +10751,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U135">
-        <v>0.9999333059146539</v>
+        <v>-6.669408534609733E-05</v>
       </c>
       <c r="V135">
-        <v>0.9997775949113717</v>
+        <v>-0.0002224050886282525</v>
       </c>
       <c r="W135">
-        <v>0.9993319973279894</v>
+        <v>-0.0006680026720106147</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10792,7 +10792,7 @@
         <v>0.3431612853250618</v>
       </c>
       <c r="K136">
-        <v>25.54877728194887</v>
+        <v>-0.2445122271805113</v>
       </c>
       <c r="L136">
         <v>-0.00839697625571989</v>
@@ -10822,13 +10822,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U136">
-        <v>0.9998999521993842</v>
+        <v>-0.0001000478006157879</v>
       </c>
       <c r="V136">
-        <v>0.9997552999799791</v>
+        <v>-0.0002447000200208604</v>
       </c>
       <c r="W136">
-        <v>0.9996657754010696</v>
+        <v>-0.0003342245989303994</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10863,7 +10863,7 @@
         <v>0.3431612853250617</v>
       </c>
       <c r="K137">
-        <v>25.54877728194886</v>
+        <v>-0.2445122271805114</v>
       </c>
       <c r="L137">
         <v>-0.009479743689981363</v>
@@ -10893,13 +10893,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U137">
-        <v>0.9998999421888201</v>
+        <v>-0.0001000578111799433</v>
       </c>
       <c r="V137">
-        <v>0.9997774909883851</v>
+        <v>-0.0002225090116149131</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10934,7 +10934,7 @@
         <v>0.4433257458182575</v>
       </c>
       <c r="K138">
-        <v>30.71557111086695</v>
+        <v>-0.1928442888913305</v>
       </c>
       <c r="L138">
         <v>-0.01031368376873346</v>
@@ -10964,13 +10964,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U138">
-        <v>0.9999221694704189</v>
+        <v>-7.783052958110215E-05</v>
       </c>
       <c r="V138">
-        <v>0.999844209026974</v>
+        <v>-0.0001557909730259821</v>
       </c>
       <c r="W138">
-        <v>1.00033433634236</v>
+        <v>0.0003343363423602419</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11005,7 +11005,7 @@
         <v>0.4433257458182576</v>
       </c>
       <c r="K139">
-        <v>30.71557111086695</v>
+        <v>-0.1928442888913305</v>
       </c>
       <c r="L139">
         <v>-0.01090628477705591</v>
@@ -11035,13 +11035,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U139">
-        <v>0.9999221634123558</v>
+        <v>-7.783658764415335E-05</v>
       </c>
       <c r="V139">
-        <v>0.999844184752365</v>
+        <v>-0.0001558152476349717</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11076,7 +11076,7 @@
         <v>0.3990382639115118</v>
       </c>
       <c r="K140">
-        <v>28.52232667288581</v>
+        <v>-0.2147767332711419</v>
       </c>
       <c r="L140">
         <v>-0.01139674876183636</v>
@@ -11106,13 +11106,13 @@
         <v>-0.1093749999999716</v>
       </c>
       <c r="U140">
-        <v>0.9998999165971642</v>
+        <v>-0.0001000834028358488</v>
       </c>
       <c r="V140">
-        <v>0.9998664232601628</v>
+        <v>-0.0001335767398371601</v>
       </c>
       <c r="W140">
-        <v>0.9996657754010696</v>
+        <v>-0.0003342245989303994</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11147,7 +11147,7 @@
         <v>0.3990382639115118</v>
       </c>
       <c r="K141">
-        <v>28.52232667288581</v>
+        <v>-0.2147767332711419</v>
       </c>
       <c r="L141">
         <v>-0.01175269253922648</v>
@@ -11177,13 +11177,13 @@
         <v>-0.1093749999999716</v>
       </c>
       <c r="U141">
-        <v>0.999899906579474</v>
+        <v>-0.0001000934205259707</v>
       </c>
       <c r="V141">
-        <v>0.9998441396508729</v>
+        <v>-0.0001558603491270683</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11218,7 +11218,7 @@
         <v>0.3990382639115119</v>
       </c>
       <c r="K142">
-        <v>28.52232667288581</v>
+        <v>-0.2147767332711419</v>
       </c>
       <c r="L142">
         <v>-0.01196175267290295</v>
@@ -11248,13 +11248,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U142">
-        <v>0.9998998965597785</v>
+        <v>-0.0001001034402214884</v>
       </c>
       <c r="V142">
-        <v>0.9998663845896892</v>
+        <v>-0.0001336154103107612</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11289,7 +11289,7 @@
         <v>0.3573957789465879</v>
       </c>
       <c r="K143">
-        <v>26.32951895753988</v>
+        <v>-0.2367048104246012</v>
       </c>
       <c r="L143">
         <v>-0.01214652740183892</v>
@@ -11319,13 +11319,13 @@
         <v>-0.09687499999998295</v>
       </c>
       <c r="U143">
-        <v>0.9998887628200851</v>
+        <v>-0.0001112371799149026</v>
       </c>
       <c r="V143">
-        <v>0.9998440945232633</v>
+        <v>-0.0001559054767367174</v>
       </c>
       <c r="W143">
-        <v>0.9996656636576395</v>
+        <v>-0.0003343363423604639</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11360,7 +11360,7 @@
         <v>0.3573957789465879</v>
       </c>
       <c r="K144">
-        <v>26.32951895753988</v>
+        <v>-0.2367048104246012</v>
       </c>
       <c r="L144">
         <v>-0.01226068978431996</v>
@@ -11390,13 +11390,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U144">
-        <v>0.9998776254894981</v>
+        <v>-0.0001223745105018992</v>
       </c>
       <c r="V144">
-        <v>0.9998440702129556</v>
+        <v>-0.0001559297870443732</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11431,7 +11431,7 @@
         <v>0.3203529908175084</v>
       </c>
       <c r="K145">
-        <v>24.26267771159885</v>
+        <v>-0.2573732228840114</v>
       </c>
       <c r="L145">
         <v>-0.01240177602889999</v>
@@ -11461,13 +11461,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U145">
-        <v>0.9998776105121443</v>
+        <v>-0.0001223894878557008</v>
       </c>
       <c r="V145">
-        <v>0.9998440458950649</v>
+        <v>-0.0001559541049350743</v>
       </c>
       <c r="W145">
-        <v>0.9996655518394648</v>
+        <v>-0.0003344481605351834</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11502,7 +11502,7 @@
         <v>0.429454471175935</v>
       </c>
       <c r="K146">
-        <v>30.04324235822956</v>
+        <v>-0.1995675764177044</v>
       </c>
       <c r="L146">
         <v>-0.01238358788488829</v>
@@ -11532,13 +11532,13 @@
         <v>-0.06249999999997158</v>
       </c>
       <c r="U146">
-        <v>0.9998998508891015</v>
+        <v>-0.0001001491108985064</v>
       </c>
       <c r="V146">
-        <v>0.9998663042025049</v>
+        <v>-0.0001336957974951147</v>
       </c>
       <c r="W146">
-        <v>1.00033456005353</v>
+        <v>0.0003345600535296089</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11573,7 +11573,7 @@
         <v>0.4294544711759351</v>
       </c>
       <c r="K147">
-        <v>30.04324235822958</v>
+        <v>-0.1995675764177042</v>
       </c>
       <c r="L147">
         <v>-0.01222501555703626</v>
@@ -11603,13 +11603,13 @@
         <v>-0.05625000000003411</v>
       </c>
       <c r="U147">
-        <v>0.999888712064725</v>
+        <v>-0.0001112879352750396</v>
       </c>
       <c r="V147">
-        <v>0.9999108575503652</v>
+        <v>-8.914244963476037E-05</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11644,7 +11644,7 @@
         <v>0.4294544711759351</v>
       </c>
       <c r="K148">
-        <v>30.04324235822958</v>
+        <v>-0.1995675764177042</v>
       </c>
       <c r="L148">
         <v>-0.01194701301088166</v>
@@ -11674,13 +11674,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U148">
-        <v>0.9998664396140106</v>
+        <v>-0.0001335603859894396</v>
       </c>
       <c r="V148">
-        <v>0.9999108496032808</v>
+        <v>-8.915039671919534E-05</v>
       </c>
       <c r="W148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11715,7 +11715,7 @@
         <v>0.4294544711759351</v>
       </c>
       <c r="K149">
-        <v>30.04324235822958</v>
+        <v>-0.1995675764177042</v>
       </c>
       <c r="L149">
         <v>-0.01157088717426863</v>
@@ -11745,13 +11745,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U149">
-        <v>0.9998664217732509</v>
+        <v>-0.000133578226749087</v>
       </c>
       <c r="V149">
-        <v>0.9999108416547789</v>
+        <v>-8.915834522105204E-05</v>
       </c>
       <c r="W149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11786,7 +11786,7 @@
         <v>0.429454471175935</v>
       </c>
       <c r="K150">
-        <v>30.04324235822956</v>
+        <v>-0.1995675764177044</v>
       </c>
       <c r="L150">
         <v>-0.0111171610270471</v>
@@ -11816,13 +11816,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U150">
-        <v>0.9998664039277246</v>
+        <v>-0.000133596072275366</v>
       </c>
       <c r="V150">
-        <v>0.9999554168524296</v>
+        <v>-4.458314757038728E-05</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11857,7 +11857,7 @@
         <v>0.5704523622727633</v>
       </c>
       <c r="K151">
-        <v>36.32407935298355</v>
+        <v>-0.1367592064701645</v>
       </c>
       <c r="L151">
         <v>-0.01048323343363969</v>
@@ -11887,13 +11887,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U151">
-        <v>0.9998775205709768</v>
+        <v>-0.0001224794290232145</v>
       </c>
       <c r="V151">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W151">
-        <v>1.000334448160535</v>
+        <v>0.0003344481605351834</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11928,7 +11928,7 @@
         <v>0.5704523622727634</v>
       </c>
       <c r="K152">
-        <v>36.32407935298355</v>
+        <v>-0.1367592064701645</v>
       </c>
       <c r="L152">
         <v>-0.009742315177827043</v>
@@ -11958,13 +11958,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U152">
-        <v>0.9998886414253898</v>
+        <v>-0.0001113585746101986</v>
       </c>
       <c r="V152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11999,7 +11999,7 @@
         <v>0.5704523622727633</v>
       </c>
       <c r="K153">
-        <v>36.32407935298355</v>
+        <v>-0.1367592064701645</v>
       </c>
       <c r="L153">
         <v>-0.008948283958095353</v>
@@ -12029,13 +12029,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U153">
-        <v>0.9999109032186213</v>
+        <v>-8.90967813786947E-05</v>
       </c>
       <c r="V153">
-        <v>0.999977707432342</v>
+        <v>-2.229256765795551E-05</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12070,7 +12070,7 @@
         <v>0.5704523622727634</v>
       </c>
       <c r="K154">
-        <v>36.32407935298355</v>
+        <v>-0.1367592064701645</v>
       </c>
       <c r="L154">
         <v>-0.008140064390429167</v>
@@ -12100,13 +12100,13 @@
         <v>0</v>
       </c>
       <c r="U154">
-        <v>0.9999108952796775</v>
+        <v>-8.910472032253036E-05</v>
       </c>
       <c r="V154">
-        <v>0.9999777069353725</v>
+        <v>-2.229306462753211E-05</v>
       </c>
       <c r="W154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12141,7 +12141,7 @@
         <v>0.4862742027104883</v>
       </c>
       <c r="K155">
-        <v>32.71766419841506</v>
+        <v>-0.1728233580158494</v>
       </c>
       <c r="L155">
         <v>-0.007466763596616734</v>
@@ -12171,13 +12171,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U155">
-        <v>0.9999220264219038</v>
+        <v>-7.79735780962465E-05</v>
       </c>
       <c r="V155">
-        <v>0.9999777064383806</v>
+        <v>-2.22935616194242E-05</v>
       </c>
       <c r="W155">
-        <v>0.9996656636576395</v>
+        <v>-0.0003343363423604639</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12212,7 +12212,7 @@
         <v>0.6416045946469718</v>
       </c>
       <c r="K156">
-        <v>39.08399115957331</v>
+        <v>-0.1091600884042669</v>
       </c>
       <c r="L156">
         <v>-0.006769253134821155</v>
@@ -12242,13 +12242,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U156">
-        <v>0.9999220203415508</v>
+        <v>-7.797965844924537E-05</v>
       </c>
       <c r="V156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W156">
-        <v>1.000334448160535</v>
+        <v>0.0003344481605351834</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12283,7 +12283,7 @@
         <v>0.6416045946469718</v>
       </c>
       <c r="K157">
-        <v>39.08399115957331</v>
+        <v>-0.1091600884042669</v>
       </c>
       <c r="L157">
         <v>-0.006076857863471371</v>
@@ -12313,13 +12313,13 @@
         <v>0.01875000000003979</v>
       </c>
       <c r="U157">
-        <v>0.999933155080214</v>
+        <v>-6.684491978603546E-05</v>
       </c>
       <c r="V157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12354,7 +12354,7 @@
         <v>0.5473922389475651</v>
       </c>
       <c r="K158">
-        <v>35.37514439906106</v>
+        <v>-0.1462485560093894</v>
       </c>
       <c r="L158">
         <v>-0.00553124009280963</v>
@@ -12384,13 +12384,13 @@
         <v>0.02187500000002274</v>
       </c>
       <c r="U158">
-        <v>0.9999220090469506</v>
+        <v>-7.799095304938941E-05</v>
       </c>
       <c r="V158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W158">
-        <v>0.9996656636576395</v>
+        <v>-0.0003343363423604639</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12425,7 +12425,7 @@
         <v>0.5473922389475651</v>
       </c>
       <c r="K159">
-        <v>35.37514439906106</v>
+        <v>-0.1462485560093894</v>
       </c>
       <c r="L159">
         <v>-0.005089186567910758</v>
@@ -12455,13 +12455,13 @@
         <v>0.015625</v>
       </c>
       <c r="U159">
-        <v>0.9999220029638872</v>
+        <v>-7.799703611277575E-05</v>
       </c>
       <c r="V159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12496,7 +12496,7 @@
         <v>0.7100943497157024</v>
       </c>
       <c r="K160">
-        <v>41.52369428235075</v>
+        <v>-0.08476305717649246</v>
       </c>
       <c r="L160">
         <v>-0.004597813846880281</v>
@@ -12526,13 +12526,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U160">
-        <v>0.9999442834856251</v>
+        <v>-5.571651437485947E-05</v>
       </c>
       <c r="V160">
-        <v>1.000044588117267</v>
+        <v>4.458811726681944E-05</v>
       </c>
       <c r="W160">
-        <v>1.000334448160535</v>
+        <v>0.0003344481605351834</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12567,7 +12567,7 @@
         <v>0.6062625618317776</v>
       </c>
       <c r="K161">
-        <v>37.74367754300376</v>
+        <v>-0.1225632245699624</v>
       </c>
       <c r="L161">
         <v>-0.004212834462175785</v>
@@ -12597,13 +12597,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U161">
-        <v>0.9999331364573465</v>
+        <v>-6.68635426535058E-05</v>
       </c>
       <c r="V161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W161">
-        <v>0.9996656636576395</v>
+        <v>-0.0003343363423604639</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12638,7 +12638,7 @@
         <v>0.6062625618317776</v>
       </c>
       <c r="K162">
-        <v>37.74367754300376</v>
+        <v>-0.1225632245699624</v>
       </c>
       <c r="L162">
         <v>-0.0039015117257977</v>
@@ -12668,13 +12668,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U162">
-        <v>0.9999554213242096</v>
+        <v>-4.457867579044095E-05</v>
       </c>
       <c r="V162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12709,7 +12709,7 @@
         <v>0.5217318687123117</v>
       </c>
       <c r="K163">
-        <v>34.28540069636584</v>
+        <v>-0.1571459930363416</v>
       </c>
       <c r="L163">
         <v>-0.003762174833265017</v>
@@ -12739,13 +12739,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U163">
-        <v>0.9999442741710783</v>
+        <v>-5.572582892166E-05</v>
       </c>
       <c r="V163">
-        <v>0.9999777069353722</v>
+        <v>-2.229306462775416E-05</v>
       </c>
       <c r="W163">
-        <v>0.9996655518394648</v>
+        <v>-0.0003344481605351834</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12780,7 +12780,7 @@
         <v>0.8152669888721755</v>
       </c>
       <c r="K164">
-        <v>44.91168483037862</v>
+        <v>-0.05088315169621382</v>
       </c>
       <c r="L164">
         <v>-0.003478772818033171</v>
@@ -12810,13 +12810,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U164">
-        <v>0.9999665626393224</v>
+        <v>-3.343736067762393E-05</v>
       </c>
       <c r="V164">
-        <v>1.00002229356162</v>
+        <v>2.229356161964624E-05</v>
       </c>
       <c r="W164">
-        <v>1.000669120107059</v>
+        <v>0.0006691201070594399</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12851,7 +12851,7 @@
         <v>0.9697591573772792</v>
       </c>
       <c r="K165">
-        <v>49.23237207682318</v>
+        <v>-0.007676279231768168</v>
       </c>
       <c r="L165">
         <v>-0.002991736277375142</v>
@@ -12881,13 +12881,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V165">
-        <v>1.000044586129255</v>
+        <v>4.458612925506422E-05</v>
       </c>
       <c r="W165">
-        <v>1.00033433634236</v>
+        <v>0.0003343363423602419</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12922,7 +12922,7 @@
         <v>0.7317574749946089</v>
       </c>
       <c r="K166">
-        <v>42.25519367236379</v>
+        <v>-0.07744806327636211</v>
       </c>
       <c r="L166">
         <v>-0.002644925483040011</v>
@@ -12952,13 +12952,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U166">
-        <v>0.9999888538404093</v>
+        <v>-1.114615959074694E-05</v>
       </c>
       <c r="V166">
-        <v>0.9999777079292894</v>
+        <v>-2.229207071058337E-05</v>
       </c>
       <c r="W166">
-        <v>0.9993315508021391</v>
+        <v>-0.0006684491978609097</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12993,7 +12993,7 @@
         <v>0.7317574749946089</v>
       </c>
       <c r="K167">
-        <v>42.25519367236379</v>
+        <v>-0.07744806327636211</v>
       </c>
       <c r="L167">
         <v>-0.002395543458568633</v>
@@ -13023,13 +13023,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U167">
-        <v>0.9999888537161712</v>
+        <v>-1.114628382881122E-05</v>
       </c>
       <c r="V167">
-        <v>0.999977707432342</v>
+        <v>-2.229256765795551E-05</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13064,7 +13064,7 @@
         <v>0.7317574749946087</v>
       </c>
       <c r="K168">
-        <v>42.25519367236378</v>
+        <v>-0.07744806327636217</v>
       </c>
       <c r="L168">
         <v>-0.002212359701756068</v>
@@ -13094,13 +13094,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U168">
-        <v>0.9999777071838598</v>
+        <v>-2.22928161401903E-05</v>
       </c>
       <c r="V168">
-        <v>0.9999777069353725</v>
+        <v>-2.229306462753211E-05</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13135,7 +13135,7 @@
         <v>0.6401377903562105</v>
       </c>
       <c r="K169">
-        <v>39.02951289337607</v>
+        <v>-0.1097048710662393</v>
       </c>
       <c r="L169">
         <v>-0.002194647046129849</v>
@@ -13165,13 +13165,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U169">
-        <v>0.9999665600303189</v>
+        <v>-3.343996968108165E-05</v>
       </c>
       <c r="V169">
-        <v>0.999955412876761</v>
+        <v>-4.458712323895941E-05</v>
       </c>
       <c r="W169">
-        <v>0.9996655518394648</v>
+        <v>-0.0003344481605351834</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13206,7 +13206,7 @@
         <v>0.7719325127870098</v>
       </c>
       <c r="K170">
-        <v>43.56444205501171</v>
+        <v>-0.0643555794498829</v>
       </c>
       <c r="L170">
         <v>-0.002148581319402226</v>
@@ -13236,13 +13236,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U170">
-        <v>0.9999888529706833</v>
+        <v>-1.114702931670486E-05</v>
       </c>
       <c r="V170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W170">
-        <v>1.00033456005353</v>
+        <v>0.0003345600535296089</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13277,7 +13277,7 @@
         <v>0.6778882092342337</v>
       </c>
       <c r="K171">
-        <v>40.40127378591051</v>
+        <v>-0.09598726214089487</v>
       </c>
       <c r="L171">
         <v>-0.002202201888381038</v>
@@ -13307,13 +13307,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U171">
-        <v>0.9999777056928514</v>
+        <v>-2.229430714861813E-05</v>
       </c>
       <c r="V171">
-        <v>0.999955410888661</v>
+        <v>-4.458911133897736E-05</v>
       </c>
       <c r="W171">
-        <v>0.9996655518394648</v>
+        <v>-0.0003344481605351834</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13348,7 +13348,7 @@
         <v>0.6778882092342338</v>
       </c>
       <c r="K172">
-        <v>40.40127378591051</v>
+        <v>-0.09598726214089487</v>
       </c>
       <c r="L172">
         <v>-0.002304788545787941</v>
@@ -13378,13 +13378,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U172">
-        <v>0.999977705195804</v>
+        <v>-2.229480419602137E-05</v>
       </c>
       <c r="V172">
-        <v>0.9999554089003835</v>
+        <v>-4.459109961651997E-05</v>
       </c>
       <c r="W172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13419,7 +13419,7 @@
         <v>0.8128795624118421</v>
       </c>
       <c r="K173">
-        <v>44.83913764962924</v>
+        <v>-0.05160862350370765</v>
       </c>
       <c r="L173">
         <v>-0.002300362043123414</v>
@@ -13449,13 +13449,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W173">
-        <v>1.00033456005353</v>
+        <v>0.0003345600535296089</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13490,7 +13490,7 @@
         <v>0.7117435378905167</v>
       </c>
       <c r="K174">
-        <v>41.58003358187878</v>
+        <v>-0.08419966418121222</v>
       </c>
       <c r="L174">
         <v>-0.002344766571758169</v>
@@ -13520,13 +13520,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U174">
-        <v>0.9999888523493674</v>
+        <v>-1.114765063259249E-05</v>
       </c>
       <c r="V174">
-        <v>0.9999777034559645</v>
+        <v>-2.229654403551606E-05</v>
       </c>
       <c r="W174">
-        <v>0.9996655518394648</v>
+        <v>-0.0003344481605351834</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13561,7 +13561,7 @@
         <v>0.5640116793832368</v>
       </c>
       <c r="K175">
-        <v>36.06185854095752</v>
+        <v>-0.1393814145904249</v>
       </c>
       <c r="L175">
         <v>-0.002650918416909093</v>
@@ -13591,13 +13591,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U175">
-        <v>0.999977704450192</v>
+        <v>-2.229554980803794E-05</v>
       </c>
       <c r="V175">
-        <v>0.9999108118352692</v>
+        <v>-8.918816473080238E-05</v>
       </c>
       <c r="W175">
-        <v>0.9993308798929408</v>
+        <v>-0.0006691201070592179</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13632,7 +13632,7 @@
         <v>0.5084650011722839</v>
       </c>
       <c r="K176">
-        <v>33.70744437405818</v>
+        <v>-0.1629255562594182</v>
       </c>
       <c r="L176">
         <v>-0.003208275848368383</v>
@@ -13662,13 +13662,13 @@
         <v>-0.04062499999997726</v>
       </c>
       <c r="U176">
-        <v>0.9999554079061783</v>
+        <v>-4.459209382168261E-05</v>
       </c>
       <c r="V176">
-        <v>0.9999108038800311</v>
+        <v>-8.919611996893728E-05</v>
       </c>
       <c r="W176">
-        <v>0.9996652159357216</v>
+        <v>-0.0003347840642784483</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13703,7 +13703,7 @@
         <v>0.5084650011722839</v>
       </c>
       <c r="K177">
-        <v>33.70744437405818</v>
+        <v>-0.1629255562594182</v>
       </c>
       <c r="L177">
         <v>-0.003870665369143072</v>
@@ -13733,13 +13733,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U177">
-        <v>0.9999554059176348</v>
+        <v>-4.459408236523466E-05</v>
       </c>
       <c r="V177">
-        <v>0.9999107959233737</v>
+        <v>-8.920407662627028E-05</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13774,7 +13774,7 @@
         <v>0.4584381117985478</v>
       </c>
       <c r="K178">
-        <v>31.4334978008221</v>
+        <v>-0.185665021991779</v>
       </c>
       <c r="L178">
         <v>-0.004662205080783842</v>
@@ -13804,13 +13804,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U178">
-        <v>0.9999442549111421</v>
+        <v>-5.574508885786145E-05</v>
       </c>
       <c r="V178">
-        <v>0.9999107879652966</v>
+        <v>-8.921203470335648E-05</v>
       </c>
       <c r="W178">
-        <v>0.9996651038178164</v>
+        <v>-0.0003348961821836305</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13845,7 +13845,7 @@
         <v>0.4584381117985478</v>
       </c>
       <c r="K179">
-        <v>31.4334978008221</v>
+        <v>-0.185665021991779</v>
       </c>
       <c r="L179">
         <v>-0.005464641793521452</v>
@@ -13875,13 +13875,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U179">
-        <v>0.9999442518034543</v>
+        <v>-5.574819654574625E-05</v>
       </c>
       <c r="V179">
-        <v>0.9998661700086989</v>
+        <v>-0.000133829991301071</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13916,7 +13916,7 @@
         <v>0.4584381117985478</v>
       </c>
       <c r="K180">
-        <v>31.4334978008221</v>
+        <v>-0.185665021991779</v>
       </c>
       <c r="L180">
         <v>-0.006202719914524397</v>
@@ -13946,13 +13946,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U180">
-        <v>0.9999442486954195</v>
+        <v>-5.575130458046473E-05</v>
       </c>
       <c r="V180">
-        <v>0.9998438441118077</v>
+        <v>-0.0001561558881922886</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13987,7 +13987,7 @@
         <v>0.57319311225553</v>
       </c>
       <c r="K181">
-        <v>36.43501282774671</v>
+        <v>-0.1356498717225329</v>
       </c>
       <c r="L181">
         <v>-0.006710463287644934</v>
@@ -14017,13 +14017,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U181">
-        <v>0.9999442455870379</v>
+        <v>-5.575441296212791E-05</v>
       </c>
       <c r="V181">
-        <v>0.9999107541276216</v>
+        <v>-8.92458723783518E-05</v>
       </c>
       <c r="W181">
-        <v>1.000335008375209</v>
+        <v>0.0003350083752093891</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14058,7 +14058,7 @@
         <v>0.6939878495786006</v>
       </c>
       <c r="K182">
-        <v>40.96769936993576</v>
+        <v>-0.09032300630064244</v>
       </c>
       <c r="L182">
         <v>-0.00690010254383076</v>
@@ -14088,13 +14088,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U182">
-        <v>0.9999553939826483</v>
+        <v>-4.460601735167824E-05</v>
       </c>
       <c r="V182">
-        <v>0.9999330596215636</v>
+        <v>-6.694037843635314E-05</v>
       </c>
       <c r="W182">
-        <v>1.000334896182183</v>
+        <v>0.0003348961821834084</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14129,7 +14129,7 @@
         <v>0.5532848947792337</v>
       </c>
       <c r="K183">
-        <v>35.62031000487335</v>
+        <v>-0.1437968999512665</v>
       </c>
       <c r="L183">
         <v>-0.007103428793870803</v>
@@ -14159,13 +14159,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U183">
-        <v>0.9999330879892941</v>
+        <v>-6.691201070585517E-05</v>
       </c>
       <c r="V183">
-        <v>0.9998884252337492</v>
+        <v>-0.0001115747662507882</v>
       </c>
       <c r="W183">
-        <v>0.999330431871443</v>
+        <v>-0.0006695681285570076</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14200,7 +14200,7 @@
         <v>0.4999374723997753</v>
       </c>
       <c r="K184">
-        <v>33.33055421303109</v>
+        <v>-0.1666944578696891</v>
       </c>
       <c r="L184">
         <v>-0.007398091319378963</v>
@@ -14230,13 +14230,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U184">
-        <v>0.99992193076374</v>
+        <v>-7.806923625996998E-05</v>
       </c>
       <c r="V184">
-        <v>0.9998884127834314</v>
+        <v>-0.000111587216568565</v>
       </c>
       <c r="W184">
-        <v>0.9996649916247905</v>
+        <v>-0.0003350083752095001</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14271,7 +14271,7 @@
         <v>0.4999374723997753</v>
       </c>
       <c r="K185">
-        <v>33.33055421303109</v>
+        <v>-0.1666944578696891</v>
       </c>
       <c r="L185">
         <v>-0.007702443390926106</v>
@@ -14301,13 +14301,13 @@
         <v>-0.07812500000002842</v>
       </c>
       <c r="U185">
-        <v>0.9999330782872505</v>
+        <v>-6.692171274946812E-05</v>
       </c>
       <c r="V185">
-        <v>0.9998660803964021</v>
+        <v>-0.0001339196035978762</v>
       </c>
       <c r="W185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14342,7 +14342,7 @@
         <v>0.4999374723997752</v>
       </c>
       <c r="K186">
-        <v>33.33055421303108</v>
+        <v>-0.1666944578696892</v>
       </c>
       <c r="L186">
         <v>-0.007965286173505118</v>
@@ -14372,13 +14372,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U186">
-        <v>0.999921919443174</v>
+        <v>-7.808055682601012E-05</v>
       </c>
       <c r="V186">
-        <v>0.9998883853829497</v>
+        <v>-0.0001116146170503374</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14413,7 +14413,7 @@
         <v>0.4999374723997753</v>
       </c>
       <c r="K187">
-        <v>33.33055421303109</v>
+        <v>-0.1666944578696891</v>
       </c>
       <c r="L187">
         <v>-0.008157280330669273</v>
@@ -14443,13 +14443,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U187">
-        <v>0.9999219133461248</v>
+        <v>-7.808665387520897E-05</v>
       </c>
       <c r="V187">
-        <v>0.9998883729237363</v>
+        <v>-0.0001116270762636651</v>
       </c>
       <c r="W187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14484,7 +14484,7 @@
         <v>0.4999374723997753</v>
       </c>
       <c r="K188">
-        <v>33.33055421303109</v>
+        <v>-0.1666944578696891</v>
       </c>
       <c r="L188">
         <v>-0.008264457175728235</v>
@@ -14514,13 +14514,13 @@
         <v>-0.04687500000002842</v>
       </c>
       <c r="U188">
-        <v>0.999933063355534</v>
+        <v>-6.693664446599801E-05</v>
       </c>
       <c r="V188">
-        <v>0.9998660325540895</v>
+        <v>-0.0001339674459105433</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14555,7 +14555,7 @@
         <v>0.4445436866570063</v>
       </c>
       <c r="K189">
-        <v>30.77398702186562</v>
+        <v>-0.1922601297813438</v>
       </c>
       <c r="L189">
         <v>-0.008405226985295004</v>
@@ -14585,13 +14585,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U189">
-        <v>0.9999219020205061</v>
+        <v>-7.809797949387409E-05</v>
       </c>
       <c r="V189">
-        <v>0.999866014604408</v>
+        <v>-0.0001339853955919512</v>
       </c>
       <c r="W189">
-        <v>0.9996648793565684</v>
+        <v>-0.0003351206434315523</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14626,7 +14626,7 @@
         <v>0.4445436866570063</v>
       </c>
       <c r="K190">
-        <v>30.77398702186562</v>
+        <v>-0.1922601297813438</v>
       </c>
       <c r="L190">
         <v>-0.008526832942696514</v>
@@ -14656,13 +14656,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U190">
-        <v>0.9999107381951264</v>
+        <v>-8.926180487356383E-05</v>
       </c>
       <c r="V190">
-        <v>0.9999106644332774</v>
+        <v>-8.933556672263698E-05</v>
       </c>
       <c r="W190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14697,7 +14697,7 @@
         <v>0.5673153517875318</v>
       </c>
       <c r="K191">
-        <v>36.19663082738936</v>
+        <v>-0.1380336917261064</v>
       </c>
       <c r="L191">
         <v>-0.008476192971606882</v>
@@ -14727,13 +14727,13 @@
         <v>-0.04687500000002842</v>
       </c>
       <c r="U191">
-        <v>0.9999330476700588</v>
+        <v>-6.695232994125E-05</v>
       </c>
       <c r="V191">
-        <v>0.9999553282258608</v>
+        <v>-4.467177413924883E-05</v>
       </c>
       <c r="W191">
-        <v>1.000335232986926</v>
+        <v>0.0003352329869257265</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14768,7 +14768,7 @@
         <v>0.5673153517875319</v>
       </c>
       <c r="K192">
-        <v>36.19663082738936</v>
+        <v>-0.1380336917261064</v>
       </c>
       <c r="L192">
         <v>-0.008293567714244708</v>
@@ -14798,13 +14798,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U192">
-        <v>0.9999330431871444</v>
+        <v>-6.695681285562305E-05</v>
       </c>
       <c r="V192">
-        <v>0.9999553262302038</v>
+        <v>-4.467376979622184E-05</v>
       </c>
       <c r="W192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14839,7 +14839,7 @@
         <v>0.4993818930157067</v>
       </c>
       <c r="K193">
-        <v>33.30585058695753</v>
+        <v>-0.1669414941304247</v>
       </c>
       <c r="L193">
         <v>-0.008134328380385476</v>
@@ -14869,13 +14869,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U193">
-        <v>0.9999330387036292</v>
+        <v>-6.69612963708488E-05</v>
       </c>
       <c r="V193">
-        <v>0.9999553242343691</v>
+        <v>-4.467576563094156E-05</v>
       </c>
       <c r="W193">
-        <v>0.9996648793565684</v>
+        <v>-0.0003351206434315523</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14910,7 +14910,7 @@
         <v>0.6254297846248931</v>
       </c>
       <c r="K194">
-        <v>38.4778100254405</v>
+        <v>-0.1152218997455949</v>
       </c>
       <c r="L194">
         <v>-0.007847897866956735</v>
@@ -14940,13 +14940,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U194">
-        <v>0.9999218732560995</v>
+        <v>-7.812674390050844E-05</v>
       </c>
       <c r="V194">
-        <v>0.9999776611191777</v>
+        <v>-2.23388808222591E-05</v>
       </c>
       <c r="W194">
-        <v>1.000335232986926</v>
+        <v>0.0003352329869257265</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14981,7 +14981,7 @@
         <v>0.5521671479743421</v>
       </c>
       <c r="K195">
-        <v>35.57394889428942</v>
+        <v>-0.1442605110571059</v>
       </c>
       <c r="L195">
         <v>-0.007596005891048786</v>
@@ -15011,13 +15011,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U195">
-        <v>0.9998995434809299</v>
+        <v>-0.0001004565190700912</v>
       </c>
       <c r="V195">
-        <v>0.9999553212402824</v>
+        <v>-4.467875971758684E-05</v>
       </c>
       <c r="W195">
-        <v>0.9996648793565684</v>
+        <v>-0.0003351206434315523</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15052,7 +15052,7 @@
         <v>0.5521671479743421</v>
       </c>
       <c r="K196">
-        <v>35.57394889428942</v>
+        <v>-0.1442605110571059</v>
       </c>
       <c r="L196">
         <v>-0.00735345334684467</v>
@@ -15082,13 +15082,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U196">
-        <v>0.9999218593020918</v>
+        <v>-7.814069790823552E-05</v>
       </c>
       <c r="V196">
-        <v>0.9999329788660025</v>
+        <v>-6.702113399748022E-05</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15123,7 +15123,7 @@
         <v>0.6819617927570484</v>
       </c>
       <c r="K197">
-        <v>40.5456173673949</v>
+        <v>-0.09454382632605102</v>
       </c>
       <c r="L197">
         <v>-0.006983309907260013</v>
@@ -15153,13 +15153,13 @@
         <v>-0.02187499999996589</v>
       </c>
       <c r="U197">
-        <v>0.9999330170248397</v>
+        <v>-6.698297516027907E-05</v>
       </c>
       <c r="V197">
-        <v>0.9999329743738689</v>
+        <v>-6.702562613114527E-05</v>
       </c>
       <c r="W197">
-        <v>1.000335232986926</v>
+        <v>0.0003352329869257265</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15194,7 +15194,7 @@
         <v>0.5999878831123203</v>
       </c>
       <c r="K198">
-        <v>37.49952668049053</v>
+        <v>-0.1250047331950947</v>
       </c>
       <c r="L198">
         <v>-0.006655964351463492</v>
@@ -15224,13 +15224,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U198">
-        <v>0.9999218479607899</v>
+        <v>-7.815203921013314E-05</v>
       </c>
       <c r="V198">
-        <v>0.9999553132540889</v>
+        <v>-4.468674591107114E-05</v>
       </c>
       <c r="W198">
-        <v>0.9996648793565684</v>
+        <v>-0.0003351206434315523</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15265,7 +15265,7 @@
         <v>0.4349034542739556</v>
       </c>
       <c r="K199">
-        <v>30.30890008512884</v>
+        <v>-0.1969109991487116</v>
       </c>
       <c r="L199">
         <v>-0.006717072497491294</v>
@@ -15295,13 +15295,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U199">
-        <v>0.9998995109533062</v>
+        <v>-0.0001004890466937969</v>
       </c>
       <c r="V199">
-        <v>0.9999106225141887</v>
+        <v>-8.937748581128169E-05</v>
       </c>
       <c r="W199">
-        <v>0.9989943010392223</v>
+        <v>-0.001005698960777734</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15336,7 +15336,7 @@
         <v>0.3966133860933792</v>
       </c>
       <c r="K200">
-        <v>28.39822316201551</v>
+        <v>-0.2160177683798449</v>
       </c>
       <c r="L200">
         <v>-0.007107228720555943</v>
@@ -15366,13 +15366,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U200">
-        <v>0.9998771677107411</v>
+        <v>-0.0001228322892589118</v>
       </c>
       <c r="V200">
-        <v>0.9998882681564245</v>
+        <v>-0.000111731843575491</v>
       </c>
       <c r="W200">
-        <v>0.9996644295302013</v>
+        <v>-0.0003355704697987072</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15407,7 +15407,7 @@
         <v>0.3966133860933791</v>
       </c>
       <c r="K201">
-        <v>28.39822316201551</v>
+        <v>-0.2160177683798449</v>
       </c>
       <c r="L201">
         <v>-0.007646102619083975</v>
@@ -15437,13 +15437,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U201">
-        <v>0.9998883205646512</v>
+        <v>-0.0001116794353488437</v>
       </c>
       <c r="V201">
-        <v>0.9998882556710248</v>
+        <v>-0.0001117443289752051</v>
       </c>
       <c r="W201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15478,7 +15478,7 @@
         <v>0.4941676085930778</v>
       </c>
       <c r="K202">
-        <v>33.07310409830063</v>
+        <v>-0.1692689590169937</v>
       </c>
       <c r="L202">
         <v>-0.008091009242514983</v>
@@ -15508,13 +15508,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U202">
-        <v>0.9998994772818658</v>
+        <v>-0.0001005227181342105</v>
       </c>
       <c r="V202">
-        <v>0.9999105945462674</v>
+        <v>-8.94054537325939E-05</v>
       </c>
       <c r="W202">
-        <v>1.000335683115139</v>
+        <v>0.000335683115139318</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15549,7 +15549,7 @@
         <v>0.4941676085930778</v>
       </c>
       <c r="K203">
-        <v>33.07310409830063</v>
+        <v>-0.1692689590169937</v>
       </c>
       <c r="L203">
         <v>-0.008421235945216031</v>
@@ -15579,13 +15579,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U203">
-        <v>0.999888296862259</v>
+        <v>-0.0001117031377410038</v>
       </c>
       <c r="V203">
-        <v>0.9999105865522173</v>
+        <v>-8.941344778268245E-05</v>
       </c>
       <c r="W203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15620,7 +15620,7 @@
         <v>0.4941676085930778</v>
       </c>
       <c r="K204">
-        <v>33.07310409830063</v>
+        <v>-0.1692689590169937</v>
       </c>
       <c r="L204">
         <v>-0.008630328541686166</v>
@@ -15650,13 +15650,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U204">
-        <v>0.9998994559449464</v>
+        <v>-0.000100544055053553</v>
       </c>
       <c r="V204">
-        <v>0.9999329339175534</v>
+        <v>-6.70660824465541E-05</v>
       </c>
       <c r="W204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15691,7 +15691,7 @@
         <v>0.4941676085930777</v>
       </c>
       <c r="K205">
-        <v>33.07310409830063</v>
+        <v>-0.1692689590169937</v>
       </c>
       <c r="L205">
         <v>-0.008721323791348979</v>
@@ -15721,13 +15721,13 @@
         <v>-0.08437499999996589</v>
       </c>
       <c r="U205">
-        <v>0.9999217912048625</v>
+        <v>-7.820879513753543E-05</v>
       </c>
       <c r="V205">
-        <v>0.9999329294193924</v>
+        <v>-6.707058060761995E-05</v>
       </c>
       <c r="W205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15762,7 +15762,7 @@
         <v>0.4413113141976981</v>
       </c>
       <c r="K206">
-        <v>30.61873655264773</v>
+        <v>-0.1938126344735227</v>
       </c>
       <c r="L206">
         <v>-0.008825276387354537</v>
@@ -15792,13 +15792,13 @@
         <v>-0.09687500000001137</v>
       </c>
       <c r="U206">
-        <v>0.9999217850877684</v>
+        <v>-7.821491223158894E-05</v>
       </c>
       <c r="V206">
-        <v>0.9998882082010463</v>
+        <v>-0.0001117917989537087</v>
       </c>
       <c r="W206">
-        <v>0.9996644295302013</v>
+        <v>-0.0003355704697987072</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15833,7 +15833,7 @@
         <v>0.3966523298562795</v>
       </c>
       <c r="K207">
-        <v>28.40021968080606</v>
+        <v>-0.2159978031919394</v>
       </c>
       <c r="L207">
         <v>-0.009020418893776725</v>
@@ -15863,13 +15863,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U207">
-        <v>0.9999106045368198</v>
+        <v>-8.939546318020852E-05</v>
       </c>
       <c r="V207">
-        <v>0.9998658348426914</v>
+        <v>-0.0001341651573085745</v>
       </c>
       <c r="W207">
-        <v>0.9996643168848608</v>
+        <v>-0.000335683115139207</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15904,7 +15904,7 @@
         <v>0.3584675713606841</v>
       </c>
       <c r="K208">
-        <v>26.387642879221</v>
+        <v>-0.2361235712077899</v>
       </c>
       <c r="L208">
         <v>-0.009347663723567035</v>
@@ -15934,13 +15934,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U208">
-        <v>0.9999105965445565</v>
+        <v>-8.940345544350414E-05</v>
       </c>
       <c r="V208">
-        <v>0.9998658168399865</v>
+        <v>-0.0001341831600134569</v>
       </c>
       <c r="W208">
-        <v>0.9996642041638683</v>
+        <v>-0.000335795836131747</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15975,7 +15975,7 @@
         <v>0.298060144510778</v>
       </c>
       <c r="K209">
-        <v>22.96196719167531</v>
+        <v>-0.2703803280832469</v>
       </c>
       <c r="L209">
         <v>-0.009944288887507705</v>
@@ -16005,13 +16005,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U209">
-        <v>0.9998882356885799</v>
+        <v>-0.0001117643114201261</v>
       </c>
       <c r="V209">
-        <v>0.9997986982486747</v>
+        <v>-0.0002013017513252668</v>
       </c>
       <c r="W209">
-        <v>0.9993281827342964</v>
+        <v>-0.0006718172657036448</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16046,7 +16046,7 @@
         <v>0.298060144510778</v>
       </c>
       <c r="K210">
-        <v>22.96196719167531</v>
+        <v>-0.2703803280832469</v>
       </c>
       <c r="L210">
         <v>-0.01063006636005171</v>
@@ -16076,13 +16076,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U210">
-        <v>0.9998882231959225</v>
+        <v>-0.0001117768040774791</v>
       </c>
       <c r="V210">
-        <v>0.999821029082774</v>
+        <v>-0.0001789709172259624</v>
       </c>
       <c r="W210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16117,7 +16117,7 @@
         <v>0.298060144510778</v>
       </c>
       <c r="K211">
-        <v>22.96196719167531</v>
+        <v>-0.2703803280832469</v>
       </c>
       <c r="L211">
         <v>-0.01128761536467862</v>
@@ -16147,13 +16147,13 @@
         <v>-0.09062500000001705</v>
       </c>
       <c r="U211">
-        <v>0.9998770317705189</v>
+        <v>-0.0001229682294811019</v>
       </c>
       <c r="V211">
-        <v>0.9998209970464512</v>
+        <v>-0.0001790029535487792</v>
       </c>
       <c r="W211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16188,7 +16188,7 @@
         <v>0.396334374947557</v>
       </c>
       <c r="K212">
-        <v>28.38391592002756</v>
+        <v>-0.2161608407997244</v>
       </c>
       <c r="L212">
         <v>-0.01172310659142939</v>
@@ -16218,13 +16218,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U212">
-        <v>0.9998770166474735</v>
+        <v>-0.0001229833525264734</v>
       </c>
       <c r="V212">
-        <v>0.9998209649986574</v>
+        <v>-0.0001790350013426423</v>
       </c>
       <c r="W212">
-        <v>1.000336134453782</v>
+        <v>0.0003361344537815558</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16259,7 +16259,7 @@
         <v>0.4997809333020025</v>
       </c>
       <c r="K213">
-        <v>33.32359561350447</v>
+        <v>-0.1667640438649554</v>
       </c>
       <c r="L213">
         <v>-0.01183159006676042</v>
@@ -16289,13 +16289,13 @@
         <v>-0.09062500000001705</v>
       </c>
       <c r="U213">
-        <v>0.9999105465605154</v>
+        <v>-8.945343948463247E-05</v>
       </c>
       <c r="V213">
-        <v>0.9998656997045393</v>
+        <v>-0.0001343002954606876</v>
       </c>
       <c r="W213">
-        <v>1.000336021505376</v>
+        <v>0.0003360215053762605</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16330,7 +16330,7 @@
         <v>0.4507033440581544</v>
       </c>
       <c r="K214">
-        <v>31.06791928923045</v>
+        <v>-0.1893208071076956</v>
       </c>
       <c r="L214">
         <v>-0.0118141042337722</v>
@@ -16360,13 +16360,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U214">
-        <v>0.9999105385578816</v>
+        <v>-8.946144211841034E-05</v>
       </c>
       <c r="V214">
-        <v>0.9999104544436983</v>
+        <v>-8.954555630169558E-05</v>
       </c>
       <c r="W214">
-        <v>0.9996640913671483</v>
+        <v>-0.0003359086328517114</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16401,7 +16401,7 @@
         <v>0.6574364017415689</v>
       </c>
       <c r="K215">
-        <v>39.6658599419417</v>
+        <v>-0.1033414005805829</v>
       </c>
       <c r="L215">
         <v>-0.01143415244333242</v>
@@ -16431,13 +16431,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U215">
-        <v>0.999932897915362</v>
+        <v>-6.710208463800438E-05</v>
       </c>
       <c r="V215">
-        <v>0.9999776116061432</v>
+        <v>-2.238839385682034E-05</v>
       </c>
       <c r="W215">
-        <v>1.000672043010753</v>
+        <v>0.0006720430107527431</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16472,7 +16472,7 @@
         <v>0.5399383872587716</v>
       </c>
       <c r="K216">
-        <v>35.06233702115253</v>
+        <v>-0.1493766297884747</v>
       </c>
       <c r="L216">
         <v>-0.01106143865251708</v>
@@ -16502,13 +16502,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U216">
-        <v>0.9999105245498268</v>
+        <v>-8.947545017323755E-05</v>
       </c>
       <c r="V216">
-        <v>0.999932833314676</v>
+        <v>-6.716668532402714E-05</v>
       </c>
       <c r="W216">
-        <v>0.9993284083277367</v>
+        <v>-0.000671591672263272</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16543,7 +16543,7 @@
         <v>0.493516298281677</v>
       </c>
       <c r="K217">
-        <v>33.04391782329247</v>
+        <v>-0.1695608217670753</v>
       </c>
       <c r="L217">
         <v>-0.0107987919145563</v>
@@ -16573,13 +16573,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U217">
-        <v>0.9998993311111606</v>
+        <v>-0.0001006688888394169</v>
       </c>
       <c r="V217">
-        <v>0.9998880480050154</v>
+        <v>-0.0001119519949845937</v>
       </c>
       <c r="W217">
-        <v>0.9996639784946236</v>
+        <v>-0.0003360215053763715</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16614,7 +16614,7 @@
         <v>0.5840180258326304</v>
       </c>
       <c r="K218">
-        <v>36.86940529137252</v>
+        <v>-0.1313059470862747</v>
       </c>
       <c r="L218">
         <v>-0.01045812775301929</v>
@@ -16644,13 +16644,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U218">
-        <v>0.999910507534147</v>
+        <v>-8.949246585299164E-05</v>
       </c>
       <c r="V218">
-        <v>0.9999104283762905</v>
+        <v>-8.957162370948346E-05</v>
       </c>
       <c r="W218">
-        <v>1.000336134453782</v>
+        <v>0.0003361344537815558</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16685,7 +16685,7 @@
         <v>0.533220762493957</v>
       </c>
       <c r="K219">
-        <v>34.77782035945124</v>
+        <v>-0.1522217964054876</v>
       </c>
       <c r="L219">
         <v>-0.01017603604945118</v>
@@ -16715,13 +16715,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U219">
-        <v>0.9999104995245288</v>
+        <v>-8.950047547118256E-05</v>
       </c>
       <c r="V219">
-        <v>0.9998880254406199</v>
+        <v>-0.000111974559380057</v>
       </c>
       <c r="W219">
-        <v>0.9996639784946236</v>
+        <v>-0.0003360215053763715</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16756,7 +16756,7 @@
         <v>0.8078910696551955</v>
       </c>
       <c r="K220">
-        <v>44.68693292507264</v>
+        <v>-0.05313067074927358</v>
       </c>
       <c r="L220">
         <v>-0.009543765691051944</v>
@@ -16786,13 +16786,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U220">
-        <v>0.9999440571959227</v>
+        <v>-5.594280407728025E-05</v>
       </c>
       <c r="V220">
-        <v>0.9999552051603655</v>
+        <v>-4.479483963448772E-05</v>
       </c>
       <c r="W220">
-        <v>1.001008403361345</v>
+        <v>0.001008403361344667</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16827,7 +16827,7 @@
         <v>0.9042666160275233</v>
       </c>
       <c r="K221">
-        <v>47.48634505360953</v>
+        <v>-0.02513654946390464</v>
       </c>
       <c r="L221">
         <v>-0.008582576899854318</v>
@@ -16857,13 +16857,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U221">
-        <v>0.9999440540661505</v>
+        <v>-5.594593384949942E-05</v>
       </c>
       <c r="V221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W221">
-        <v>1.000335795836131</v>
+        <v>0.0003357958361314139</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16898,7 +16898,7 @@
         <v>1.0057145595774</v>
       </c>
       <c r="K222">
-        <v>50.14245695007079</v>
+        <v>0.001424569500707906</v>
       </c>
       <c r="L222">
         <v>-0.007329783944792731</v>
@@ -16928,13 +16928,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U222">
-        <v>0.9999552407488224</v>
+        <v>-4.475925117763957E-05</v>
       </c>
       <c r="V222">
-        <v>1.000044796846302</v>
+        <v>4.479684630198655E-05</v>
       </c>
       <c r="W222">
-        <v>1.000335683115139</v>
+        <v>0.000335683115139318</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16969,7 +16969,7 @@
         <v>1.0057145595774</v>
       </c>
       <c r="K223">
-        <v>50.14245695007079</v>
+        <v>0.001424569500707906</v>
       </c>
       <c r="L223">
         <v>-0.005953373701683813</v>
@@ -16999,13 +16999,13 @@
         <v>0.03125</v>
       </c>
       <c r="U223">
-        <v>0.9999664290590066</v>
+        <v>-3.357094099343261E-05</v>
       </c>
       <c r="V223">
-        <v>1.000067192259452</v>
+        <v>6.719225945173157E-05</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17040,7 +17040,7 @@
         <v>1.0057145595774</v>
       </c>
       <c r="K224">
-        <v>50.14245695007079</v>
+        <v>0.001424569500707906</v>
       </c>
       <c r="L224">
         <v>-0.004568049377248562</v>
@@ -17070,13 +17070,13 @@
         <v>0.046875</v>
       </c>
       <c r="U224">
-        <v>0.999955237242614</v>
+        <v>-4.476275738596325E-05</v>
       </c>
       <c r="V224">
-        <v>1.000111979574926</v>
+        <v>0.0001119795749255914</v>
       </c>
       <c r="W224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17111,7 +17111,7 @@
         <v>0.8993052641452763</v>
       </c>
       <c r="K225">
-        <v>47.34916925268361</v>
+        <v>-0.02650830747316391</v>
       </c>
       <c r="L225">
         <v>-0.003371200841429806</v>
@@ -17141,13 +17141,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U225">
-        <v>0.9999552352388202</v>
+        <v>-4.47647611797608E-05</v>
       </c>
       <c r="V225">
-        <v>1.000089573629523</v>
+        <v>8.957362952344283E-05</v>
       </c>
       <c r="W225">
-        <v>0.9996644295302013</v>
+        <v>-0.0003355704697987072</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17182,7 +17182,7 @@
         <v>0.8091837690698909</v>
       </c>
       <c r="K226">
-        <v>44.72645526141856</v>
+        <v>-0.05273544738581437</v>
       </c>
       <c r="L226">
         <v>-0.002474797577236799</v>
@@ -17212,13 +17212,13 @@
         <v>0.0625</v>
       </c>
       <c r="U226">
-        <v>0.9999440415435581</v>
+        <v>-5.595845644190689E-05</v>
       </c>
       <c r="V226">
-        <v>1.000067174205105</v>
+        <v>6.717420510526928E-05</v>
       </c>
       <c r="W226">
-        <v>0.9996643168848608</v>
+        <v>-0.000335683115139207</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17253,7 +17253,7 @@
         <v>0.8091837690698909</v>
       </c>
       <c r="K227">
-        <v>44.72645526141856</v>
+        <v>-0.05273544738581437</v>
       </c>
       <c r="L227">
         <v>-0.001808542458143936</v>
@@ -17283,13 +17283,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U227">
-        <v>0.9999328460944404</v>
+        <v>-6.715390555955825E-05</v>
       </c>
       <c r="V227">
-        <v>1.000044779795356</v>
+        <v>4.477979535622012E-05</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17324,7 +17324,7 @@
         <v>0.8091837690698908</v>
       </c>
       <c r="K228">
-        <v>44.72645526141856</v>
+        <v>-0.05273544738581437</v>
       </c>
       <c r="L228">
         <v>-0.001317599222795525</v>
@@ -17354,13 +17354,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U228">
-        <v>0.9999440346537426</v>
+        <v>-5.596534625740279E-05</v>
       </c>
       <c r="V228">
-        <v>1.000022388895108</v>
+        <v>2.238889510830511E-05</v>
       </c>
       <c r="W228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17395,7 +17395,7 @@
         <v>1.042949277327227</v>
       </c>
       <c r="K229">
-        <v>51.0511586803422</v>
+        <v>0.01051158680342201</v>
       </c>
       <c r="L229">
         <v>-0.0007148247248393423</v>
@@ -17425,13 +17425,13 @@
         <v>0.06249999999997158</v>
       </c>
       <c r="U229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V229">
-        <v>1.000089553575426</v>
+        <v>8.955357542639319E-05</v>
       </c>
       <c r="W229">
-        <v>1.000671591672263</v>
+        <v>0.000671591672263272</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17466,7 +17466,7 @@
         <v>1.042949277327227</v>
       </c>
       <c r="K230">
-        <v>51.0511586803422</v>
+        <v>0.01051158680342201</v>
       </c>
       <c r="L230">
         <v>-8.010530500181115E-05</v>
@@ -17496,13 +17496,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U230">
-        <v>1.000011193695711</v>
+        <v>1.119369571056517E-05</v>
       </c>
       <c r="V230">
-        <v>1.000044772778151</v>
+        <v>4.477277815095881E-05</v>
       </c>
       <c r="W230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17537,7 +17537,7 @@
         <v>1.172459254201134</v>
       </c>
       <c r="K231">
-        <v>53.96921723313405</v>
+        <v>0.03969217233134048</v>
       </c>
       <c r="L231">
         <v>0.0006560751735688834</v>
@@ -17567,13 +17567,13 @@
         <v>0.046875</v>
       </c>
       <c r="U231">
-        <v>1.000022387140826</v>
+        <v>2.238714082647419E-05</v>
       </c>
       <c r="V231">
-        <v>1.000111926934097</v>
+        <v>0.0001119269340972284</v>
       </c>
       <c r="W231">
-        <v>1.000335570469799</v>
+        <v>0.0003355704697987072</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17608,7 +17608,7 @@
         <v>1.445111837093492</v>
       </c>
       <c r="K232">
-        <v>59.1020752167843</v>
+        <v>0.091020752167843</v>
       </c>
       <c r="L232">
         <v>0.001648943507210598</v>
@@ -17638,13 +17638,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U232">
-        <v>1.00003357995948</v>
+        <v>3.357995947994574E-05</v>
       </c>
       <c r="V232">
-        <v>1.000179063052577</v>
+        <v>0.0001790630525773107</v>
       </c>
       <c r="W232">
-        <v>1.000670915800067</v>
+        <v>0.0006709158000670623</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17679,7 +17679,7 @@
         <v>1.445111837093492</v>
       </c>
       <c r="K233">
-        <v>59.1020752167843</v>
+        <v>0.091020752167843</v>
       </c>
       <c r="L233">
         <v>0.002728011439413482</v>
@@ -17709,13 +17709,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U233">
-        <v>1.000033578831904</v>
+        <v>3.357883190435729E-05</v>
       </c>
       <c r="V233">
-        <v>1.000156652120398</v>
+        <v>0.0001566521203983928</v>
       </c>
       <c r="W233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17750,7 +17750,7 @@
         <v>1.445111837093492</v>
       </c>
       <c r="K234">
-        <v>59.10207521678429</v>
+        <v>0.09102075216784289</v>
       </c>
       <c r="L234">
         <v>0.003780552133944051</v>
@@ -17780,13 +17780,13 @@
         <v>0.05312500000002274</v>
       </c>
       <c r="U234">
-        <v>1.000033577704404</v>
+        <v>3.357770440448604E-05</v>
       </c>
       <c r="V234">
-        <v>1.000179002953549</v>
+        <v>0.0001790029535486681</v>
       </c>
       <c r="W234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17821,7 +17821,7 @@
         <v>1.763120389818214</v>
       </c>
       <c r="K235">
-        <v>63.80903258197193</v>
+        <v>0.1380903258197193</v>
       </c>
       <c r="L235">
         <v>0.00498063491966344</v>
@@ -17851,13 +17851,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U235">
-        <v>1.000055960961633</v>
+        <v>5.596096163307251E-05</v>
       </c>
       <c r="V235">
-        <v>1.000156599552573</v>
+        <v>0.0001565995525729669</v>
       </c>
       <c r="W235">
-        <v>1.000670465973852</v>
+        <v>0.000670465973851897</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17892,7 +17892,7 @@
         <v>1.510331750767704</v>
       </c>
       <c r="K236">
-        <v>60.16462765552074</v>
+        <v>0.1016462765552074</v>
       </c>
       <c r="L236">
         <v>0.006053134442617259</v>
@@ -17922,13 +17922,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U236">
-        <v>1.000055957830179</v>
+        <v>5.595783017886546E-05</v>
       </c>
       <c r="V236">
-        <v>1.00011183930928</v>
+        <v>0.0001118393092800485</v>
       </c>
       <c r="W236">
-        <v>0.9996649916247905</v>
+        <v>-0.0003350083752095001</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17963,7 +17963,7 @@
         <v>1.812175352373525</v>
       </c>
       <c r="K237">
-        <v>64.44033978336441</v>
+        <v>0.1444033978336441</v>
       </c>
       <c r="L237">
         <v>0.007202353553252325</v>
@@ -17993,13 +17993,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U237">
-        <v>1.000089527518521</v>
+        <v>8.952751852109309E-05</v>
       </c>
       <c r="V237">
-        <v>1.000134192163178</v>
+        <v>0.000134192163177671</v>
       </c>
       <c r="W237">
-        <v>1.000670241286863</v>
+        <v>0.0006702412868633267</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18034,7 +18034,7 @@
         <v>1.971040405850183</v>
       </c>
       <c r="K238">
-        <v>66.34175698078926</v>
+        <v>0.1634175698078926</v>
       </c>
       <c r="L238">
         <v>0.008420684085794621</v>
@@ -18064,13 +18064,13 @@
         <v>0.1218750000000171</v>
       </c>
       <c r="U238">
-        <v>1.000111899380077</v>
+        <v>0.0001118993800772738</v>
       </c>
       <c r="V238">
-        <v>1.000156536517733</v>
+        <v>0.0001565365177333966</v>
       </c>
       <c r="W238">
-        <v>1.000334896182183</v>
+        <v>0.0003348961821834084</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18105,7 +18105,7 @@
         <v>1.688653077925763</v>
       </c>
       <c r="K239">
-        <v>62.80665556258831</v>
+        <v>0.1280665556258831</v>
       </c>
       <c r="L239">
         <v>0.009450183520090742</v>
@@ -18135,13 +18135,13 @@
         <v>0.1343749999999773</v>
       </c>
       <c r="U239">
-        <v>1.000123075546008</v>
+        <v>0.0001230755460079891</v>
       </c>
       <c r="V239">
-        <v>1.000134153158189</v>
+        <v>0.0001341531581890987</v>
       </c>
       <c r="W239">
-        <v>0.9996652159357216</v>
+        <v>-0.0003347840642784483</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18176,7 +18176,7 @@
         <v>1.688653077925763</v>
       </c>
       <c r="K240">
-        <v>62.80665556258831</v>
+        <v>0.1280665556258831</v>
       </c>
       <c r="L240">
         <v>0.01026514109168547</v>
@@ -18206,13 +18206,13 @@
         <v>0.1343750000000057</v>
       </c>
       <c r="U240">
-        <v>1.000123060400282</v>
+        <v>0.0001230604002817604</v>
       </c>
       <c r="V240">
-        <v>1.000156491024122</v>
+        <v>0.000156491024121852</v>
       </c>
       <c r="W240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18247,7 +18247,7 @@
         <v>1.688653077925763</v>
       </c>
       <c r="K241">
-        <v>62.8066555625883</v>
+        <v>0.1280665556258831</v>
       </c>
       <c r="L241">
         <v>0.01086070471457731</v>
@@ -18277,13 +18277,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U241">
-        <v>1.000123045258283</v>
+        <v>0.0001230452582832164</v>
       </c>
       <c r="V241">
-        <v>1.000178818901158</v>
+        <v>0.0001788189011577845</v>
       </c>
       <c r="W241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18318,7 +18318,7 @@
         <v>1.688653077925762</v>
       </c>
       <c r="K242">
-        <v>62.8066555625883</v>
+        <v>0.128066555625883</v>
       </c>
       <c r="L242">
         <v>0.0112457682656978</v>
@@ -18348,13 +18348,13 @@
         <v>0.125</v>
       </c>
       <c r="U242">
-        <v>1.000111845563646</v>
+        <v>0.0001118455636459625</v>
       </c>
       <c r="V242">
-        <v>1.000178786930675</v>
+        <v>0.0001787869306753009</v>
       </c>
       <c r="W242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18389,7 +18389,7 @@
         <v>1.436056836380106</v>
       </c>
       <c r="K243">
-        <v>58.95005465118932</v>
+        <v>0.08950054651189321</v>
       </c>
       <c r="L243">
         <v>0.01131557874204768</v>
@@ -18419,13 +18419,13 @@
         <v>0.1031250000000341</v>
       </c>
       <c r="U243">
-        <v>1.000089466444491</v>
+        <v>8.946644449148167E-05</v>
       </c>
       <c r="V243">
-        <v>1.00015641060017</v>
+        <v>0.0001564106001699095</v>
       </c>
       <c r="W243">
-        <v>0.9996651038178164</v>
+        <v>-0.0003348961821836305</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18460,7 +18460,7 @@
         <v>1.593514151947244</v>
       </c>
       <c r="K244">
-        <v>61.4422771030886</v>
+        <v>0.1144227710308861</v>
       </c>
       <c r="L244">
         <v>0.01127090787658274</v>
@@ -18490,13 +18490,13 @@
         <v>0.09062500000001705</v>
       </c>
       <c r="U244">
-        <v>1.000111823051204</v>
+        <v>0.0001118230512036078</v>
       </c>
       <c r="V244">
-        <v>1.000134045262617</v>
+        <v>0.0001340452626170663</v>
       </c>
       <c r="W244">
-        <v>1.000335008375209</v>
+        <v>0.0003350083752093891</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Telenor 15.12.2020.xlsx
+++ b/data_clean/Telenor 15.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1169,13 +1172,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W244"/>
+  <dimension ref="A1:X244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1245,10 +1248,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>150.35</v>
@@ -1305,7 +1311,7 @@
         <v>150.35</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>150.35</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1316,10 +1322,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>150.25</v>
@@ -1376,7 +1385,7 @@
         <v>150.3</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>150.3</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1387,10 +1396,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>150.45</v>
@@ -1447,21 +1459,24 @@
         <v>150.35</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>150.35</v>
       </c>
       <c r="U4">
-        <v>0.0003326679973385538</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0.0003326679973385538</v>
       </c>
       <c r="W4">
+        <v>0.0003326679973385538</v>
+      </c>
+      <c r="X4">
         <v>0.001331114808652112</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>150.4</v>
@@ -1518,21 +1533,24 @@
         <v>150.3625</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>150.3666666666666</v>
       </c>
       <c r="U5">
-        <v>8.313934153658664E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>8.313934153658664E-05</v>
       </c>
       <c r="W5">
+        <v>8.313934153658664E-05</v>
+      </c>
+      <c r="X5">
         <v>-0.0003323363243601385</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>150.35</v>
@@ -1589,21 +1607,24 @@
         <v>150.36</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>150.4</v>
       </c>
       <c r="U6">
-        <v>-1.662648599232153E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>-1.662648599232153E-05</v>
       </c>
       <c r="W6">
+        <v>-1.662648599232153E-05</v>
+      </c>
+      <c r="X6">
         <v>-0.0003324468085107446</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>150.15</v>
@@ -1660,21 +1681,24 @@
         <v>150.325</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>150.3</v>
       </c>
       <c r="U7">
-        <v>-0.0002327746741151993</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>-0.0002327746741151993</v>
       </c>
       <c r="W7">
+        <v>-0.0002327746741151993</v>
+      </c>
+      <c r="X7">
         <v>-0.001330229464582611</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>150.1</v>
@@ -1731,21 +1755,24 @@
         <v>150.2928571428571</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>150.2</v>
       </c>
       <c r="U8">
-        <v>-0.0002138224323490201</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>-0.0002138224323490201</v>
       </c>
       <c r="W8">
+        <v>-0.0002138224323490201</v>
+      </c>
+      <c r="X8">
         <v>-0.0003330003330004327</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>150.35</v>
@@ -1802,21 +1829,24 @@
         <v>150.3</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>150.2</v>
       </c>
       <c r="U9">
-        <v>4.752625825776846E-05</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>4.752625825776846E-05</v>
       </c>
       <c r="W9">
+        <v>4.752625825776846E-05</v>
+      </c>
+      <c r="X9">
         <v>0.001665556295802784</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>150.35</v>
@@ -1873,21 +1903,24 @@
         <v>150.3055555555555</v>
       </c>
       <c r="T10">
+        <v>150.2666666666667</v>
+      </c>
+      <c r="U10">
         <v>-0.005555555555531555</v>
-      </c>
-      <c r="U10">
-        <v>3.696311081524684E-05</v>
       </c>
       <c r="V10">
         <v>3.696311081524684E-05</v>
       </c>
       <c r="W10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>3.696311081524684E-05</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>150.35</v>
@@ -1944,21 +1977,24 @@
         <v>150.31</v>
       </c>
       <c r="T11">
+        <v>150.35</v>
+      </c>
+      <c r="U11">
         <v>0.002499999999997726</v>
-      </c>
-      <c r="U11">
-        <v>2.956939567555494E-05</v>
       </c>
       <c r="V11">
         <v>2.956939567555494E-05</v>
       </c>
       <c r="W11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>2.956939567555494E-05</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>150.3</v>
@@ -2015,21 +2051,24 @@
         <v>150.3090909090909</v>
       </c>
       <c r="T12">
+        <v>150.3333333333333</v>
+      </c>
+      <c r="U12">
         <v>-0.01534090909092356</v>
-      </c>
-      <c r="U12">
-        <v>-6.048106640177409E-06</v>
       </c>
       <c r="V12">
         <v>-6.048106640177409E-06</v>
       </c>
       <c r="W12">
+        <v>-6.048106640177409E-06</v>
+      </c>
+      <c r="X12">
         <v>-0.0003325573661455694</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>150.35</v>
@@ -2086,21 +2125,24 @@
         <v>150.3125</v>
       </c>
       <c r="T13">
+        <v>150.3333333333333</v>
+      </c>
+      <c r="U13">
         <v>-0.02500000000000568</v>
-      </c>
-      <c r="U13">
-        <v>2.268053707510376E-05</v>
       </c>
       <c r="V13">
         <v>2.268053707510376E-05</v>
       </c>
       <c r="W13">
+        <v>2.268053707510376E-05</v>
+      </c>
+      <c r="X13">
         <v>0.0003326679973385538</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>150.35</v>
@@ -2157,21 +2199,24 @@
         <v>150.3153846153846</v>
       </c>
       <c r="T14">
+        <v>150.3333333333333</v>
+      </c>
+      <c r="U14">
         <v>-0.02788461538460751</v>
-      </c>
-      <c r="U14">
-        <v>1.919078842149702E-05</v>
       </c>
       <c r="V14">
         <v>1.919078842149702E-05</v>
       </c>
       <c r="W14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>1.919078842149702E-05</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>150.25</v>
@@ -2228,21 +2273,24 @@
         <v>150.3107142857143</v>
       </c>
       <c r="T15">
+        <v>150.3166666666667</v>
+      </c>
+      <c r="U15">
         <v>-0.01071428571430033</v>
-      </c>
-      <c r="U15">
-        <v>-3.107020403980698E-05</v>
       </c>
       <c r="V15">
         <v>-3.107020403980698E-05</v>
       </c>
       <c r="W15">
+        <v>-3.107020403980698E-05</v>
+      </c>
+      <c r="X15">
         <v>-0.0006651147322912498</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>150.25</v>
@@ -2299,21 +2347,24 @@
         <v>150.3066666666667</v>
       </c>
       <c r="T16">
+        <v>150.2833333333333</v>
+      </c>
+      <c r="U16">
         <v>0.01208333333332234</v>
-      </c>
-      <c r="U16">
-        <v>-2.692834683704071E-05</v>
       </c>
       <c r="V16">
         <v>-2.692834683704071E-05</v>
       </c>
       <c r="W16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+        <v>-2.692834683704071E-05</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>150.15</v>
@@ -2370,21 +2421,24 @@
         <v>150.2933333333334</v>
       </c>
       <c r="T17">
+        <v>150.2166666666667</v>
+      </c>
+      <c r="U17">
         <v>-0.003125000000011369</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-6.514459327600086E-05</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-8.870753126932751E-05</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-0.0006655574043260559</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>150.15</v>
@@ -2441,21 +2495,24 @@
         <v>150.2866666666667</v>
       </c>
       <c r="T18">
+        <v>150.1833333333333</v>
+      </c>
+      <c r="U18">
         <v>-0.015625</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-5.748426826812647E-05</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-4.435770049671106E-05</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>150.1</v>
@@ -2512,21 +2569,24 @@
         <v>150.2633333333333</v>
       </c>
       <c r="T19">
+        <v>150.1333333333333</v>
+      </c>
+      <c r="U19">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-6.958306696069894E-05</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-0.0001552588386640741</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-0.0003330003330004327</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>150</v>
@@ -2583,21 +2643,24 @@
         <v>150.2366666666667</v>
       </c>
       <c r="T20">
+        <v>150.0833333333333</v>
+      </c>
+      <c r="U20">
         <v>-0.046875</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-9.728572818357151E-05</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-0.0001774662259587112</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-0.0006662225183210468</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>150</v>
@@ -2654,21 +2717,24 @@
         <v>150.2133333333333</v>
       </c>
       <c r="T21">
+        <v>150.0333333333333</v>
+      </c>
+      <c r="U21">
         <v>-0.06562500000001137</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-8.756567425571848E-05</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-0.0001553105100843277</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>150</v>
@@ -2725,21 +2791,24 @@
         <v>150.2033333333333</v>
       </c>
       <c r="T22">
+        <v>150</v>
+      </c>
+      <c r="U22">
         <v>-0.08749999999997726</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-7.923302432455426E-05</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-6.657198650783513E-05</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>149.85</v>
@@ -2796,21 +2865,24 @@
         <v>150.1866666666666</v>
       </c>
       <c r="T23">
+        <v>149.95</v>
+      </c>
+      <c r="U23">
         <v>-0.1187500000000057</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-0.000117418239446776</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-0.0001109606977210964</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-0.001000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>149.9</v>
@@ -2867,21 +2939,24 @@
         <v>150.1566666666667</v>
       </c>
       <c r="T24">
+        <v>149.9166666666667</v>
+      </c>
+      <c r="U24">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-9.274906247802583E-05</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-0.0001997514204543638</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.0003336670003337705</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>149.95</v>
@@ -2938,21 +3013,24 @@
         <v>150.13</v>
       </c>
       <c r="T25">
+        <v>149.9</v>
+      </c>
+      <c r="U25">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-7.115806739521613E-05</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-0.0001775922924945883</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.0003335557038024461</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>149.9</v>
@@ -3009,21 +3087,24 @@
         <v>150.1</v>
       </c>
       <c r="T26">
+        <v>149.9166666666667</v>
+      </c>
+      <c r="U26">
         <v>-0.1531249999999886</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-7.878602935051937E-05</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-0.0001998268167587858</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-0.0003334444814937498</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>150.05</v>
@@ -3080,21 +3161,24 @@
         <v>150.0833333333333</v>
       </c>
       <c r="T27">
+        <v>149.9666666666667</v>
+      </c>
+      <c r="U27">
         <v>-0.140625</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-3.431687898736158E-05</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-0.0001110370863867116</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.00100066711140756</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>150.1</v>
@@ -3151,21 +3235,24 @@
         <v>150.0666666666667</v>
       </c>
       <c r="T28">
+        <v>150.0166666666667</v>
+      </c>
+      <c r="U28">
         <v>-0.1156249999999943</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-1.944500170980579E-05</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-0.0001110494169906939</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.0003332222592467016</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>150.2</v>
@@ -3222,21 +3309,24 @@
         <v>150.0566666666667</v>
       </c>
       <c r="T29">
+        <v>150.1166666666667</v>
+      </c>
+      <c r="U29">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>5.725207648854536E-06</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-6.66370501998248E-05</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.0006662225183211579</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>150.15</v>
@@ -3293,21 +3383,24 @@
         <v>150.05</v>
       </c>
       <c r="T30">
+        <v>150.15</v>
+      </c>
+      <c r="U30">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-6.150386797632024E-06</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-4.442766066148351E-05</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-0.0003328894806923222</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>150.25</v>
@@ -3364,21 +3457,24 @@
         <v>150.05</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>150.2</v>
       </c>
       <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
         <v>1.6455802775317E-05</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
       <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
         <v>0.0006660006660006434</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>150.3</v>
@@ -3435,21 +3531,24 @@
         <v>150.06</v>
       </c>
       <c r="T32">
+        <v>150.2333333333333</v>
+      </c>
+      <c r="U32">
         <v>0.046875</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-1.109791692122108E-05</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>6.664445184934031E-05</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.0003327787021631945</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>150.25</v>
@@ -3506,21 +3605,24 @@
         <v>150.0666666666667</v>
       </c>
       <c r="T33">
+        <v>150.2666666666667</v>
+      </c>
+      <c r="U33">
         <v>0.07812499999997158</v>
       </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
       <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
         <v>4.442667377491105E-05</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-0.0003326679973387758</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>150.25</v>
@@ -3577,21 +3679,24 @@
         <v>150.0766666666667</v>
       </c>
       <c r="T34">
+        <v>150.2666666666667</v>
+      </c>
+      <c r="U34">
         <v>0.1156250000000227</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-4.439216034446414E-05</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>6.663705020004684E-05</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>150.15</v>
@@ -3648,21 +3753,24 @@
         <v>150.0866666666667</v>
       </c>
       <c r="T35">
+        <v>150.2166666666667</v>
+      </c>
+      <c r="U35">
         <v>0.1249999999999716</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-5.549266386961627E-05</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>6.66326099991732E-05</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.0006655574043260559</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>150.15</v>
@@ -3719,21 +3827,24 @@
         <v>150.0966666666667</v>
       </c>
       <c r="T36">
+        <v>150.1833333333333</v>
+      </c>
+      <c r="U36">
         <v>0.1218750000000171</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-4.439659478128188E-05</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>6.662817039027047E-05</v>
       </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>150.3</v>
@@ -3790,21 +3901,24 @@
         <v>150.1166666666667</v>
       </c>
       <c r="T37">
+        <v>150.2</v>
+      </c>
+      <c r="U37">
         <v>0.1156249999999943</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>3.329892444470239E-05</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.0001332474627462332</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.0009990009990010762</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>150.3</v>
@@ -3861,21 +3975,24 @@
         <v>150.1466666666667</v>
       </c>
       <c r="T38">
+        <v>150.25</v>
+      </c>
+      <c r="U38">
         <v>0.1156249999999943</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>4.439708755099581E-05</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.0001998445653381697</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>150.5</v>
@@ -3932,21 +4049,24 @@
         <v>150.1866666666667</v>
       </c>
       <c r="T39">
+        <v>150.3666666666667</v>
+      </c>
+      <c r="U39">
         <v>0.1062499999999886</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>3.329633740301041E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.0002664061806232354</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.001330671989354659</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>150.5</v>
@@ -4003,21 +4123,24 @@
         <v>150.2233333333334</v>
       </c>
       <c r="T40">
+        <v>150.4333333333333</v>
+      </c>
+      <c r="U40">
         <v>0.09375</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>3.329522879358393E-05</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.000244140625000222</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>150.4</v>
@@ -4074,21 +4197,24 @@
         <v>150.2566666666667</v>
       </c>
       <c r="T41">
+        <v>150.4666666666667</v>
+      </c>
+      <c r="U41">
         <v>0.08437500000002274</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>1.109804008581072E-05</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.0002218918499121703</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>-0.0006644518272425071</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>150.3</v>
@@ -4145,21 +4271,24 @@
         <v>150.2733333333333</v>
       </c>
       <c r="T42">
+        <v>150.4</v>
+      </c>
+      <c r="U42">
         <v>0.06562500000001137</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0.0001109213124210751</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>-0.0006648936170212671</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>150.25</v>
@@ -4216,21 +4345,24 @@
         <v>150.2833333333333</v>
       </c>
       <c r="T43">
+        <v>150.3166666666667</v>
+      </c>
+      <c r="U43">
         <v>0.06562500000001137</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>-2.219583384199808E-05</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>6.654540614881022E-05</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>-0.0003326679973387758</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>150.4</v>
@@ -4287,21 +4419,24 @@
         <v>150.2966666666667</v>
       </c>
       <c r="T44">
+        <v>150.3166666666667</v>
+      </c>
+      <c r="U44">
         <v>0.078125</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>1.109816325373103E-05</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>8.872130420334301E-05</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.0009983361064891394</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>150.35</v>
@@ -4358,21 +4493,24 @@
         <v>150.31</v>
       </c>
       <c r="T45">
+        <v>150.3333333333333</v>
+      </c>
+      <c r="U45">
         <v>0.07499999999998863</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>2.219608017228758E-05</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>8.871343343153093E-05</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>-0.0003324468085107446</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>150.3</v>
@@ -4429,21 +4567,24 @@
         <v>150.3133333333334</v>
       </c>
       <c r="T46">
+        <v>150.35</v>
+      </c>
+      <c r="U46">
         <v>0.06562499999998295</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>1.109779375885189E-05</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>2.217639101420588E-05</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>-0.0003325573661455694</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>150.4</v>
@@ -4500,21 +4641,24 @@
         <v>150.32</v>
       </c>
       <c r="T47">
+        <v>150.35</v>
+      </c>
+      <c r="U47">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>5.548835299462596E-05</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>4.435179846540294E-05</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.0006653359946773296</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>150.35</v>
@@ -4571,21 +4715,24 @@
         <v>150.3266666666667</v>
       </c>
       <c r="T48">
+        <v>150.35</v>
+      </c>
+      <c r="U48">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>4.438821936680881E-05</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>4.434983147061367E-05</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.0003324468085107446</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>150.4</v>
@@ -4642,21 +4789,24 @@
         <v>150.3366666666667</v>
       </c>
       <c r="T49">
+        <v>150.3833333333333</v>
+      </c>
+      <c r="U49">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>6.657937370979639E-05</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>6.652179697530514E-05</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.0003325573661456804</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>150.4</v>
@@ -4713,21 +4863,24 @@
         <v>150.3533333333333</v>
       </c>
       <c r="T50">
+        <v>150.3833333333333</v>
+      </c>
+      <c r="U50">
         <v>0.01562500000002842</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>8.876658825629491E-05</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>0.000110862286867075</v>
       </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>150.4</v>
@@ -4784,21 +4937,24 @@
         <v>150.37</v>
       </c>
       <c r="T51">
+        <v>150.4</v>
+      </c>
+      <c r="U51">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>8.875870944824449E-05</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>0.0001108499977831023</v>
       </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>150.4</v>
@@ -4855,21 +5011,24 @@
         <v>150.3766666666667</v>
       </c>
       <c r="T52">
+        <v>150.4</v>
+      </c>
+      <c r="U52">
         <v>0.003124999999982947</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>8.875083203907508E-05</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>4.433508456913593E-05</v>
       </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>150.4</v>
@@ -4926,21 +5085,24 @@
         <v>150.3833333333333</v>
       </c>
       <c r="T53">
+        <v>150.4</v>
+      </c>
+      <c r="U53">
         <v>0.003125000000011369</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>0.0001220215645383327</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>4.43331190564944E-05</v>
       </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>150.4</v>
@@ -4997,21 +5159,24 @@
         <v>150.3766666666667</v>
       </c>
       <c r="T54">
+        <v>150.4</v>
+      </c>
+      <c r="U54">
         <v>0.009375000000005684</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>0.0001109151609934855</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>-4.43311537182689E-05</v>
       </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>150.45</v>
@@ -5068,21 +5233,24 @@
         <v>150.3733333333333</v>
       </c>
       <c r="T55">
+        <v>150.4166666666667</v>
+      </c>
+      <c r="U55">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>0.0001109028601846695</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>-2.21665595282472E-05</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.0003324468085106336</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>150.45</v>
@@ -5139,21 +5307,24 @@
         <v>150.3766666666667</v>
       </c>
       <c r="T56">
+        <v>150.4333333333333</v>
+      </c>
+      <c r="U56">
         <v>0.03437500000003979</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>0.000121979618314727</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>2.21670508955274E-05</v>
       </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>150.5</v>
@@ -5210,21 +5381,24 @@
         <v>150.39</v>
       </c>
       <c r="T57">
+        <v>150.4666666666667</v>
+      </c>
+      <c r="U57">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>9.978933362919662E-05</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>8.866623811321084E-05</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0.0003323363243603605</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>150.35</v>
@@ -5281,21 +5455,24 @@
         <v>150.3966666666666</v>
       </c>
       <c r="T58">
+        <v>150.4333333333333</v>
+      </c>
+      <c r="U58">
         <v>0.03125</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>5.543298706189859E-05</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>4.432918855412638E-05</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>-0.0009966777408638716</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>150.35</v>
@@ -5352,21 +5529,24 @@
         <v>150.3933333333333</v>
       </c>
       <c r="T59">
+        <v>150.4</v>
+      </c>
+      <c r="U59">
         <v>0.01874999999998295</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>3.325794864972309E-05</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>-2.21636117819779E-05</v>
       </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>150.35</v>
@@ -5423,21 +5603,24 @@
         <v>150.3933333333333</v>
       </c>
       <c r="T60">
+        <v>150.35</v>
+      </c>
+      <c r="U60">
         <v>0.015625</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>4.434245679352244E-05</v>
       </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
       <c r="W60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>150.35</v>
@@ -5494,21 +5677,24 @@
         <v>150.3966666666666</v>
       </c>
       <c r="T61">
+        <v>150.35</v>
+      </c>
+      <c r="U61">
         <v>0.009374999999977263</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>2.217024531403489E-05</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>2.216410301847382E-05</v>
       </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>150.25</v>
@@ -5565,21 +5751,24 @@
         <v>150.3866666666667</v>
       </c>
       <c r="T62">
+        <v>150.3166666666666</v>
+      </c>
+      <c r="U62">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-1.108487690226756E-05</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>-6.649083534626676E-05</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>-0.0006651147322912498</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>150.25</v>
@@ -5636,21 +5825,24 @@
         <v>150.38</v>
       </c>
       <c r="T63">
+        <v>150.2833333333333</v>
+      </c>
+      <c r="U63">
         <v>-0.02187500000002274</v>
       </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
       <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
         <v>-4.43301711146038E-05</v>
       </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>150.25</v>
@@ -5707,21 +5899,24 @@
         <v>150.37</v>
       </c>
       <c r="T64">
+        <v>150.25</v>
+      </c>
+      <c r="U64">
         <v>-0.04062500000000568</v>
       </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
       <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
         <v>-6.649820454840416E-05</v>
       </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>150.2</v>
@@ -5778,21 +5973,24 @@
         <v>150.3566666666667</v>
       </c>
       <c r="T65">
+        <v>150.2333333333333</v>
+      </c>
+      <c r="U65">
         <v>-0.06562500000001137</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>1.108499977808819E-05</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>-8.86701691384939E-05</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>-0.0003327787021630835</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>150</v>
@@ -5849,21 +6047,24 @@
         <v>150.33</v>
       </c>
       <c r="T66">
+        <v>150.15</v>
+      </c>
+      <c r="U66">
         <v>-0.08437499999999432</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>-3.325463070724677E-05</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>-0.0001773560644690031</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>-0.001331557922769511</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>150</v>
@@ -5920,21 +6121,24 @@
         <v>150.3033333333333</v>
       </c>
       <c r="T67">
+        <v>150.0666666666666</v>
+      </c>
+      <c r="U67">
         <v>-0.1031249999999773</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>-6.651147322911388E-05</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>-0.0001773875252223389</v>
       </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>150.05</v>
@@ -5991,21 +6195,24 @@
         <v>150.28</v>
       </c>
       <c r="T68">
+        <v>150.0166666666667</v>
+      </c>
+      <c r="U68">
         <v>-0.1187500000000057</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>-5.542991441631617E-05</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>-0.0001552416224965825</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0.0003333333333335187</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>150</v>
@@ -6062,21 +6269,24 @@
         <v>150.2533333333333</v>
       </c>
       <c r="T69">
+        <v>150.0166666666667</v>
+      </c>
+      <c r="U69">
         <v>-0.1374999999999886</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>-0.0001108659741237972</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>-0.0001774465442287987</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>-0.0003332222592470346</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>150.05</v>
@@ -6133,21 +6343,24 @@
         <v>150.2266666666667</v>
       </c>
       <c r="T70">
+        <v>150.0333333333333</v>
+      </c>
+      <c r="U70">
         <v>-0.140625</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>-9.979044007579763E-05</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>-0.000177478037092782</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0.0003333333333335187</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>150.1</v>
@@ -6204,21 +6417,24 @@
         <v>150.2033333333333</v>
       </c>
       <c r="T71">
+        <v>150.05</v>
+      </c>
+      <c r="U71">
         <v>-0.1374999999999886</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>-6.653359946784398E-05</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>-0.0001553208484954549</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>0.0003332222592467016</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>150.05</v>
@@ -6275,21 +6491,24 @@
         <v>150.1733333333333</v>
       </c>
       <c r="T72">
+        <v>150.0666666666667</v>
+      </c>
+      <c r="U72">
         <v>-0.1375000000000171</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>-5.544835540172155E-05</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>-0.0001997292558976183</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>-0.0003331112591604679</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>150.05</v>
@@ -6346,21 +6565,24 @@
         <v>150.1533333333333</v>
       </c>
       <c r="T73">
+        <v>150.0666666666667</v>
+      </c>
+      <c r="U73">
         <v>-0.1281250000000114</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>-4.436114407391223E-05</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>-0.0001331794370951211</v>
       </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>150.05</v>
@@ -6417,21 +6639,24 @@
         <v>150.1333333333333</v>
       </c>
       <c r="T74">
+        <v>150.05</v>
+      </c>
+      <c r="U74">
         <v>-0.1031250000000341</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>-7.763544612648943E-05</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>-0.0001331971762197348</v>
       </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>150.1</v>
@@ -6488,21 +6713,24 @@
         <v>150.1166666666667</v>
       </c>
       <c r="T75">
+        <v>150.0666666666667</v>
+      </c>
+      <c r="U75">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>-5.545819561225684E-05</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>-0.000111012433392399</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>0.0003332222592467016</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>150.05</v>
@@ -6559,21 +6787,24 @@
         <v>150.0966666666667</v>
       </c>
       <c r="T76">
+        <v>150.0666666666667</v>
+      </c>
+      <c r="U76">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>-5.546127139433032E-05</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>-0.0001332297102252245</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>-0.0003331112591604679</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>150.1</v>
@@ -6630,21 +6861,24 @@
         <v>150.0866666666667</v>
       </c>
       <c r="T77">
+        <v>150.0833333333333</v>
+      </c>
+      <c r="U77">
         <v>-0.02812499999998863</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-6.655721702064632E-05</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>-6.662373137322763E-05</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>0.0003332222592467016</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>150.05</v>
@@ -6701,21 +6935,24 @@
         <v>150.0733333333333</v>
       </c>
       <c r="T78">
+        <v>150.0666666666667</v>
+      </c>
+      <c r="U78">
         <v>-0.01562499999997158</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>-6.65616471789976E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>-8.883756052069369E-05</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>-0.0003331112591604679</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>150.1</v>
@@ -6772,21 +7009,24 @@
         <v>150.0633333333334</v>
       </c>
       <c r="T79">
+        <v>150.0833333333333</v>
+      </c>
+      <c r="U79">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>-6.656607792665525E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>-6.663409000018383E-05</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>0.0003332222592467016</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>150</v>
@@ -6843,21 +7083,24 @@
         <v>150.05</v>
       </c>
       <c r="T80">
+        <v>150.05</v>
+      </c>
+      <c r="U80">
         <v>0.003124999999982947</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>-8.876067901930629E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>-8.885137386427377E-05</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>-0.0006662225183210468</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>150</v>
@@ -6914,21 +7157,24 @@
         <v>150.05</v>
       </c>
       <c r="T81">
+        <v>150.0333333333333</v>
+      </c>
+      <c r="U81">
         <v>0.009374999999977263</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>-8.876855817663287E-05</v>
       </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
       <c r="W81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="X81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>150</v>
@@ -6985,21 +7231,24 @@
         <v>150.05</v>
       </c>
       <c r="T82">
+        <v>150</v>
+      </c>
+      <c r="U82">
         <v>0.003124999999982947</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>-8.877643873306251E-05</v>
       </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
       <c r="W82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="X82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>150.05</v>
@@ -7056,21 +7305,24 @@
         <v>150.05</v>
       </c>
       <c r="T83">
+        <v>150.0166666666667</v>
+      </c>
+      <c r="U83">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>-7.768628060300653E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.0003333333333335187</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>150.1</v>
@@ -7127,21 +7379,24 @@
         <v>150.0566666666667</v>
       </c>
       <c r="T84">
+        <v>150.05</v>
+      </c>
+      <c r="U84">
         <v>-0.003124999999982947</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>-6.659341391113127E-05</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>4.442963456630089E-05</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>0.0003332222592467016</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>150.1</v>
@@ -7198,21 +7453,24 @@
         <v>150.06</v>
       </c>
       <c r="T85">
+        <v>150.0833333333333</v>
+      </c>
+      <c r="U85">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>-7.76974903712313E-05</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>2.221383033074176E-05</v>
       </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="X85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>150.15</v>
@@ -7269,21 +7527,24 @@
         <v>150.0633333333333</v>
       </c>
       <c r="T86">
+        <v>150.1166666666667</v>
+      </c>
+      <c r="U86">
         <v>-0.003124999999982947</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>-6.660302377736738E-05</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>2.221333688745553E-05</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.00033311125916069</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>150.1</v>
@@ -7340,21 +7601,24 @@
         <v>150.0666666666667</v>
       </c>
       <c r="T87">
+        <v>150.1166666666667</v>
+      </c>
+      <c r="U87">
         <v>-0.003125000000011369</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>-8.880994671411901E-05</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>2.221284346615171E-05</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>-0.0003330003330004327</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>150.2</v>
@@ -7411,21 +7675,24 @@
         <v>150.0766666666667</v>
       </c>
       <c r="T88">
+        <v>150.15</v>
+      </c>
+      <c r="U88">
         <v>0.01250000000001705</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>-3.33066879829591E-05</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>6.663705020004684E-05</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>0.0006662225183211579</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>150.15</v>
@@ -7482,21 +7749,24 @@
         <v>150.0833333333333</v>
       </c>
       <c r="T89">
+        <v>150.15</v>
+      </c>
+      <c r="U89">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>-4.441039647373746E-05</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>4.442173999952281E-05</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>-0.0003328894806923222</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>150.15</v>
@@ -7553,21 +7823,24 @@
         <v>150.0866666666667</v>
       </c>
       <c r="T90">
+        <v>150.1666666666667</v>
+      </c>
+      <c r="U90">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>-4.44123688446707E-05</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>2.220988339818319E-05</v>
       </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>150.15</v>
@@ -7624,21 +7897,24 @@
         <v>150.0933333333333</v>
       </c>
       <c r="T91">
+        <v>150.15</v>
+      </c>
+      <c r="U91">
         <v>0.04687500000002842</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>-4.441434139079714E-05</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>4.441878025995827E-05</v>
       </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>150.1</v>
@@ -7695,21 +7971,24 @@
         <v>150.0933333333333</v>
       </c>
       <c r="T92">
+        <v>150.1333333333333</v>
+      </c>
+      <c r="U92">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>-3.331223558411534E-05</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>-0.0003330003330004327</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>150.1</v>
@@ -7766,21 +8045,24 @@
         <v>150.0966666666667</v>
       </c>
       <c r="T93">
+        <v>150.1166666666667</v>
+      </c>
+      <c r="U93">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>-3.331334532608032E-05</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>2.220840366007337E-05</v>
       </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="X93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>150.1</v>
@@ -7837,21 +8119,24 @@
         <v>150.0966666666667</v>
       </c>
       <c r="T94">
+        <v>150.1</v>
+      </c>
+      <c r="U94">
         <v>0.03437499999998295</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>-3.331445514220821E-05</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="X94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>149.9</v>
@@ -7908,21 +8193,24 @@
         <v>150.09</v>
       </c>
       <c r="T95">
+        <v>150.0333333333333</v>
+      </c>
+      <c r="U95">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>-6.663113006366572E-05</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>-4.441582091541108E-05</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>-0.001332445036642205</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>149.9</v>
@@ -7979,21 +8267,24 @@
         <v>150.0833333333333</v>
       </c>
       <c r="T96">
+        <v>149.9666666666667</v>
+      </c>
+      <c r="U96">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>-2.221185668926928E-05</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>-4.441779376818111E-05</v>
       </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="X96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>149.9</v>
@@ -8050,21 +8341,24 @@
         <v>150.0766666666667</v>
       </c>
       <c r="T97">
+        <v>149.9</v>
+      </c>
+      <c r="U97">
         <v>-0.03437499999995453</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>-2.221235006638622E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>-4.441976679636639E-05</v>
       </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="X97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>149.9</v>
@@ -8121,21 +8415,24 @@
         <v>150.0666666666667</v>
       </c>
       <c r="T98">
+        <v>149.9</v>
+      </c>
+      <c r="U98">
         <v>-0.05937499999998863</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>-3.331926519933859E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>-6.663260999928422E-05</v>
       </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="X98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>149.9</v>
@@ -8192,21 +8489,24 @@
         <v>150.0533333333333</v>
       </c>
       <c r="T99">
+        <v>149.9</v>
+      </c>
+      <c r="U99">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>-2.221358360654513E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>-8.884940026643307E-05</v>
       </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23">
+      <c r="X99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>149.9</v>
@@ -8263,21 +8563,24 @@
         <v>150.04</v>
       </c>
       <c r="T100">
+        <v>149.9</v>
+      </c>
+      <c r="U100">
         <v>-0.09375</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>-3.332111559073425E-05</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>-8.885729518404162E-05</v>
       </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="X100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>149.85</v>
@@ -8334,21 +8637,24 @@
         <v>150.02</v>
       </c>
       <c r="T101">
+        <v>149.8833333333334</v>
+      </c>
+      <c r="U101">
         <v>-0.109375</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>-5.553704320793162E-05</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>-0.0001332977872565699</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.0003335557038025572</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>149.85</v>
@@ -8405,21 +8711,24 @@
         <v>150.0033333333333</v>
       </c>
       <c r="T102">
+        <v>149.8666666666667</v>
+      </c>
+      <c r="U102">
         <v>-0.1218750000000171</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>-4.443210219384763E-05</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>-0.0001110962982716623</v>
       </c>
-      <c r="W102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23">
+      <c r="X102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>149.9</v>
@@ -8476,21 +8785,24 @@
         <v>149.9833333333333</v>
       </c>
       <c r="T103">
+        <v>149.8666666666667</v>
+      </c>
+      <c r="U103">
         <v>-0.109375</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>-3.332555736990095E-05</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>-0.0001333303704360578</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>0.0003336670003337705</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>149.9</v>
@@ -8547,21 +8859,24 @@
         <v>149.9666666666667</v>
       </c>
       <c r="T104">
+        <v>149.8833333333333</v>
+      </c>
+      <c r="U104">
         <v>-0.09062499999998863</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>-3.332666799971129E-05</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>-0.0001111234581618881</v>
       </c>
-      <c r="W104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23">
+      <c r="X104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>149.9</v>
@@ -8618,21 +8933,24 @@
         <v>149.95</v>
       </c>
       <c r="T105">
+        <v>149.9</v>
+      </c>
+      <c r="U105">
         <v>-0.07500000000001705</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>-4.443703827139434E-05</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>-0.0001111358079574076</v>
       </c>
-      <c r="W105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23">
+      <c r="X105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>150</v>
@@ -8689,21 +9007,24 @@
         <v>149.94</v>
       </c>
       <c r="T106">
+        <v>149.9333333333333</v>
+      </c>
+      <c r="U106">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>-1.110975325235852E-05</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>-6.668889629846131E-05</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>0.0006671114076051143</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>150</v>
@@ -8760,21 +9081,24 @@
         <v>149.9333333333333</v>
       </c>
       <c r="T107">
+        <v>149.9666666666667</v>
+      </c>
+      <c r="U107">
         <v>-0.03125000000002842</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>-2.221975336091919E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>-4.446222933629507E-05</v>
       </c>
-      <c r="W107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23">
+      <c r="X107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>149.95</v>
@@ -8831,21 +9155,24 @@
         <v>149.9233333333333</v>
       </c>
       <c r="T108">
+        <v>149.9833333333333</v>
+      </c>
+      <c r="U108">
         <v>-0.015625</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>-2.22202470893107E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>-6.66963094709816E-05</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>-0.0003333333333334076</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>149.95</v>
@@ -8902,21 +9229,24 @@
         <v>149.9133333333333</v>
       </c>
       <c r="T109">
+        <v>149.9666666666667</v>
+      </c>
+      <c r="U109">
         <v>0.006250000000022737</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>-3.333111125880528E-05</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>-6.67007581651724E-05</v>
       </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="X109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>150</v>
@@ -8973,21 +9303,24 @@
         <v>149.92</v>
       </c>
       <c r="T110">
+        <v>149.9666666666667</v>
+      </c>
+      <c r="U110">
         <v>0.03125000000002842</v>
       </c>
-      <c r="U110">
-        <v>0</v>
-      </c>
       <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
         <v>4.447013830199964E-05</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>0.0003334444814939719</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>150</v>
@@ -9044,21 +9377,24 @@
         <v>149.9266666666666</v>
       </c>
       <c r="T111">
+        <v>149.9833333333333</v>
+      </c>
+      <c r="U111">
         <v>0.03750000000002274</v>
       </c>
-      <c r="U111">
-        <v>0</v>
-      </c>
       <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
         <v>4.446816079672899E-05</v>
       </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="X111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>150</v>
@@ -9115,21 +9451,24 @@
         <v>149.9333333333333</v>
       </c>
       <c r="T112">
+        <v>150</v>
+      </c>
+      <c r="U112">
         <v>0.04375000000001705</v>
       </c>
-      <c r="U112">
-        <v>0</v>
-      </c>
       <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
         <v>4.446618346753972E-05</v>
       </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="X112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>150</v>
@@ -9186,21 +9525,24 @@
         <v>149.94</v>
       </c>
       <c r="T113">
+        <v>150</v>
+      </c>
+      <c r="U113">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>-1.111074075310636E-05</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>4.446420631398773E-05</v>
       </c>
-      <c r="W113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="X113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>150.05</v>
@@ -9257,21 +9599,24 @@
         <v>149.95</v>
       </c>
       <c r="T114">
+        <v>150.0166666666667</v>
+      </c>
+      <c r="U114">
         <v>0.046875</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>-1.111086420335639E-05</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>6.669334400410953E-05</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>0.0003333333333335187</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>150</v>
@@ -9328,21 +9673,24 @@
         <v>149.9566666666666</v>
       </c>
       <c r="T115">
+        <v>150.0166666666667</v>
+      </c>
+      <c r="U115">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>-2.222197531098757E-05</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>4.445926419904822E-05</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>-0.0003332222592470346</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>149.95</v>
@@ -9399,21 +9747,24 @@
         <v>149.9633333333333</v>
       </c>
       <c r="T116">
+        <v>150</v>
+      </c>
+      <c r="U116">
         <v>0.03750000000002274</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>-4.444493827726603E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>4.445728766078183E-05</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>-0.0003333333333334076</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>150</v>
@@ -9470,21 +9821,24 @@
         <v>149.9733333333333</v>
       </c>
       <c r="T117">
+        <v>149.9833333333333</v>
+      </c>
+      <c r="U117">
         <v>0.03437500000001137</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>-2.22234568586499E-05</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>6.668296694756215E-05</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>0.0003334444814939719</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>150.1</v>
@@ -9541,21 +9895,24 @@
         <v>149.9866666666667</v>
       </c>
       <c r="T118">
+        <v>150.0166666666667</v>
+      </c>
+      <c r="U118">
         <v>0.03124999999997158</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>-2.222395075168748E-05</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>8.89046941678906E-05</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>0.0006666666666665932</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>150.1</v>
@@ -9612,21 +9969,24 @@
         <v>150</v>
       </c>
       <c r="T119">
+        <v>150.0666666666667</v>
+      </c>
+      <c r="U119">
         <v>0.03124999999997158</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>-1.111222233352027E-05</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>8.889679082568769E-05</v>
       </c>
-      <c r="W119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="X119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>150.1</v>
@@ -9683,21 +10043,24 @@
         <v>150.0133333333333</v>
       </c>
       <c r="T120">
+        <v>150.1</v>
+      </c>
+      <c r="U120">
         <v>0.03125</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>-1.111234581618881E-05</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>8.888888888880508E-05</v>
       </c>
-      <c r="W120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23">
+      <c r="X120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>150.1</v>
@@ -9754,21 +10117,24 @@
         <v>150.02</v>
       </c>
       <c r="T121">
+        <v>150.1</v>
+      </c>
+      <c r="U121">
         <v>0.03125</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>-1.111246930174392E-05</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>4.44404941781773E-05</v>
       </c>
-      <c r="W121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23">
+      <c r="X121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>150.05</v>
@@ -9825,21 +10191,24 @@
         <v>150.0233333333333</v>
       </c>
       <c r="T122">
+        <v>150.0833333333333</v>
+      </c>
+      <c r="U122">
         <v>0.02812500000001705</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>-1.111259278996357E-05</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>2.221925965439908E-05</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>-0.0003331112591604679</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>149.95</v>
@@ -9896,21 +10265,24 @@
         <v>150.0233333333333</v>
       </c>
       <c r="T123">
+        <v>150.0333333333333</v>
+      </c>
+      <c r="U123">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>-3.333814884387554E-05</v>
       </c>
-      <c r="V123">
-        <v>0</v>
-      </c>
       <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
         <v>-0.0006664445184939582</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>149.95</v>
@@ -9967,21 +10339,24 @@
         <v>150.0233333333334</v>
       </c>
       <c r="T124">
+        <v>149.9833333333333</v>
+      </c>
+      <c r="U124">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>-3.333926031290346E-05</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23">
+      <c r="X124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>149.85</v>
@@ -10038,21 +10413,24 @@
         <v>150.0133333333333</v>
       </c>
       <c r="T125">
+        <v>149.9166666666667</v>
+      </c>
+      <c r="U125">
         <v>0.01249999999996021</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>-1.111345728543878E-05</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>-6.665629790936212E-05</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>-0.0006668889629876107</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>149.9</v>
@@ -10109,21 +10487,24 @@
         <v>150.0066666666667</v>
       </c>
       <c r="T126">
+        <v>149.9</v>
+      </c>
+      <c r="U126">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U126">
-        <v>0</v>
-      </c>
       <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
         <v>-4.444049417828833E-05</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>0.0003336670003337705</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>149.85</v>
@@ -10180,21 +10561,24 @@
         <v>149.9966666666667</v>
       </c>
       <c r="T127">
+        <v>149.8666666666667</v>
+      </c>
+      <c r="U127">
         <v>-0.02812500000001705</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>-1.111358079575187E-05</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>-6.66637038353457E-05</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>-0.0003335557038025572</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>149.85</v>
@@ -10251,21 +10635,24 @@
         <v>149.9866666666667</v>
       </c>
       <c r="T128">
+        <v>149.8666666666666</v>
+      </c>
+      <c r="U128">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>-1.111370430895153E-05</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>-6.666814818123701E-05</v>
       </c>
-      <c r="W128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23">
+      <c r="X128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>149.85</v>
@@ -10322,21 +10709,24 @@
         <v>149.9733333333333</v>
       </c>
       <c r="T129">
+        <v>149.85</v>
+      </c>
+      <c r="U129">
         <v>-0.07187500000000568</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>-1.111382782437165E-05</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>-8.889679082590973E-05</v>
       </c>
-      <c r="W129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23">
+      <c r="X129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>149.8</v>
@@ -10393,21 +10783,24 @@
         <v>149.96</v>
       </c>
       <c r="T130">
+        <v>149.8333333333333</v>
+      </c>
+      <c r="U130">
         <v>-0.08750000000003411</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>-2.222790268624486E-05</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-8.890469416777957E-05</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>-0.0003336670003335485</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>149.8</v>
@@ -10464,21 +10857,24 @@
         <v>149.95</v>
       </c>
       <c r="T131">
+        <v>149.8166666666667</v>
+      </c>
+      <c r="U131">
         <v>-0.09374999999997158</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>-1.11141983886176E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>-6.668444918656036E-05</v>
       </c>
-      <c r="W131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23">
+      <c r="X131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>149.7</v>
@@ -10535,21 +10931,24 @@
         <v>149.93</v>
       </c>
       <c r="T132">
+        <v>149.7666666666667</v>
+      </c>
+      <c r="U132">
         <v>-0.1093750000000284</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>-3.334296574541984E-05</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-0.0001333777925973667</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>-0.0006675567423232165</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>149.7</v>
@@ -10606,21 +11005,24 @@
         <v>149.9033333333333</v>
       </c>
       <c r="T133">
+        <v>149.7333333333333</v>
+      </c>
+      <c r="U133">
         <v>-0.109375</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>-4.445877004832788E-05</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-0.0001778607794751252</v>
       </c>
-      <c r="W133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23">
+      <c r="X133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>149.7</v>
@@ -10677,21 +11079,24 @@
         <v>149.8766666666666</v>
       </c>
       <c r="T134">
+        <v>149.7</v>
+      </c>
+      <c r="U134">
         <v>-0.1093749999999716</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-4.44607467181557E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-0.0001778924195593445</v>
       </c>
-      <c r="W134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23">
+      <c r="X134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>149.6</v>
@@ -10748,21 +11153,24 @@
         <v>149.8433333333333</v>
       </c>
       <c r="T135">
+        <v>149.6666666666667</v>
+      </c>
+      <c r="U135">
         <v>-0.109375</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>-6.669408534609733E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-0.0002224050886282525</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>-0.0006680026720106147</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>149.55</v>
@@ -10819,21 +11227,24 @@
         <v>149.8066666666667</v>
       </c>
       <c r="T136">
+        <v>149.6166666666666</v>
+      </c>
+      <c r="U136">
         <v>-0.1125000000000114</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>-0.0001000478006157879</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>-0.0002447000200208604</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>-0.0003342245989303994</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>149.55</v>
@@ -10890,21 +11301,24 @@
         <v>149.7733333333333</v>
       </c>
       <c r="T137">
+        <v>149.5666666666667</v>
+      </c>
+      <c r="U137">
         <v>-0.1156249999999943</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>-0.0001000578111799433</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>-0.0002225090116149131</v>
       </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23">
+      <c r="X137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>149.6</v>
@@ -10961,21 +11375,24 @@
         <v>149.75</v>
       </c>
       <c r="T138">
+        <v>149.5666666666667</v>
+      </c>
+      <c r="U138">
         <v>-0.1124999999999829</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>-7.783052958110215E-05</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>-0.0001557909730259821</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>0.0003343363423602419</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>149.6</v>
@@ -11032,21 +11449,24 @@
         <v>149.7266666666667</v>
       </c>
       <c r="T139">
+        <v>149.5833333333333</v>
+      </c>
+      <c r="U139">
         <v>-0.1156249999999943</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>-7.783658764415335E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>-0.0001558152476349717</v>
       </c>
-      <c r="W139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23">
+      <c r="X139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>149.55</v>
@@ -11103,21 +11523,24 @@
         <v>149.7066666666666</v>
       </c>
       <c r="T140">
+        <v>149.5833333333333</v>
+      </c>
+      <c r="U140">
         <v>-0.1093749999999716</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>-0.0001000834028358488</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>-0.0001335767398371601</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>-0.0003342245989303994</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>149.55</v>
@@ -11174,21 +11597,24 @@
         <v>149.6833333333333</v>
       </c>
       <c r="T141">
+        <v>149.5666666666667</v>
+      </c>
+      <c r="U141">
         <v>-0.1093749999999716</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>-0.0001000934205259707</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>-0.0001558603491270683</v>
       </c>
-      <c r="W141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23">
+      <c r="X141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>149.55</v>
@@ -11245,21 +11671,24 @@
         <v>149.6633333333333</v>
       </c>
       <c r="T142">
+        <v>149.55</v>
+      </c>
+      <c r="U142">
         <v>-0.1062500000000171</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-0.0001001034402214884</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>-0.0001336154103107612</v>
       </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23">
+      <c r="X142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>149.5</v>
@@ -11316,21 +11745,24 @@
         <v>149.64</v>
       </c>
       <c r="T143">
+        <v>149.5333333333333</v>
+      </c>
+      <c r="U143">
         <v>-0.09687499999998295</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>-0.0001112371799149026</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>-0.0001559054767367174</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>-0.0003343363423604639</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>149.5</v>
@@ -11387,21 +11819,24 @@
         <v>149.6166666666667</v>
       </c>
       <c r="T144">
+        <v>149.5166666666667</v>
+      </c>
+      <c r="U144">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-0.0001223745105018992</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>-0.0001559297870443732</v>
       </c>
-      <c r="W144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23">
+      <c r="X144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>149.45</v>
@@ -11458,21 +11893,24 @@
         <v>149.5933333333333</v>
       </c>
       <c r="T145">
+        <v>149.4833333333333</v>
+      </c>
+      <c r="U145">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-0.0001223894878557008</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>-0.0001559541049350743</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>-0.0003344481605351834</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>149.5</v>
@@ -11529,21 +11967,24 @@
         <v>149.5733333333334</v>
       </c>
       <c r="T146">
+        <v>149.4833333333333</v>
+      </c>
+      <c r="U146">
         <v>-0.06249999999997158</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-0.0001001491108985064</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>-0.0001336957974951147</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>0.0003345600535296089</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>149.5</v>
@@ -11600,21 +12041,24 @@
         <v>149.56</v>
       </c>
       <c r="T147">
+        <v>149.4833333333333</v>
+      </c>
+      <c r="U147">
         <v>-0.05625000000003411</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>-0.0001112879352750396</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>-8.914244963476037E-05</v>
       </c>
-      <c r="W147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23">
+      <c r="X147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>149.5</v>
@@ -11671,21 +12115,24 @@
         <v>149.5466666666667</v>
       </c>
       <c r="T148">
+        <v>149.5</v>
+      </c>
+      <c r="U148">
         <v>-0.04999999999998295</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-0.0001335603859894396</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>-8.915039671919534E-05</v>
       </c>
-      <c r="W148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23">
+      <c r="X148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>149.5</v>
@@ -11742,21 +12189,24 @@
         <v>149.5333333333333</v>
       </c>
       <c r="T149">
+        <v>149.5</v>
+      </c>
+      <c r="U149">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>-0.000133578226749087</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>-8.915834522105204E-05</v>
       </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23">
+      <c r="X149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>149.5</v>
@@ -11813,21 +12263,24 @@
         <v>149.5266666666666</v>
       </c>
       <c r="T150">
+        <v>149.5</v>
+      </c>
+      <c r="U150">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-0.000133596072275366</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>-4.458314757038728E-05</v>
       </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23">
+      <c r="X150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>149.55</v>
@@ -11884,21 +12337,24 @@
         <v>149.5266666666667</v>
       </c>
       <c r="T151">
+        <v>149.5166666666667</v>
+      </c>
+      <c r="U151">
         <v>-0.02812499999998863</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>-0.0001224794290232145</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>0.0003344481605351834</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>149.55</v>
@@ -11955,21 +12411,24 @@
         <v>149.5266666666667</v>
       </c>
       <c r="T152">
+        <v>149.5333333333333</v>
+      </c>
+      <c r="U152">
         <v>-0.02187499999999432</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>-0.0001113585746101986</v>
       </c>
-      <c r="V152">
-        <v>0</v>
-      </c>
       <c r="W152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="X152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>149.55</v>
@@ -12026,21 +12485,24 @@
         <v>149.5233333333333</v>
       </c>
       <c r="T153">
+        <v>149.55</v>
+      </c>
+      <c r="U153">
         <v>-0.009374999999977263</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>-8.90967813786947E-05</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>-2.229256765795551E-05</v>
       </c>
-      <c r="W153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23">
+      <c r="X153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>149.55</v>
@@ -12097,21 +12559,24 @@
         <v>149.52</v>
       </c>
       <c r="T154">
-        <v>0</v>
+        <v>149.55</v>
       </c>
       <c r="U154">
+        <v>0</v>
+      </c>
+      <c r="V154">
         <v>-8.910472032253036E-05</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>-2.229306462753211E-05</v>
       </c>
-      <c r="W154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23">
+      <c r="X154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>149.5</v>
@@ -12168,21 +12633,24 @@
         <v>149.5166666666667</v>
       </c>
       <c r="T155">
+        <v>149.5333333333333</v>
+      </c>
+      <c r="U155">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>-7.79735780962465E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>-2.22935616194242E-05</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>-0.0003343363423604639</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>149.55</v>
@@ -12239,21 +12707,24 @@
         <v>149.5166666666667</v>
       </c>
       <c r="T156">
+        <v>149.5333333333333</v>
+      </c>
+      <c r="U156">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>-7.797965844924537E-05</v>
       </c>
-      <c r="V156">
-        <v>0</v>
-      </c>
       <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
         <v>0.0003344481605351834</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>149.55</v>
@@ -12310,21 +12781,24 @@
         <v>149.5166666666667</v>
       </c>
       <c r="T157">
+        <v>149.5333333333333</v>
+      </c>
+      <c r="U157">
         <v>0.01875000000003979</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>-6.684491978603546E-05</v>
       </c>
-      <c r="V157">
-        <v>0</v>
-      </c>
       <c r="W157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:23">
+      <c r="X157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>149.5</v>
@@ -12381,21 +12855,24 @@
         <v>149.5166666666667</v>
       </c>
       <c r="T158">
+        <v>149.5333333333333</v>
+      </c>
+      <c r="U158">
         <v>0.02187500000002274</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>-7.799095304938941E-05</v>
       </c>
-      <c r="V158">
-        <v>0</v>
-      </c>
       <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
         <v>-0.0003343363423604639</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>149.5</v>
@@ -12452,21 +12929,24 @@
         <v>149.5166666666667</v>
       </c>
       <c r="T159">
+        <v>149.5166666666667</v>
+      </c>
+      <c r="U159">
         <v>0.015625</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>-7.799703611277575E-05</v>
       </c>
-      <c r="V159">
-        <v>0</v>
-      </c>
       <c r="W159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:23">
+      <c r="X159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>149.55</v>
@@ -12523,21 +13003,24 @@
         <v>149.5233333333334</v>
       </c>
       <c r="T160">
+        <v>149.5166666666667</v>
+      </c>
+      <c r="U160">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>-5.571651437485947E-05</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>4.458811726681944E-05</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>0.0003344481605351834</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>149.5</v>
@@ -12594,21 +13077,24 @@
         <v>149.5233333333334</v>
       </c>
       <c r="T161">
+        <v>149.5166666666667</v>
+      </c>
+      <c r="U161">
         <v>0.003124999999982947</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>-6.68635426535058E-05</v>
       </c>
-      <c r="V161">
-        <v>0</v>
-      </c>
       <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
         <v>-0.0003343363423604639</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>149.5</v>
@@ -12665,21 +13151,24 @@
         <v>149.5233333333334</v>
       </c>
       <c r="T162">
+        <v>149.5166666666667</v>
+      </c>
+      <c r="U162">
         <v>-0.003125000000011369</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>-4.457867579044095E-05</v>
       </c>
-      <c r="V162">
-        <v>0</v>
-      </c>
       <c r="W162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:23">
+      <c r="X162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>149.45</v>
@@ -12736,21 +13225,24 @@
         <v>149.52</v>
       </c>
       <c r="T163">
+        <v>149.4833333333333</v>
+      </c>
+      <c r="U163">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>-5.572582892166E-05</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>-2.229306462775416E-05</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>-0.0003344481605351834</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>149.55</v>
@@ -12807,21 +13299,24 @@
         <v>149.5233333333334</v>
       </c>
       <c r="T164">
+        <v>149.5</v>
+      </c>
+      <c r="U164">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>-3.343736067762393E-05</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>2.229356161964624E-05</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>0.0006691201070594399</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>149.6</v>
@@ -12878,21 +13373,24 @@
         <v>149.53</v>
       </c>
       <c r="T165">
+        <v>149.5333333333333</v>
+      </c>
+      <c r="U165">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U165">
-        <v>0</v>
-      </c>
       <c r="V165">
+        <v>0</v>
+      </c>
+      <c r="W165">
         <v>4.458612925506422E-05</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>0.0003343363423602419</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>149.5</v>
@@ -12949,21 +13447,24 @@
         <v>149.5266666666667</v>
       </c>
       <c r="T166">
+        <v>149.55</v>
+      </c>
+      <c r="U166">
         <v>-0.009374999999977263</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>-1.114615959074694E-05</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>-2.229207071058337E-05</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>-0.0006684491978609097</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>149.5</v>
@@ -13020,21 +13521,24 @@
         <v>149.5233333333333</v>
       </c>
       <c r="T167">
+        <v>149.5333333333333</v>
+      </c>
+      <c r="U167">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>-1.114628382881122E-05</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>-2.229256765795551E-05</v>
       </c>
-      <c r="W167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23">
+      <c r="X167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>149.5</v>
@@ -13091,21 +13595,24 @@
         <v>149.52</v>
       </c>
       <c r="T168">
+        <v>149.5</v>
+      </c>
+      <c r="U168">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>-2.22928161401903E-05</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>-2.229306462753211E-05</v>
       </c>
-      <c r="W168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:23">
+      <c r="X168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>149.45</v>
@@ -13162,21 +13669,24 @@
         <v>149.5133333333333</v>
       </c>
       <c r="T169">
+        <v>149.4833333333333</v>
+      </c>
+      <c r="U169">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>-3.343996968108165E-05</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>-4.458712323895941E-05</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>-0.0003344481605351834</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>149.5</v>
@@ -13233,21 +13743,24 @@
         <v>149.5133333333333</v>
       </c>
       <c r="T170">
+        <v>149.4833333333333</v>
+      </c>
+      <c r="U170">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>-1.114702931670486E-05</v>
       </c>
-      <c r="V170">
-        <v>0</v>
-      </c>
       <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
         <v>0.0003345600535296089</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>149.45</v>
@@ -13304,21 +13817,24 @@
         <v>149.5066666666667</v>
       </c>
       <c r="T171">
+        <v>149.4666666666667</v>
+      </c>
+      <c r="U171">
         <v>-0.003125000000011369</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>-2.229430714861813E-05</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-4.458911133897736E-05</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>-0.0003344481605351834</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>149.45</v>
@@ -13375,21 +13891,24 @@
         <v>149.5</v>
       </c>
       <c r="T172">
+        <v>149.4666666666667</v>
+      </c>
+      <c r="U172">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>-2.229480419602137E-05</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>-4.459109961651997E-05</v>
       </c>
-      <c r="W172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:23">
+      <c r="X172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>149.5</v>
@@ -13446,21 +13965,24 @@
         <v>149.5</v>
       </c>
       <c r="T173">
+        <v>149.4666666666667</v>
+      </c>
+      <c r="U173">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U173">
-        <v>0</v>
-      </c>
       <c r="V173">
         <v>0</v>
       </c>
       <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
         <v>0.0003345600535296089</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>149.45</v>
@@ -13517,21 +14039,24 @@
         <v>149.4966666666667</v>
       </c>
       <c r="T174">
+        <v>149.4666666666667</v>
+      </c>
+      <c r="U174">
         <v>-0.02187500000002274</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>-1.114765063259249E-05</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>-2.229654403551606E-05</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>-0.0003344481605351834</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>149.35</v>
@@ -13588,21 +14113,24 @@
         <v>149.4833333333333</v>
       </c>
       <c r="T175">
+        <v>149.4333333333333</v>
+      </c>
+      <c r="U175">
         <v>-0.03125</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>-2.229554980803794E-05</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>-8.918816473080238E-05</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>-0.0006691201070592179</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>149.3</v>
@@ -13659,21 +14187,24 @@
         <v>149.47</v>
       </c>
       <c r="T176">
+        <v>149.3666666666666</v>
+      </c>
+      <c r="U176">
         <v>-0.04062499999997726</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>-4.459209382168261E-05</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>-8.919611996893728E-05</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>-0.0003347840642784483</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>149.3</v>
@@ -13730,21 +14261,24 @@
         <v>149.4566666666666</v>
       </c>
       <c r="T177">
+        <v>149.3166666666667</v>
+      </c>
+      <c r="U177">
         <v>-0.046875</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>-4.459408236523466E-05</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>-8.920407662627028E-05</v>
       </c>
-      <c r="W177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:23">
+      <c r="X177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>149.25</v>
@@ -13801,21 +14335,24 @@
         <v>149.4433333333333</v>
       </c>
       <c r="T178">
+        <v>149.2833333333333</v>
+      </c>
+      <c r="U178">
         <v>-0.0625</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>-5.574508885786145E-05</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>-8.921203470335648E-05</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>-0.0003348961821836305</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>149.25</v>
@@ -13872,21 +14409,24 @@
         <v>149.4233333333333</v>
       </c>
       <c r="T179">
+        <v>149.2666666666667</v>
+      </c>
+      <c r="U179">
         <v>-0.07500000000001705</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>-5.574819654574625E-05</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>-0.000133829991301071</v>
       </c>
-      <c r="W179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:23">
+      <c r="X179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>149.25</v>
@@ -13943,21 +14483,24 @@
         <v>149.4</v>
       </c>
       <c r="T180">
+        <v>149.25</v>
+      </c>
+      <c r="U180">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>-5.575130458046473E-05</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>-0.0001561558881922886</v>
       </c>
-      <c r="W180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:23">
+      <c r="X180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>149.3</v>
@@ -14014,21 +14557,24 @@
         <v>149.3866666666667</v>
       </c>
       <c r="T181">
+        <v>149.2666666666667</v>
+      </c>
+      <c r="U181">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>-5.575441296212791E-05</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>-8.92458723783518E-05</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>0.0003350083752093891</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>149.35</v>
@@ -14085,21 +14631,24 @@
         <v>149.3766666666667</v>
       </c>
       <c r="T182">
+        <v>149.3</v>
+      </c>
+      <c r="U182">
         <v>-0.09062499999998863</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>-4.460601735167824E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>-6.694037843635314E-05</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>0.0003348961821834084</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>149.25</v>
@@ -14156,21 +14705,24 @@
         <v>149.36</v>
       </c>
       <c r="T183">
+        <v>149.3</v>
+      </c>
+      <c r="U183">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>-6.691201070585517E-05</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>-0.0001115747662507882</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>-0.0006695681285570076</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>149.2</v>
@@ -14227,21 +14779,24 @@
         <v>149.3433333333333</v>
       </c>
       <c r="T184">
+        <v>149.2666666666667</v>
+      </c>
+      <c r="U184">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>-7.806923625996998E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>-0.000111587216568565</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>-0.0003350083752095001</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>149.2</v>
@@ -14298,21 +14853,24 @@
         <v>149.3233333333334</v>
       </c>
       <c r="T185">
+        <v>149.2166666666667</v>
+      </c>
+      <c r="U185">
         <v>-0.07812500000002842</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>-6.692171274946812E-05</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>-0.0001339196035978762</v>
       </c>
-      <c r="W185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:23">
+      <c r="X185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>149.2</v>
@@ -14369,21 +14927,24 @@
         <v>149.3066666666667</v>
       </c>
       <c r="T186">
+        <v>149.2</v>
+      </c>
+      <c r="U186">
         <v>-0.06562500000001137</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>-7.808055682601012E-05</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>-0.0001116146170503374</v>
       </c>
-      <c r="W186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:23">
+      <c r="X186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>149.2</v>
@@ -14440,21 +15001,24 @@
         <v>149.29</v>
       </c>
       <c r="T187">
+        <v>149.2</v>
+      </c>
+      <c r="U187">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>-7.808665387520897E-05</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>-0.0001116270762636651</v>
       </c>
-      <c r="W187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:23">
+      <c r="X187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>149.2</v>
@@ -14511,21 +15075,24 @@
         <v>149.27</v>
       </c>
       <c r="T188">
+        <v>149.2</v>
+      </c>
+      <c r="U188">
         <v>-0.04687500000002842</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>-6.693664446599801E-05</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>-0.0001339674459105433</v>
       </c>
-      <c r="W188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:23">
+      <c r="X188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>149.15</v>
@@ -14582,21 +15149,24 @@
         <v>149.25</v>
       </c>
       <c r="T189">
+        <v>149.1833333333333</v>
+      </c>
+      <c r="U189">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>-7.809797949387409E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>-0.0001339853955919512</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>-0.0003351206434315523</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>149.15</v>
@@ -14653,21 +15223,24 @@
         <v>149.2366666666667</v>
       </c>
       <c r="T190">
+        <v>149.1666666666667</v>
+      </c>
+      <c r="U190">
         <v>-0.04999999999998295</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>-8.926180487356383E-05</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>-8.933556672263698E-05</v>
       </c>
-      <c r="W190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:23">
+      <c r="X190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>149.2</v>
@@ -14724,21 +15297,24 @@
         <v>149.23</v>
       </c>
       <c r="T191">
+        <v>149.1666666666667</v>
+      </c>
+      <c r="U191">
         <v>-0.04687500000002842</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>-6.695232994125E-05</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>-4.467177413924883E-05</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>0.0003352329869257265</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>149.2</v>
@@ -14795,21 +15371,24 @@
         <v>149.2233333333333</v>
       </c>
       <c r="T192">
+        <v>149.1833333333333</v>
+      </c>
+      <c r="U192">
         <v>-0.04062500000000568</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>-6.695681285562305E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>-4.467376979622184E-05</v>
       </c>
-      <c r="W192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:23">
+      <c r="X192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>149.15</v>
@@ -14866,21 +15445,24 @@
         <v>149.2166666666667</v>
       </c>
       <c r="T193">
+        <v>149.1833333333333</v>
+      </c>
+      <c r="U193">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>-6.69612963708488E-05</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>-4.467576563094156E-05</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>-0.0003351206434315523</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>149.2</v>
@@ -14937,21 +15519,24 @@
         <v>149.2133333333333</v>
       </c>
       <c r="T194">
+        <v>149.1833333333333</v>
+      </c>
+      <c r="U194">
         <v>-0.03437500000001137</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>-7.812674390050844E-05</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>-2.23388808222591E-05</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>0.0003352329869257265</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>149.15</v>
@@ -15008,21 +15593,24 @@
         <v>149.2066666666666</v>
       </c>
       <c r="T195">
+        <v>149.1666666666667</v>
+      </c>
+      <c r="U195">
         <v>-0.03437500000001137</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>-0.0001004565190700912</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>-4.467875971758684E-05</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>-0.0003351206434315523</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>149.15</v>
@@ -15079,21 +15667,24 @@
         <v>149.1966666666667</v>
       </c>
       <c r="T196">
+        <v>149.1666666666667</v>
+      </c>
+      <c r="U196">
         <v>-0.03437499999998295</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>-7.814069790823552E-05</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>-6.702113399748022E-05</v>
       </c>
-      <c r="W196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23">
+      <c r="X196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>149.2</v>
@@ -15150,21 +15741,24 @@
         <v>149.1866666666666</v>
       </c>
       <c r="T197">
+        <v>149.1666666666667</v>
+      </c>
+      <c r="U197">
         <v>-0.02187499999996589</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>-6.698297516027907E-05</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>-6.702562613114527E-05</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>0.0003352329869257265</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>149.15</v>
@@ -15221,21 +15815,24 @@
         <v>149.18</v>
       </c>
       <c r="T198">
+        <v>149.1666666666667</v>
+      </c>
+      <c r="U198">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>-7.815203921013314E-05</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>-4.468674591107114E-05</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>-0.0003351206434315523</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>149</v>
@@ -15292,21 +15889,24 @@
         <v>149.1666666666667</v>
       </c>
       <c r="T199">
+        <v>149.1166666666667</v>
+      </c>
+      <c r="U199">
         <v>-0.01874999999998295</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>-0.0001004890466937969</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>-8.937748581128169E-05</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>-0.001005698960777734</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>148.95</v>
@@ -15363,21 +15963,24 @@
         <v>149.15</v>
       </c>
       <c r="T200">
+        <v>149.0333333333333</v>
+      </c>
+      <c r="U200">
         <v>-0.03437499999998295</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>-0.0001228322892589118</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>-0.000111731843575491</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>-0.0003355704697987072</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>148.95</v>
@@ -15434,21 +16037,24 @@
         <v>149.1333333333333</v>
       </c>
       <c r="T201">
+        <v>148.9666666666667</v>
+      </c>
+      <c r="U201">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>-0.0001116794353488437</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>-0.0001117443289752051</v>
       </c>
-      <c r="W201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:23">
+      <c r="X201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>149</v>
@@ -15505,21 +16111,24 @@
         <v>149.12</v>
       </c>
       <c r="T202">
+        <v>148.9666666666667</v>
+      </c>
+      <c r="U202">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>-0.0001005227181342105</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>-8.94054537325939E-05</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>0.000335683115139318</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>149</v>
@@ -15576,21 +16185,24 @@
         <v>149.1066666666667</v>
       </c>
       <c r="T203">
+        <v>148.9833333333333</v>
+      </c>
+      <c r="U203">
         <v>-0.0625</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>-0.0001117031377410038</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>-8.941344778268245E-05</v>
       </c>
-      <c r="W203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:23">
+      <c r="X203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>149</v>
@@ -15647,21 +16259,24 @@
         <v>149.0966666666667</v>
       </c>
       <c r="T204">
+        <v>149</v>
+      </c>
+      <c r="U204">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>-0.000100544055053553</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>-6.70660824465541E-05</v>
       </c>
-      <c r="W204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:23">
+      <c r="X204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>149</v>
@@ -15718,21 +16333,24 @@
         <v>149.0866666666667</v>
       </c>
       <c r="T205">
+        <v>149</v>
+      </c>
+      <c r="U205">
         <v>-0.08437499999996589</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>-7.820879513753543E-05</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>-6.707058060761995E-05</v>
       </c>
-      <c r="W205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:23">
+      <c r="X205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>148.95</v>
@@ -15789,21 +16407,24 @@
         <v>149.07</v>
       </c>
       <c r="T206">
+        <v>148.9833333333333</v>
+      </c>
+      <c r="U206">
         <v>-0.09687500000001137</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>-7.821491223158894E-05</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>-0.0001117917989537087</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>-0.0003355704697987072</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>148.9</v>
@@ -15860,21 +16481,24 @@
         <v>149.05</v>
       </c>
       <c r="T207">
+        <v>148.95</v>
+      </c>
+      <c r="U207">
         <v>-0.09062499999998863</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>-8.939546318020852E-05</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>-0.0001341651573085745</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>-0.000335683115139207</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>148.85</v>
@@ -15931,21 +16555,24 @@
         <v>149.03</v>
       </c>
       <c r="T208">
+        <v>148.9</v>
+      </c>
+      <c r="U208">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>-8.940345544350414E-05</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>-0.0001341831600134569</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>-0.000335795836131747</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>148.75</v>
@@ -16002,21 +16629,24 @@
         <v>149</v>
       </c>
       <c r="T209">
+        <v>148.8333333333333</v>
+      </c>
+      <c r="U209">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>-0.0001117643114201261</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>-0.0002013017513252668</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>-0.0006718172657036448</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>148.75</v>
@@ -16073,21 +16703,24 @@
         <v>148.9733333333333</v>
       </c>
       <c r="T210">
+        <v>148.7833333333333</v>
+      </c>
+      <c r="U210">
         <v>-0.08437500000002274</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>-0.0001117768040774791</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>-0.0001789709172259624</v>
       </c>
-      <c r="W210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:23">
+      <c r="X210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>148.75</v>
@@ -16144,21 +16777,24 @@
         <v>148.9466666666667</v>
       </c>
       <c r="T211">
+        <v>148.75</v>
+      </c>
+      <c r="U211">
         <v>-0.09062500000001705</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>-0.0001229682294811019</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>-0.0001790029535487792</v>
       </c>
-      <c r="W211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:23">
+      <c r="X211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>148.8</v>
@@ -16215,21 +16851,24 @@
         <v>148.92</v>
       </c>
       <c r="T212">
+        <v>148.7666666666667</v>
+      </c>
+      <c r="U212">
         <v>-0.09375</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>-0.0001229833525264734</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>-0.0001790350013426423</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>0.0003361344537815558</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>148.85</v>
@@ -16286,21 +16925,24 @@
         <v>148.9</v>
       </c>
       <c r="T213">
+        <v>148.8</v>
+      </c>
+      <c r="U213">
         <v>-0.09062500000001705</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>-8.945343948463247E-05</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>-0.0001343002954606876</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0.0003360215053762605</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>148.8</v>
@@ -16357,21 +16999,24 @@
         <v>148.8866666666667</v>
       </c>
       <c r="T214">
+        <v>148.8166666666667</v>
+      </c>
+      <c r="U214">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>-8.946144211841034E-05</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>-8.954555630169558E-05</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>-0.0003359086328517114</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>148.9</v>
@@ -16428,21 +17073,24 @@
         <v>148.8833333333333</v>
       </c>
       <c r="T215">
+        <v>148.85</v>
+      </c>
+      <c r="U215">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>-6.710208463800438E-05</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>-2.238839385682034E-05</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>0.0006720430107527431</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>148.8</v>
@@ -16499,21 +17147,24 @@
         <v>148.8733333333333</v>
       </c>
       <c r="T216">
+        <v>148.8333333333333</v>
+      </c>
+      <c r="U216">
         <v>-0.078125</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>-8.947545017323755E-05</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>-6.716668532402714E-05</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>-0.000671591672263272</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>148.75</v>
@@ -16570,21 +17221,24 @@
         <v>148.8566666666667</v>
       </c>
       <c r="T217">
+        <v>148.8166666666667</v>
+      </c>
+      <c r="U217">
         <v>-0.06562499999998295</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>-0.0001006688888394169</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>-0.0001119519949845937</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>-0.0003360215053763715</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>148.8</v>
@@ -16641,21 +17295,24 @@
         <v>148.8433333333333</v>
       </c>
       <c r="T218">
+        <v>148.7833333333333</v>
+      </c>
+      <c r="U218">
         <v>-0.046875</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>-8.949246585299164E-05</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>-8.957162370948346E-05</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>0.0003361344537815558</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>148.75</v>
@@ -16712,21 +17369,24 @@
         <v>148.8266666666667</v>
       </c>
       <c r="T219">
+        <v>148.7666666666667</v>
+      </c>
+      <c r="U219">
         <v>-0.03125</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>-8.950047547118256E-05</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>-0.000111974559380057</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>-0.0003360215053763715</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>148.9</v>
@@ -16783,21 +17443,24 @@
         <v>148.82</v>
       </c>
       <c r="T220">
+        <v>148.8166666666667</v>
+      </c>
+      <c r="U220">
         <v>-0.01250000000001705</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>-5.594280407728025E-05</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>-4.479483963448772E-05</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>0.001008403361344667</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>148.95</v>
@@ -16854,21 +17517,24 @@
         <v>148.82</v>
       </c>
       <c r="T221">
+        <v>148.8666666666666</v>
+      </c>
+      <c r="U221">
         <v>0.003125000000011369</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>-5.594593384949942E-05</v>
       </c>
-      <c r="V221">
-        <v>0</v>
-      </c>
       <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
         <v>0.0003357958361314139</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>149</v>
@@ -16925,21 +17591,24 @@
         <v>148.8266666666667</v>
       </c>
       <c r="T222">
+        <v>148.95</v>
+      </c>
+      <c r="U222">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>-4.475925117763957E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>4.479684630198655E-05</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>0.000335683115139318</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>149</v>
@@ -16996,21 +17665,24 @@
         <v>148.8366666666667</v>
       </c>
       <c r="T223">
+        <v>148.9833333333333</v>
+      </c>
+      <c r="U223">
         <v>0.03125</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>-3.357094099343261E-05</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>6.719225945173157E-05</v>
       </c>
-      <c r="W223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:23">
+      <c r="X223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>149</v>
@@ -17067,21 +17739,24 @@
         <v>148.8533333333334</v>
       </c>
       <c r="T224">
+        <v>149</v>
+      </c>
+      <c r="U224">
         <v>0.046875</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>-4.476275738596325E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>0.0001119795749255914</v>
       </c>
-      <c r="W224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:23">
+      <c r="X224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>148.95</v>
@@ -17138,21 +17813,24 @@
         <v>148.8666666666667</v>
       </c>
       <c r="T225">
+        <v>148.9833333333333</v>
+      </c>
+      <c r="U225">
         <v>0.05937499999998863</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>-4.47647611797608E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>8.957362952344283E-05</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>-0.0003355704697987072</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>148.9</v>
@@ -17209,21 +17887,24 @@
         <v>148.8766666666667</v>
       </c>
       <c r="T226">
+        <v>148.95</v>
+      </c>
+      <c r="U226">
         <v>0.0625</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>-5.595845644190689E-05</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>6.717420510526928E-05</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>-0.000335683115139207</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>148.9</v>
@@ -17280,21 +17961,24 @@
         <v>148.8833333333333</v>
       </c>
       <c r="T227">
+        <v>148.9166666666667</v>
+      </c>
+      <c r="U227">
         <v>0.07187500000000568</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>-6.715390555955825E-05</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>4.477979535622012E-05</v>
       </c>
-      <c r="W227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:23">
+      <c r="X227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>148.9</v>
@@ -17351,21 +18035,24 @@
         <v>148.8866666666667</v>
       </c>
       <c r="T228">
+        <v>148.9</v>
+      </c>
+      <c r="U228">
         <v>0.06562499999998295</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>-5.596534625740279E-05</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>2.238889510830511E-05</v>
       </c>
-      <c r="W228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:23">
+      <c r="X228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>149</v>
@@ -17422,21 +18109,24 @@
         <v>148.9</v>
       </c>
       <c r="T229">
+        <v>148.9333333333334</v>
+      </c>
+      <c r="U229">
         <v>0.06249999999997158</v>
       </c>
-      <c r="U229">
-        <v>0</v>
-      </c>
       <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
         <v>8.955357542639319E-05</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>0.000671591672263272</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>149</v>
@@ -17493,21 +18183,24 @@
         <v>148.9066666666667</v>
       </c>
       <c r="T230">
+        <v>148.9666666666667</v>
+      </c>
+      <c r="U230">
         <v>0.04999999999998295</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>1.119369571056517E-05</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>4.477277815095881E-05</v>
       </c>
-      <c r="W230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:23">
+      <c r="X230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>149.05</v>
@@ -17564,21 +18257,24 @@
         <v>148.9233333333333</v>
       </c>
       <c r="T231">
+        <v>149.0166666666667</v>
+      </c>
+      <c r="U231">
         <v>0.046875</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>2.238714082647419E-05</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>0.0001119269340972284</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>0.0003355704697987072</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>149.15</v>
@@ -17635,21 +18331,24 @@
         <v>148.95</v>
       </c>
       <c r="T232">
+        <v>149.0666666666667</v>
+      </c>
+      <c r="U232">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>3.357995947994574E-05</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>0.0001790630525773107</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>0.0006709158000670623</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>149.15</v>
@@ -17706,21 +18405,24 @@
         <v>148.9733333333333</v>
       </c>
       <c r="T233">
+        <v>149.1166666666667</v>
+      </c>
+      <c r="U233">
         <v>0.04375000000001705</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>3.357883190435729E-05</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>0.0001566521203983928</v>
       </c>
-      <c r="W233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:23">
+      <c r="X233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>149.15</v>
@@ -17777,21 +18479,24 @@
         <v>149</v>
       </c>
       <c r="T234">
+        <v>149.15</v>
+      </c>
+      <c r="U234">
         <v>0.05312500000002274</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>3.357770440448604E-05</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>0.0001790029535486681</v>
       </c>
-      <c r="W234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:23">
+      <c r="X234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>149.25</v>
@@ -17848,21 +18553,24 @@
         <v>149.0233333333334</v>
       </c>
       <c r="T235">
+        <v>149.1833333333333</v>
+      </c>
+      <c r="U235">
         <v>0.06562500000001137</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>5.596096163307251E-05</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>0.0001565995525729669</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>0.000670465973851897</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>149.2</v>
@@ -17919,21 +18627,24 @@
         <v>149.04</v>
       </c>
       <c r="T236">
+        <v>149.2</v>
+      </c>
+      <c r="U236">
         <v>0.08437499999999432</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>5.595783017886546E-05</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>0.0001118393092800485</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>-0.0003350083752095001</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>149.3</v>
@@ -17990,21 +18701,24 @@
         <v>149.06</v>
       </c>
       <c r="T237">
+        <v>149.25</v>
+      </c>
+      <c r="U237">
         <v>0.09999999999999432</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>8.952751852109309E-05</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>0.000134192163177671</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>0.0006702412868633267</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>149.35</v>
@@ -18061,21 +18775,24 @@
         <v>149.0833333333333</v>
       </c>
       <c r="T238">
+        <v>149.2833333333333</v>
+      </c>
+      <c r="U238">
         <v>0.1218750000000171</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>0.0001118993800772738</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>0.0001565365177333966</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>0.0003348961821834084</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>149.3</v>
@@ -18132,21 +18849,24 @@
         <v>149.1033333333334</v>
       </c>
       <c r="T239">
+        <v>149.3166666666667</v>
+      </c>
+      <c r="U239">
         <v>0.1343749999999773</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>0.0001230755460079891</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>0.0001341531581890987</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>-0.0003347840642784483</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>149.3</v>
@@ -18203,21 +18923,24 @@
         <v>149.1266666666667</v>
       </c>
       <c r="T240">
+        <v>149.3166666666667</v>
+      </c>
+      <c r="U240">
         <v>0.1343750000000057</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>0.0001230604002817604</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>0.000156491024121852</v>
       </c>
-      <c r="W240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:23">
+      <c r="X240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>149.3</v>
@@ -18274,21 +18997,24 @@
         <v>149.1533333333333</v>
       </c>
       <c r="T241">
+        <v>149.3</v>
+      </c>
+      <c r="U241">
         <v>0.1312499999999943</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>0.0001230452582832164</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>0.0001788189011577845</v>
       </c>
-      <c r="W241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:23">
+      <c r="X241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>149.3</v>
@@ -18345,21 +19071,24 @@
         <v>149.18</v>
       </c>
       <c r="T242">
+        <v>149.3</v>
+      </c>
+      <c r="U242">
         <v>0.125</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>0.0001118455636459625</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>0.0001787869306753009</v>
       </c>
-      <c r="W242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:23">
+      <c r="X242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>149.25</v>
@@ -18416,21 +19145,24 @@
         <v>149.2033333333333</v>
       </c>
       <c r="T243">
+        <v>149.2833333333333</v>
+      </c>
+      <c r="U243">
         <v>0.1031250000000341</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>8.946644449148167E-05</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>0.0001564106001699095</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>-0.0003348961821836305</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>149.3</v>
@@ -18487,15 +19219,18 @@
         <v>149.2233333333333</v>
       </c>
       <c r="T244">
+        <v>149.2833333333333</v>
+      </c>
+      <c r="U244">
         <v>0.09062500000001705</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>0.0001118230512036078</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>0.0001340452626170663</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>0.0003350083752093891</v>
       </c>
     </row>
